--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -183,9 +183,6 @@
     <t>АИ-9</t>
   </si>
   <si>
-    <t>Аи-9В</t>
-  </si>
-  <si>
     <t>sne=6000, ppr=0</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
   </si>
   <si>
     <t>8АТ.2710.000</t>
-  </si>
-  <si>
-    <t>8АТ.2710.00</t>
   </si>
   <si>
     <t>КАУ-30</t>
@@ -374,6 +368,12 @@
   </si>
   <si>
     <t>Ми-8Т</t>
+  </si>
+  <si>
+    <t>АИ-9В</t>
+  </si>
+  <si>
+    <t>8АТ-2710-00</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1381,7 @@
   <dimension ref="A6:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,16 +1479,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>9</v>
@@ -1506,10 +1506,10 @@
         <v>13</v>
       </c>
       <c r="R8" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S8" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>14</v>
@@ -1539,16 +1539,16 @@
         <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>22</v>
@@ -1566,17 +1566,17 @@
         <v>26</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>27</v>
@@ -1892,7 +1892,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -1933,17 +1933,17 @@
         <v>19970000</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -1991,10 +1991,10 @@
     <row r="18" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -2042,10 +2042,10 @@
     <row r="19" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="70"/>
       <c r="B19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>54</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>55</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>56</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>30</v>
@@ -2097,10 +2097,10 @@
     <row r="20" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>29</v>
@@ -2145,17 +2145,17 @@
         <v>5000000</v>
       </c>
       <c r="T20" s="100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U20" s="71"/>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="70"/>
       <c r="B21" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="D21" s="26">
         <v>1</v>
@@ -2164,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>56</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>30</v>
@@ -2205,10 +2205,10 @@
     <row r="22" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L22" s="12">
         <v>60</v>
@@ -2258,10 +2258,10 @@
     <row r="23" spans="1:21" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -2309,10 +2309,10 @@
     <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -2358,10 +2358,10 @@
     <row r="25" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
@@ -2407,10 +2407,10 @@
     <row r="26" spans="1:21" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>69</v>
       </c>
       <c r="D26" s="7">
         <v>5</v>
@@ -2419,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="63" t="s">
         <v>29</v>
@@ -2460,10 +2460,10 @@
     <row r="27" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D27" s="26">
         <v>5</v>
@@ -2472,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="64" t="s">
         <v>29</v>
@@ -2513,10 +2513,10 @@
     <row r="28" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="12">
         <v>3</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="61" t="s">
         <v>29</v>
@@ -2568,10 +2568,10 @@
     <row r="29" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="62" t="s">
         <v>29</v>
@@ -2623,10 +2623,10 @@
     <row r="30" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="11">
         <v>4</v>
@@ -2674,10 +2674,10 @@
     <row r="31" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A31" s="70"/>
       <c r="B31" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2686,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>30</v>
@@ -2729,10 +2729,10 @@
     <row r="32" spans="1:21" s="1" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="H32" s="88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I32" s="88"/>
       <c r="J32" s="88"/>
@@ -2773,19 +2773,19 @@
         <v>3596459.9000000004</v>
       </c>
       <c r="T32" s="53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U32" s="89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A33" s="70"/>
       <c r="B33" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
@@ -2794,10 +2794,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2835,10 +2835,10 @@
     <row r="34" spans="1:21" s="1" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="26">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -2879,19 +2879,19 @@
         <v>2609718.3200000003</v>
       </c>
       <c r="T34" s="74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U34" s="59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="70"/>
       <c r="B35" s="95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -2900,13 +2900,13 @@
         <v>5</v>
       </c>
       <c r="F35" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="H35" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
@@ -2939,16 +2939,16 @@
         <v>45</v>
       </c>
       <c r="U35" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" s="26">
         <v>1</v>
@@ -2989,17 +2989,17 @@
         <v>3114824.35</v>
       </c>
       <c r="T36" s="69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U36" s="60"/>
     </row>
     <row r="37" spans="1:21" s="1" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="65" t="s">
         <v>29</v>
@@ -3051,10 +3051,10 @@
     <row r="38" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="102"/>
       <c r="B38" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>29</v>
@@ -3106,10 +3106,10 @@
     <row r="39" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="102"/>
       <c r="B39" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="41" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>97</v>
       </c>
       <c r="D39" s="26">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>29</v>
@@ -3154,7 +3154,7 @@
         <v>273606.30000000005</v>
       </c>
       <c r="T39" s="74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U39" s="98"/>
     </row>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -116,264 +116,264 @@
     <t>oh_mi17</t>
   </si>
   <si>
+    <t>0b00100000</t>
+  </si>
+  <si>
+    <t>0b0</t>
+  </si>
+  <si>
+    <t>0b00</t>
+  </si>
+  <si>
+    <t>Из ЖР max(mfg_date)</t>
+  </si>
+  <si>
+    <t>Ми-17</t>
+  </si>
+  <si>
+    <t>МИ-8АМТ
+МИ-8МТВ</t>
+  </si>
+  <si>
+    <t>0b01000000</t>
+  </si>
+  <si>
+    <t>Из ЖР min(sne) Ми-8АМТ: АИ-9В, КАУ-115АМ
+Из ЖР min(sne) Ми-8МТВ: АИ-9В, КАУ-30Б, РА-60Б</t>
+  </si>
+  <si>
+    <t>ТВ2</t>
+  </si>
+  <si>
+    <t>ТВ2-117А
+ТВ2-117АГ</t>
+  </si>
+  <si>
+    <t>sne=4500, ppr=0</t>
+  </si>
+  <si>
+    <t>ТВ3</t>
+  </si>
+  <si>
+    <t>ТВ3-117ВМ
+ТВ3-117ВМ СЕРИЯ 02</t>
+  </si>
+  <si>
+    <t>ВР-8</t>
+  </si>
+  <si>
+    <t>ВР-8А</t>
+  </si>
+  <si>
+    <t>sne=7500, ppr=0</t>
+  </si>
+  <si>
+    <t>ВР-14</t>
+  </si>
+  <si>
+    <t>sne=0, ppr=0</t>
+  </si>
+  <si>
+    <t>АИ-9</t>
+  </si>
+  <si>
+    <t>sne=6000, ppr=0</t>
+  </si>
+  <si>
+    <t>Safir</t>
+  </si>
+  <si>
+    <t>SAFIR 5K/G MI</t>
+  </si>
+  <si>
+    <t>ТА-14</t>
+  </si>
+  <si>
+    <t>ТА-14-130-08</t>
+  </si>
+  <si>
+    <t>ВНВ</t>
+  </si>
+  <si>
+    <t>8-1930-000 СЕР.02</t>
+  </si>
+  <si>
+    <t>0b01100000</t>
+  </si>
+  <si>
+    <t>0b1</t>
+  </si>
+  <si>
+    <t>АП 1960</t>
+  </si>
+  <si>
+    <t>8-1960-000</t>
+  </si>
+  <si>
+    <t>50/50 sne=0, ppr=0</t>
+  </si>
+  <si>
+    <t>АП 1950</t>
+  </si>
+  <si>
+    <t>8-1950-000</t>
+  </si>
+  <si>
+    <t>РВ</t>
+  </si>
+  <si>
+    <t>8-3904-000 СЕРИЯ 06</t>
+  </si>
+  <si>
+    <t>246-3904-000 СЕРИИ 01</t>
+  </si>
+  <si>
+    <t>ЛРВ</t>
+  </si>
+  <si>
+    <t>8-3922-00</t>
+  </si>
+  <si>
+    <t>246-3925-00</t>
+  </si>
+  <si>
+    <t>ЛНВ</t>
+  </si>
+  <si>
+    <t>8АТ.2710.000</t>
+  </si>
+  <si>
+    <t>КАУ-30</t>
+  </si>
+  <si>
+    <t>КАУ-30Б</t>
+  </si>
+  <si>
+    <t>РА-60</t>
+  </si>
+  <si>
+    <t>РА-60Б</t>
+  </si>
+  <si>
+    <t>КАУ-115</t>
+  </si>
+  <si>
+    <t>КАУ-115АМ</t>
+  </si>
+  <si>
+    <t>ХР</t>
+  </si>
+  <si>
+    <t>246-1517-000</t>
+  </si>
+  <si>
+    <t>ХР 8М</t>
+  </si>
+  <si>
+    <t>8М-1517-000</t>
+  </si>
+  <si>
+    <t>0b10</t>
+  </si>
+  <si>
+    <t>Не покупать</t>
+  </si>
+  <si>
+    <t>Запрет совмещения с ХВ 8А (первый бит - наличие ограничения, второй бит - ограничение совместимости в группе)</t>
+  </si>
+  <si>
+    <t>8А-1515-000</t>
+  </si>
+  <si>
+    <t>ПР 8М</t>
+  </si>
+  <si>
+    <t>8М-1515-000</t>
+  </si>
+  <si>
+    <t>ХВ</t>
+  </si>
+  <si>
+    <t>8А-1516-000</t>
+  </si>
+  <si>
+    <t>0b11</t>
+  </si>
+  <si>
+    <t>Запрет совмещения с 8М (первый бит - наличие ограничения, второй бит - ограничение совместимости в группе)</t>
+  </si>
+  <si>
+    <t>ХВ 8М</t>
+  </si>
+  <si>
+    <t>8М-1516-000</t>
+  </si>
+  <si>
+    <t>Вентилятор</t>
+  </si>
+  <si>
+    <t>8А-6311-00 4 СЕР
+8А-6311-00 3 СЕР</t>
+  </si>
+  <si>
+    <t>КВПВ</t>
+  </si>
+  <si>
+    <t>8А-6314-00</t>
+  </si>
+  <si>
+    <t>8АТ.6314.000</t>
+  </si>
+  <si>
+    <t>Срок ремонта</t>
+  </si>
+  <si>
+    <t>trigger_interval</t>
+  </si>
+  <si>
+    <t>repair_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок разборки ВС </t>
+  </si>
+  <si>
+    <t>Срок сборки ВС</t>
+  </si>
+  <si>
+    <t>partout_time</t>
+  </si>
+  <si>
+    <t>assembly_time</t>
+  </si>
+  <si>
+    <t>Цена ремонта без НДС</t>
+  </si>
+  <si>
+    <t>Цена покупки без НДС</t>
+  </si>
+  <si>
+    <t>ПР</t>
+  </si>
+  <si>
+    <t>purchase_price</t>
+  </si>
+  <si>
+    <t>repair_price</t>
+  </si>
+  <si>
+    <t>Ми-8Т</t>
+  </si>
+  <si>
+    <t>АИ-9В</t>
+  </si>
+  <si>
+    <t>8АТ-2710-00</t>
+  </si>
+  <si>
     <t>МИ-8Т
 МИ-8П
 МИ-8ПС
-Ми-8ТП</t>
-  </si>
-  <si>
-    <t>0b00100000</t>
-  </si>
-  <si>
-    <t>0b0</t>
-  </si>
-  <si>
-    <t>0b00</t>
-  </si>
-  <si>
-    <t>Из ЖР max(mfg_date)</t>
-  </si>
-  <si>
-    <t>Ми-17</t>
-  </si>
-  <si>
-    <t>МИ-8АМТ
-МИ-8МТВ</t>
-  </si>
-  <si>
-    <t>0b01000000</t>
-  </si>
-  <si>
-    <t>Из ЖР min(sne) Ми-8АМТ: АИ-9В, КАУ-115АМ
-Из ЖР min(sne) Ми-8МТВ: АИ-9В, КАУ-30Б, РА-60Б</t>
-  </si>
-  <si>
-    <t>ТВ2</t>
-  </si>
-  <si>
-    <t>ТВ2-117А
-ТВ2-117АГ</t>
-  </si>
-  <si>
-    <t>sne=4500, ppr=0</t>
-  </si>
-  <si>
-    <t>ТВ3</t>
-  </si>
-  <si>
-    <t>ТВ3-117ВМ
-ТВ3-117ВМ СЕРИЯ 02</t>
-  </si>
-  <si>
-    <t>ВР-8</t>
-  </si>
-  <si>
-    <t>ВР-8А</t>
-  </si>
-  <si>
-    <t>sne=7500, ppr=0</t>
-  </si>
-  <si>
-    <t>ВР-14</t>
-  </si>
-  <si>
-    <t>sne=0, ppr=0</t>
-  </si>
-  <si>
-    <t>АИ-9</t>
-  </si>
-  <si>
-    <t>sne=6000, ppr=0</t>
-  </si>
-  <si>
-    <t>Safir</t>
-  </si>
-  <si>
-    <t>SAFIR 5K/G MI</t>
-  </si>
-  <si>
-    <t>ТА-14</t>
-  </si>
-  <si>
-    <t>ТА-14-130-08</t>
-  </si>
-  <si>
-    <t>ВНВ</t>
-  </si>
-  <si>
-    <t>8-1930-000 СЕР.02</t>
-  </si>
-  <si>
-    <t>0b01100000</t>
-  </si>
-  <si>
-    <t>0b1</t>
-  </si>
-  <si>
-    <t>АП 1960</t>
-  </si>
-  <si>
-    <t>8-1960-000</t>
-  </si>
-  <si>
-    <t>50/50 sne=0, ppr=0</t>
-  </si>
-  <si>
-    <t>АП 1950</t>
-  </si>
-  <si>
-    <t>8-1950-000</t>
-  </si>
-  <si>
-    <t>РВ</t>
-  </si>
-  <si>
-    <t>8-3904-000 СЕРИЯ 06</t>
-  </si>
-  <si>
-    <t>246-3904-000 СЕРИИ 01</t>
-  </si>
-  <si>
-    <t>ЛРВ</t>
-  </si>
-  <si>
-    <t>8-3922-00</t>
-  </si>
-  <si>
-    <t>246-3925-00</t>
-  </si>
-  <si>
-    <t>ЛНВ</t>
-  </si>
-  <si>
-    <t>8АТ.2710.000</t>
-  </si>
-  <si>
-    <t>КАУ-30</t>
-  </si>
-  <si>
-    <t>КАУ-30Б</t>
-  </si>
-  <si>
-    <t>РА-60</t>
-  </si>
-  <si>
-    <t>РА-60Б</t>
-  </si>
-  <si>
-    <t>КАУ-115</t>
-  </si>
-  <si>
-    <t>КАУ-115АМ</t>
-  </si>
-  <si>
-    <t>ХР</t>
-  </si>
-  <si>
-    <t>246-1517-000</t>
-  </si>
-  <si>
-    <t>ХР 8М</t>
-  </si>
-  <si>
-    <t>8М-1517-000</t>
-  </si>
-  <si>
-    <t>0b10</t>
-  </si>
-  <si>
-    <t>Не покупать</t>
-  </si>
-  <si>
-    <t>Запрет совмещения с ХВ 8А (первый бит - наличие ограничения, второй бит - ограничение совместимости в группе)</t>
-  </si>
-  <si>
-    <t>8А-1515-000</t>
-  </si>
-  <si>
-    <t>ПР 8М</t>
-  </si>
-  <si>
-    <t>8М-1515-000</t>
-  </si>
-  <si>
-    <t>ХВ</t>
-  </si>
-  <si>
-    <t>8А-1516-000</t>
-  </si>
-  <si>
-    <t>0b11</t>
-  </si>
-  <si>
-    <t>Запрет совмещения с 8М (первый бит - наличие ограничения, второй бит - ограничение совместимости в группе)</t>
-  </si>
-  <si>
-    <t>ХВ 8М</t>
-  </si>
-  <si>
-    <t>8М-1516-000</t>
-  </si>
-  <si>
-    <t>Вентилятор</t>
-  </si>
-  <si>
-    <t>8А-6311-00 4 СЕР
-8А-6311-00 3 СЕР</t>
-  </si>
-  <si>
-    <t>КВПВ</t>
-  </si>
-  <si>
-    <t>8А-6314-00</t>
-  </si>
-  <si>
-    <t>8АТ.6314.000</t>
-  </si>
-  <si>
-    <t>Срок ремонта</t>
-  </si>
-  <si>
-    <t>trigger_interval</t>
-  </si>
-  <si>
-    <t>repair_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срок разборки ВС </t>
-  </si>
-  <si>
-    <t>Срок сборки ВС</t>
-  </si>
-  <si>
-    <t>partout_time</t>
-  </si>
-  <si>
-    <t>assembly_time</t>
-  </si>
-  <si>
-    <t>Цена ремонта без НДС</t>
-  </si>
-  <si>
-    <t>Цена покупки без НДС</t>
-  </si>
-  <si>
-    <t>ПР</t>
-  </si>
-  <si>
-    <t>purchase_price</t>
-  </si>
-  <si>
-    <t>repair_price</t>
-  </si>
-  <si>
-    <t>Ми-8Т</t>
-  </si>
-  <si>
-    <t>АИ-9В</t>
-  </si>
-  <si>
-    <t>8АТ-2710-00</t>
+МИ-8ТП</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,16 +1479,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="44" t="s">
         <v>99</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>100</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>9</v>
@@ -1506,10 +1506,10 @@
         <v>13</v>
       </c>
       <c r="R8" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="44" t="s">
         <v>103</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>104</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>14</v>
@@ -1539,16 +1539,16 @@
         <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="K9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>22</v>
@@ -1566,20 +1566,20 @@
         <v>26</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I10" s="9">
         <v>7</v>
@@ -1603,7 +1603,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="9">
         <v>180</v>
@@ -1624,16 +1624,16 @@
         <v>27675645.609921526</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U10" s="36"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B11" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -1642,13 +1642,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="9">
         <v>7</v>
@@ -1657,7 +1657,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="9">
         <v>180</v>
@@ -1678,17 +1678,17 @@
         <v>137431124</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U11" s="36"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1697,18 +1697,18 @@
         <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="9">
         <v>151</v>
@@ -1729,17 +1729,17 @@
         <v>12564665.33</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="36"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="9">
         <v>2</v>
@@ -1748,18 +1748,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="9">
         <v>221</v>
@@ -1780,17 +1780,17 @@
         <v>110000000</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="36"/>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -1799,18 +1799,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="9">
         <v>141</v>
@@ -1831,17 +1831,17 @@
         <v>8666666.6699999999</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U14" s="36"/>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -1850,18 +1850,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="12">
         <v>171</v>
@@ -1882,17 +1882,17 @@
         <v>14069063</v>
       </c>
       <c r="T15" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U15" s="34"/>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -1901,18 +1901,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="9">
         <v>111</v>
@@ -1933,17 +1933,17 @@
         <v>19970000</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>49</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -1952,18 +1952,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="9">
         <v>416</v>
@@ -1984,17 +1984,17 @@
         <v>42203355</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U17" s="38"/>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -2003,18 +2003,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="9">
         <v>416</v>
@@ -2035,17 +2035,17 @@
         <v>38000000</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18" s="38"/>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="70"/>
       <c r="B19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -2054,18 +2054,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="52" t="s">
-        <v>55</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L19" s="11">
         <v>120</v>
@@ -2090,17 +2090,17 @@
         <v>8515093</v>
       </c>
       <c r="T19" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19" s="37"/>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2109,18 +2109,18 @@
         <v>1</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" s="7">
         <v>416</v>
@@ -2145,17 +2145,17 @@
         <v>5000000</v>
       </c>
       <c r="T20" s="100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U20" s="71"/>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="70"/>
       <c r="B21" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D21" s="26">
         <v>1</v>
@@ -2164,18 +2164,18 @@
         <v>1</v>
       </c>
       <c r="F21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="H21" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="26">
         <v>90</v>
@@ -2205,10 +2205,10 @@
     <row r="22" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -2217,18 +2217,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" s="12">
         <v>60</v>
@@ -2251,17 +2251,17 @@
         <v>6529330</v>
       </c>
       <c r="T22" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -2270,18 +2270,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="9">
         <v>60</v>
@@ -2302,17 +2302,17 @@
         <v>6529330</v>
       </c>
       <c r="T23" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U23" s="36"/>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -2321,18 +2321,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="34">
@@ -2351,17 +2351,17 @@
         <v>3375350.0000000005</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U24" s="36"/>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
@@ -2370,18 +2370,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="37"/>
@@ -2400,17 +2400,17 @@
         <v>3375350.0000000005</v>
       </c>
       <c r="T25" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U25" s="37"/>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>68</v>
       </c>
       <c r="D26" s="7">
         <v>5</v>
@@ -2419,18 +2419,18 @@
         <v>2</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="32">
@@ -2453,17 +2453,17 @@
         <v>10074019</v>
       </c>
       <c r="T26" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U26" s="71"/>
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="26">
         <v>5</v>
@@ -2472,18 +2472,18 @@
         <v>2</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27" s="26"/>
       <c r="M27" s="33">
@@ -2506,17 +2506,17 @@
         <v>10074019</v>
       </c>
       <c r="T27" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U27" s="72"/>
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="12">
         <v>3</v>
@@ -2525,18 +2525,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L28" s="12">
         <v>90</v>
@@ -2561,17 +2561,17 @@
         <v>2909350</v>
       </c>
       <c r="T28" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U28" s="42"/>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L29" s="9">
         <v>90</v>
@@ -2616,17 +2616,17 @@
         <v>2909350</v>
       </c>
       <c r="T29" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U29" s="38"/>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="39" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>74</v>
       </c>
       <c r="D30" s="11">
         <v>4</v>
@@ -2635,18 +2635,18 @@
         <v>0</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L30" s="11">
         <v>90</v>
@@ -2667,17 +2667,17 @@
         <v>2909350</v>
       </c>
       <c r="T30" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U30" s="39"/>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A31" s="70"/>
       <c r="B31" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2686,18 +2686,18 @@
         <v>3</v>
       </c>
       <c r="F31" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L31" s="7">
         <v>90</v>
@@ -2722,17 +2722,17 @@
         <v>2924166.6707000006</v>
       </c>
       <c r="T31" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U31" s="66"/>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
@@ -2741,18 +2741,18 @@
         <v>3</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I32" s="88"/>
       <c r="J32" s="88"/>
       <c r="K32" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" s="88">
         <v>141</v>
@@ -2773,19 +2773,19 @@
         <v>3596459.9000000004</v>
       </c>
       <c r="T32" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="U32" s="89" t="s">
         <v>80</v>
-      </c>
-      <c r="U32" s="89" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A33" s="70"/>
       <c r="B33" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
@@ -2794,16 +2794,16 @@
         <v>4</v>
       </c>
       <c r="F33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L33" s="7">
         <v>90</v>
@@ -2828,17 +2828,17 @@
         <v>1776000</v>
       </c>
       <c r="T33" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U33" s="71"/>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="D34" s="26">
         <v>1</v>
@@ -2847,18 +2847,18 @@
         <v>4</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="56">
         <v>141</v>
@@ -2879,19 +2879,19 @@
         <v>2609718.3200000003</v>
       </c>
       <c r="T34" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="U34" s="59" t="s">
         <v>80</v>
-      </c>
-      <c r="U34" s="59" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="70"/>
       <c r="B35" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="90" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>86</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -2900,18 +2900,18 @@
         <v>5</v>
       </c>
       <c r="F35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>55</v>
-      </c>
       <c r="H35" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
       <c r="K35" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="29">
         <v>141</v>
@@ -2936,19 +2936,19 @@
         <v>2319166.6707000006</v>
       </c>
       <c r="T35" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U35" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="D36" s="26">
         <v>1</v>
@@ -2957,18 +2957,18 @@
         <v>5</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L36" s="26">
         <v>120</v>
@@ -2989,17 +2989,17 @@
         <v>3114824.35</v>
       </c>
       <c r="T36" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U36" s="60"/>
     </row>
     <row r="37" spans="1:21" s="1" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>92</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -3008,18 +3008,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" s="15">
         <v>90</v>
@@ -3044,17 +3044,17 @@
         <v>2800000</v>
       </c>
       <c r="T37" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U37" s="35"/>
     </row>
     <row r="38" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="102"/>
       <c r="B38" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>94</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -3063,18 +3063,18 @@
         <v>6</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" s="7">
         <v>60</v>
@@ -3099,17 +3099,17 @@
         <v>273606.30000000005</v>
       </c>
       <c r="T38" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U38" s="97"/>
     </row>
     <row r="39" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="102"/>
       <c r="B39" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="26">
         <v>1</v>
@@ -3118,18 +3118,18 @@
         <v>6</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
       <c r="K39" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L39" s="26">
         <v>60</v>
@@ -3154,7 +3154,7 @@
         <v>273606.30000000005</v>
       </c>
       <c r="T39" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U39" s="98"/>
     </row>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1246,12 +1246,8 @@
       <c r="R3" s="51">
         <v>27675645.609921526</v>
       </c>
-      <c r="S3" s="51">
-        <v>1</v>
-      </c>
-      <c r="T3" s="51">
-        <v>1</v>
-      </c>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1302,12 +1298,8 @@
       <c r="R4" s="51">
         <v>27675645.609921526</v>
       </c>
-      <c r="S4" s="51">
-        <v>1</v>
-      </c>
-      <c r="T4" s="51">
-        <v>1</v>
-      </c>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1358,12 +1350,8 @@
       <c r="R5" s="51">
         <v>27675645.609921526</v>
       </c>
-      <c r="S5" s="51">
-        <v>1</v>
-      </c>
-      <c r="T5" s="51">
-        <v>1</v>
-      </c>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
@@ -1414,12 +1402,8 @@
       <c r="R6" s="51">
         <v>27675645.609921526</v>
       </c>
-      <c r="S6" s="51">
-        <v>1</v>
-      </c>
-      <c r="T6" s="51">
-        <v>1</v>
-      </c>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -1470,12 +1454,8 @@
       <c r="R7" s="51">
         <v>137431124</v>
       </c>
-      <c r="S7" s="51">
-        <v>1</v>
-      </c>
-      <c r="T7" s="51">
-        <v>1</v>
-      </c>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -1526,12 +1506,8 @@
       <c r="R8" s="51">
         <v>137431124</v>
       </c>
-      <c r="S8" s="51">
-        <v>1</v>
-      </c>
-      <c r="T8" s="51">
-        <v>1</v>
-      </c>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3188,12 +3164,8 @@
       <c r="R39" s="65">
         <v>273606.30000000005</v>
       </c>
-      <c r="S39" s="65">
-        <v>-1</v>
-      </c>
-      <c r="T39" s="65">
-        <v>-1</v>
-      </c>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
     </row>
     <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE7BD5D-0D31-469B-818F-7BBE0A43DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="587"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -264,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -542,30 +532,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -575,48 +547,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -647,87 +580,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,12 +600,105 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -835,6 +789,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -870,6 +841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1045,97 +1033,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" customWidth="1"/>
-    <col min="24" max="29" width="5.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
+    <col min="24" max="29" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="70"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1197,38 +1185,38 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="38">
         <v>32</v>
       </c>
-      <c r="E3" s="46">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38">
         <v>7</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="38">
         <v>30</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="38">
         <v>180</v>
       </c>
       <c r="L3" s="29">
@@ -1240,47 +1228,47 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
-      <c r="Q3" s="51">
+      <c r="Q3" s="29">
         <v>17675645.609921526</v>
       </c>
-      <c r="R3" s="51">
+      <c r="R3" s="29">
         <v>27675645.609921526</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="38">
         <v>32</v>
       </c>
-      <c r="E4" s="46">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38">
         <v>7</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="38">
         <v>30</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="38">
         <v>180</v>
       </c>
       <c r="L4" s="29">
@@ -1292,47 +1280,47 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="51">
+      <c r="Q4" s="29">
         <v>17675645.609921526</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="29">
         <v>27675645.609921526</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="38">
         <v>32</v>
       </c>
-      <c r="E5" s="46">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
         <v>7</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="38">
         <v>30</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="38">
         <v>180</v>
       </c>
       <c r="L5" s="29">
@@ -1344,47 +1332,47 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
-      <c r="Q5" s="51">
+      <c r="Q5" s="29">
         <v>17675645.609921526</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="29">
         <v>27675645.609921526</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="38">
         <v>32</v>
       </c>
-      <c r="E6" s="46">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0</v>
+      </c>
+      <c r="I6" s="38">
         <v>7</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="38">
         <v>30</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="38">
         <v>180</v>
       </c>
       <c r="L6" s="29">
@@ -1396,47 +1384,47 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="51">
+      <c r="Q6" s="29">
         <v>17675645.609921526</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="29">
         <v>27675645.609921526</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
       <c r="C7" s="29">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="38">
         <v>64</v>
       </c>
-      <c r="E7" s="46">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0</v>
+      </c>
+      <c r="I7" s="38">
         <v>7</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="38">
         <v>30</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="38">
         <v>180</v>
       </c>
       <c r="L7" s="29"/>
@@ -1448,47 +1436,47 @@
       <c r="P7" s="29">
         <v>4500</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="29">
         <v>19181769.476781182</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="29">
         <v>137431124</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="38">
         <v>1</v>
       </c>
       <c r="C8" s="29">
         <v>2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="38">
         <v>64</v>
       </c>
-      <c r="E8" s="46">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
         <v>7</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="38">
         <v>30</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="38">
         <v>180</v>
       </c>
       <c r="L8" s="29"/>
@@ -1500,43 +1488,43 @@
       <c r="P8" s="29">
         <v>4500</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="29">
         <v>19181769.476781182</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="29">
         <v>137431124</v>
       </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="38">
         <v>2</v>
       </c>
       <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="38">
         <v>32</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38">
         <v>151</v>
       </c>
       <c r="L9" s="29">
@@ -1548,47 +1536,47 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
-      <c r="Q9" s="51">
+      <c r="Q9" s="29">
         <v>9564665.3300000001</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="29">
         <v>12564665.33</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="29">
         <v>4500</v>
       </c>
-      <c r="T9" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="T9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="38">
         <v>2</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="38">
         <v>32</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
         <v>151</v>
       </c>
       <c r="L10" s="29">
@@ -1600,47 +1588,47 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="51">
+      <c r="Q10" s="29">
         <v>9564665.3300000001</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="29">
         <v>12564665.33</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="29">
         <v>4500</v>
       </c>
-      <c r="T10" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="T10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="38">
         <v>2</v>
       </c>
       <c r="C11" s="29">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="38">
         <v>64</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38">
         <v>221</v>
       </c>
       <c r="L11" s="29"/>
@@ -1652,47 +1640,47 @@
       <c r="P11" s="29">
         <v>1500</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="29">
         <v>21328000</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="29">
         <v>110000000</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="29">
         <v>4500</v>
       </c>
-      <c r="T11" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="T11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="38">
         <v>2</v>
       </c>
       <c r="C12" s="29">
         <v>4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="38">
         <v>64</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38">
         <v>221</v>
       </c>
       <c r="L12" s="29"/>
@@ -1704,47 +1692,47 @@
       <c r="P12" s="29">
         <v>1500</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="29">
         <v>21328000</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="29">
         <v>110000000</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="29">
         <v>4500</v>
       </c>
-      <c r="T12" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="29">
         <v>0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="38">
         <v>32</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38">
         <v>141</v>
       </c>
       <c r="L13" s="29">
@@ -1756,99 +1744,99 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="51">
+      <c r="Q13" s="29">
         <v>6666666.6699999999</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="29">
         <v>8666666.6699999999</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="29">
         <v>7500</v>
       </c>
-      <c r="T13" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="T13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="38">
         <v>1</v>
       </c>
       <c r="C14" s="29">
         <v>0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="38">
         <v>64</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10">
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40">
         <v>171</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27">
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33">
         <v>10000</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="33">
         <v>2000</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="29">
         <v>7804256.7300000004</v>
       </c>
-      <c r="R14" s="52">
+      <c r="R14" s="33">
         <v>14069063</v>
       </c>
-      <c r="S14" s="52">
-        <v>0</v>
-      </c>
-      <c r="T14" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="S14" s="33">
+        <v>0</v>
+      </c>
+      <c r="T14" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="38">
         <v>1</v>
       </c>
       <c r="C15" s="29">
         <v>0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="38">
         <v>64</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38">
         <v>111</v>
       </c>
       <c r="L15" s="29"/>
@@ -1860,50 +1848,50 @@
       <c r="P15" s="29">
         <v>1500</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="29">
         <v>1577166.67</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="29">
         <v>19970000</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="29">
         <v>6000</v>
       </c>
-      <c r="T15" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="38">
         <v>1</v>
       </c>
       <c r="C16" s="29">
         <v>0</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="38">
         <v>64</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
+      <c r="E16" s="38">
+        <v>0</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38">
         <v>416</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29">
@@ -1912,50 +1900,50 @@
       <c r="P16" s="29">
         <v>4000</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="42">
         <v>16180200</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="29">
         <v>42203355</v>
       </c>
-      <c r="S16" s="51">
-        <v>0</v>
-      </c>
-      <c r="T16" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="S16" s="29">
+        <v>0</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="38">
         <v>1</v>
       </c>
       <c r="C17" s="29">
         <v>0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="38">
         <v>64</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8">
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38">
+        <v>0</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38">
         <v>416</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29">
@@ -1964,47 +1952,47 @@
       <c r="P17" s="29">
         <v>4000</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="29">
         <v>15000000</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="29">
         <v>38000000</v>
       </c>
-      <c r="S17" s="51">
-        <v>0</v>
-      </c>
-      <c r="T17" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="S17" s="29">
+        <v>0</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="43">
         <v>1</v>
       </c>
       <c r="C18" s="30">
         <v>0</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="44">
         <v>96</v>
       </c>
-      <c r="E18" s="41">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9">
+      <c r="E18" s="44">
+        <v>1</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45">
         <v>120</v>
       </c>
       <c r="L18" s="30">
@@ -2020,213 +2008,213 @@
       <c r="P18" s="30">
         <v>1500</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="45">
         <v>2120516.1768038473</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="30">
         <v>8515093</v>
       </c>
-      <c r="S18" s="53">
-        <v>0</v>
-      </c>
-      <c r="T18" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="S18" s="30">
+        <v>0</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="25">
+      <c r="B19" s="46">
+        <v>1</v>
+      </c>
+      <c r="C19" s="31">
         <v>5</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="47">
         <v>96</v>
       </c>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6">
+      <c r="E19" s="47">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0</v>
+      </c>
+      <c r="H19" s="46">
+        <v>0</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46">
         <v>416</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="31">
         <v>8000</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="31">
         <v>2000</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25">
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
         <v>8000</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="31">
         <v>2000</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="31">
         <v>1474602.1</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="31">
         <v>5000000</v>
       </c>
-      <c r="S19" s="54">
-        <v>0</v>
-      </c>
-      <c r="T19" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="S19" s="31">
+        <v>0</v>
+      </c>
+      <c r="T19" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="B20" s="48">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32">
         <v>5</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="49">
         <v>96</v>
       </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="48">
+        <v>0</v>
+      </c>
+      <c r="G20" s="48">
+        <v>0</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48">
         <v>90</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="32">
         <v>10500</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="32">
         <v>2000</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26">
+      <c r="N20" s="32"/>
+      <c r="O20" s="32">
         <v>6000</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="32">
         <v>2000</v>
       </c>
-      <c r="Q20" s="60">
+      <c r="Q20" s="48">
         <v>963499.54218044691</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="32">
         <v>4949371.9000000004</v>
       </c>
-      <c r="S20" s="55">
-        <v>0</v>
-      </c>
-      <c r="T20" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="S20" s="32">
+        <v>0</v>
+      </c>
+      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="B21" s="40">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
         <v>32</v>
       </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10">
+      <c r="E21" s="40">
+        <v>0</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50">
+        <v>1</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40">
         <v>60</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="33">
         <v>5000</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="33">
         <v>1000</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="33">
         <v>1500</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="59">
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="40">
         <v>743937.70182970166</v>
       </c>
-      <c r="R21" s="52">
+      <c r="R21" s="33">
         <v>6529330</v>
       </c>
-      <c r="S21" s="52">
-        <v>0</v>
-      </c>
-      <c r="T21" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="S21" s="33">
+        <v>0</v>
+      </c>
+      <c r="T21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="38">
         <v>1</v>
       </c>
       <c r="C22" s="29">
         <v>0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="38">
         <v>64</v>
       </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8">
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0</v>
+      </c>
+      <c r="G22" s="38">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38">
         <v>60</v>
       </c>
       <c r="L22" s="29"/>
@@ -2238,97 +2226,97 @@
       <c r="P22" s="29">
         <v>1000</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="Q22" s="38">
         <v>743937.70182970166</v>
       </c>
-      <c r="R22" s="52">
+      <c r="R22" s="33">
         <v>6529330</v>
       </c>
-      <c r="S22" s="52">
-        <v>0</v>
-      </c>
-      <c r="T22" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="S22" s="33">
+        <v>0</v>
+      </c>
+      <c r="T22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="40">
         <v>1</v>
       </c>
       <c r="C23" s="29">
         <v>0</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="38">
         <v>32</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="27">
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0</v>
+      </c>
+      <c r="H23" s="38">
+        <v>0</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="33">
         <v>2000</v>
       </c>
       <c r="M23" s="29">
         <v>2000</v>
       </c>
       <c r="N23" s="29"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="51">
-        <v>0</v>
-      </c>
-      <c r="R23" s="52">
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="33">
         <v>3375350.0000000005</v>
       </c>
-      <c r="S23" s="52">
-        <v>0</v>
-      </c>
-      <c r="T23" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="S23" s="33">
+        <v>0</v>
+      </c>
+      <c r="T23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="45">
         <v>1</v>
       </c>
       <c r="C24" s="30">
         <v>0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="45">
         <v>64</v>
       </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="E24" s="45">
+        <v>0</v>
+      </c>
+      <c r="F24" s="45">
+        <v>0</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
+        <v>0</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
@@ -2338,211 +2326,211 @@
       <c r="P24" s="30">
         <v>3000</v>
       </c>
-      <c r="Q24" s="53">
-        <v>0</v>
-      </c>
-      <c r="R24" s="56">
+      <c r="Q24" s="30">
+        <v>0</v>
+      </c>
+      <c r="R24" s="37">
         <v>3375350.0000000005</v>
       </c>
-      <c r="S24" s="56">
-        <v>0</v>
-      </c>
-      <c r="T24" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="42" t="s">
+      <c r="S24" s="37">
+        <v>0</v>
+      </c>
+      <c r="T24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="46">
         <v>5</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="34">
         <v>6</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="47">
         <v>96</v>
       </c>
-      <c r="E25" s="47">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="25">
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="46">
+        <v>0</v>
+      </c>
+      <c r="G25" s="46">
+        <v>0</v>
+      </c>
+      <c r="H25" s="46">
+        <v>0</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="31">
         <v>2000</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="31">
         <v>2000</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25">
+      <c r="N25" s="31"/>
+      <c r="O25" s="31">
         <v>2000</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="31">
         <v>2000</v>
       </c>
-      <c r="Q25" s="54">
-        <v>0</v>
-      </c>
-      <c r="R25" s="54">
+      <c r="Q25" s="31">
+        <v>0</v>
+      </c>
+      <c r="R25" s="31">
         <v>10074019</v>
       </c>
-      <c r="S25" s="54">
-        <v>0</v>
-      </c>
-      <c r="T25" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
+      <c r="S25" s="31">
+        <v>0</v>
+      </c>
+      <c r="T25" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="48">
         <v>5</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="35">
         <v>6</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="49">
         <v>96</v>
       </c>
-      <c r="E26" s="48">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="26">
+      <c r="E26" s="52">
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <v>0</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="32">
         <v>2000</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="32">
         <v>2000</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26">
+      <c r="N26" s="32"/>
+      <c r="O26" s="32">
         <v>2000</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="32">
         <v>2000</v>
       </c>
-      <c r="Q26" s="55">
-        <v>0</v>
-      </c>
-      <c r="R26" s="61">
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+      <c r="R26" s="53">
         <v>10074019</v>
       </c>
-      <c r="S26" s="65">
-        <v>0</v>
-      </c>
-      <c r="T26" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="S26" s="54">
+        <v>0</v>
+      </c>
+      <c r="T26" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="40">
         <v>3</v>
       </c>
-      <c r="C27" s="27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="C27" s="33">
+        <v>0</v>
+      </c>
+      <c r="D27" s="50">
         <v>96</v>
       </c>
-      <c r="E27" s="45">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
+      <c r="E27" s="55">
+        <v>0</v>
+      </c>
+      <c r="F27" s="40">
+        <v>0</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40">
         <v>90</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="33">
         <v>9000</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="33">
         <v>1500</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27">
+      <c r="N27" s="33"/>
+      <c r="O27" s="33">
         <v>9000</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="33">
         <v>1500</v>
       </c>
-      <c r="Q27" s="59">
+      <c r="Q27" s="40">
         <v>411287.19456192118</v>
       </c>
-      <c r="R27" s="52">
+      <c r="R27" s="33">
         <v>2909350</v>
       </c>
-      <c r="S27" s="52">
-        <v>0</v>
-      </c>
-      <c r="T27" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="S27" s="33">
+        <v>0</v>
+      </c>
+      <c r="T27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="38">
         <v>1</v>
       </c>
       <c r="C28" s="29">
         <v>0</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="56">
         <v>96</v>
       </c>
-      <c r="E28" s="46">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8">
+      <c r="E28" s="39">
+        <v>0</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0</v>
+      </c>
+      <c r="H28" s="38">
+        <v>0</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38">
         <v>90</v>
       </c>
       <c r="L28" s="29">
@@ -2558,47 +2546,47 @@
       <c r="P28" s="29">
         <v>1500</v>
       </c>
-      <c r="Q28" s="57">
+      <c r="Q28" s="38">
         <v>418193.87600668642</v>
       </c>
-      <c r="R28" s="51">
+      <c r="R28" s="29">
         <v>2909350</v>
       </c>
-      <c r="S28" s="51">
-        <v>0</v>
-      </c>
-      <c r="T28" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="S28" s="29">
+        <v>0</v>
+      </c>
+      <c r="T28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="45">
         <v>4</v>
       </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="38">
         <v>64</v>
       </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="E29" s="45">
+        <v>0</v>
+      </c>
+      <c r="F29" s="45">
+        <v>0</v>
+      </c>
+      <c r="G29" s="45">
+        <v>0</v>
+      </c>
+      <c r="H29" s="45">
+        <v>0</v>
+      </c>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45">
         <v>90</v>
       </c>
       <c r="L29" s="30"/>
@@ -2610,103 +2598,103 @@
       <c r="P29" s="30">
         <v>1500</v>
       </c>
-      <c r="Q29" s="57">
+      <c r="Q29" s="38">
         <v>782258.53766308737</v>
       </c>
-      <c r="R29" s="51">
+      <c r="R29" s="29">
         <v>2909350</v>
       </c>
-      <c r="S29" s="53">
-        <v>0</v>
-      </c>
-      <c r="T29" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="S29" s="30">
+        <v>0</v>
+      </c>
+      <c r="T29" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="B30" s="46">
+        <v>1</v>
+      </c>
+      <c r="C30" s="33">
         <v>7</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="56">
         <v>96</v>
       </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6">
+      <c r="E30" s="47">
+        <v>1</v>
+      </c>
+      <c r="F30" s="46">
+        <v>0</v>
+      </c>
+      <c r="G30" s="46">
+        <v>0</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46">
         <v>90</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="31">
         <v>16000</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="31">
         <v>4000</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25">
+      <c r="N30" s="31"/>
+      <c r="O30" s="31">
         <v>8000</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="31">
         <v>2000</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="38">
         <v>346712.07397105638</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="31">
         <v>2924166.6707000006</v>
       </c>
-      <c r="S30" s="54">
-        <v>0</v>
-      </c>
-      <c r="T30" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="S30" s="31">
+        <v>0</v>
+      </c>
+      <c r="T30" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="45">
         <v>1</v>
       </c>
       <c r="C31" s="30">
         <v>7</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="45">
         <v>64</v>
       </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="62">
-        <v>1</v>
-      </c>
-      <c r="G31" s="62">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62">
+      <c r="E31" s="45">
+        <v>0</v>
+      </c>
+      <c r="F31" s="57">
+        <v>1</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0</v>
+      </c>
+      <c r="H31" s="45">
+        <v>0</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57">
         <v>141</v>
       </c>
       <c r="L31" s="30"/>
@@ -2718,456 +2706,456 @@
       <c r="P31" s="30">
         <v>3000</v>
       </c>
-      <c r="Q31" s="53">
+      <c r="Q31" s="30">
         <v>1144912.53</v>
       </c>
-      <c r="R31" s="53">
+      <c r="R31" s="30">
         <v>3596459.9000000004</v>
       </c>
-      <c r="S31" s="53">
-        <v>0</v>
-      </c>
-      <c r="T31" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="S31" s="30">
+        <v>0</v>
+      </c>
+      <c r="T31" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="25">
+      <c r="B32" s="46">
+        <v>1</v>
+      </c>
+      <c r="C32" s="31">
         <v>8</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="47">
         <v>96</v>
       </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="E32" s="47">
+        <v>1</v>
+      </c>
+      <c r="F32" s="46">
+        <v>0</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0</v>
+      </c>
+      <c r="H32" s="46">
+        <v>0</v>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46">
         <v>90</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="31">
         <v>16000</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="31">
         <v>4000</v>
       </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25">
+      <c r="N32" s="31"/>
+      <c r="O32" s="31">
         <v>8000</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="31">
         <v>2000</v>
       </c>
-      <c r="Q32" s="64">
+      <c r="Q32" s="46">
         <v>124219.53415625692</v>
       </c>
-      <c r="R32" s="54">
+      <c r="R32" s="31">
         <v>1776000</v>
       </c>
-      <c r="S32" s="54">
-        <v>0</v>
-      </c>
-      <c r="T32" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+      <c r="S32" s="31">
+        <v>0</v>
+      </c>
+      <c r="T32" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="20">
-        <v>1</v>
-      </c>
-      <c r="C33" s="26">
+      <c r="B33" s="48">
+        <v>1</v>
+      </c>
+      <c r="C33" s="32">
         <v>8</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="48">
         <v>64</v>
       </c>
-      <c r="E33" s="20">
-        <v>0</v>
-      </c>
-      <c r="F33" s="43">
-        <v>1</v>
-      </c>
-      <c r="G33" s="43">
-        <v>0</v>
-      </c>
-      <c r="H33" s="20">
-        <v>0</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43">
+      <c r="E33" s="48">
+        <v>0</v>
+      </c>
+      <c r="F33" s="58">
+        <v>1</v>
+      </c>
+      <c r="G33" s="58">
+        <v>0</v>
+      </c>
+      <c r="H33" s="48">
+        <v>0</v>
+      </c>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58">
         <v>141</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26">
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32">
         <v>12000</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="32">
         <v>3000</v>
       </c>
-      <c r="Q33" s="55">
+      <c r="Q33" s="32">
         <v>823131.99</v>
       </c>
-      <c r="R33" s="55">
+      <c r="R33" s="32">
         <v>2609718.3200000003</v>
       </c>
-      <c r="S33" s="55">
-        <v>0</v>
-      </c>
-      <c r="T33" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+      <c r="S33" s="32">
+        <v>0</v>
+      </c>
+      <c r="T33" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="B34" s="40">
+        <v>1</v>
+      </c>
+      <c r="C34" s="36">
         <v>9</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="50">
         <v>96</v>
       </c>
-      <c r="E34" s="23">
-        <v>1</v>
-      </c>
-      <c r="F34" s="23">
-        <v>1</v>
-      </c>
-      <c r="G34" s="23">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23">
+      <c r="E34" s="50">
+        <v>1</v>
+      </c>
+      <c r="F34" s="50">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50">
+        <v>1</v>
+      </c>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50">
         <v>141</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="33">
         <v>16000</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M34" s="33">
         <v>4000</v>
       </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27">
+      <c r="N34" s="33"/>
+      <c r="O34" s="33">
         <v>8000</v>
       </c>
-      <c r="P34" s="27">
+      <c r="P34" s="33">
         <v>2000</v>
       </c>
-      <c r="Q34" s="59">
+      <c r="Q34" s="40">
         <v>183449.94994008305</v>
       </c>
-      <c r="R34" s="52">
+      <c r="R34" s="33">
         <v>2319166.6707000006</v>
       </c>
-      <c r="S34" s="52">
-        <v>0</v>
-      </c>
-      <c r="T34" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+      <c r="S34" s="33">
+        <v>0</v>
+      </c>
+      <c r="T34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="20">
-        <v>1</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="B35" s="48">
+        <v>1</v>
+      </c>
+      <c r="C35" s="35">
         <v>9</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="38">
         <v>64</v>
       </c>
-      <c r="E35" s="20">
-        <v>0</v>
-      </c>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20">
+      <c r="E35" s="48">
+        <v>0</v>
+      </c>
+      <c r="F35" s="48">
+        <v>0</v>
+      </c>
+      <c r="G35" s="48">
+        <v>0</v>
+      </c>
+      <c r="H35" s="48">
+        <v>0</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48">
         <v>120</v>
       </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26">
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32">
         <v>12000</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="32">
         <v>3000</v>
       </c>
-      <c r="Q35" s="55">
+      <c r="Q35" s="32">
         <v>1379980.37</v>
       </c>
-      <c r="R35" s="55">
+      <c r="R35" s="32">
         <v>3114824.35</v>
       </c>
-      <c r="S35" s="55">
-        <v>0</v>
-      </c>
-      <c r="T35" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="S35" s="32">
+        <v>0</v>
+      </c>
+      <c r="T35" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="13">
-        <v>1</v>
-      </c>
-      <c r="C36" s="28">
+      <c r="B36" s="43">
+        <v>1</v>
+      </c>
+      <c r="C36" s="37">
         <v>10</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="44">
         <v>96</v>
       </c>
-      <c r="E36" s="49">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13">
+      <c r="E36" s="59">
+        <v>0</v>
+      </c>
+      <c r="F36" s="43">
+        <v>0</v>
+      </c>
+      <c r="G36" s="43">
+        <v>0</v>
+      </c>
+      <c r="H36" s="43">
+        <v>0</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43">
         <v>90</v>
       </c>
-      <c r="L36" s="28">
+      <c r="L36" s="37">
         <v>9500</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M36" s="37">
         <v>2000</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28">
+      <c r="N36" s="37"/>
+      <c r="O36" s="37">
         <v>9500</v>
       </c>
-      <c r="P36" s="28">
+      <c r="P36" s="37">
         <v>2000</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="Q36" s="43">
         <v>135788.59716344613</v>
       </c>
-      <c r="R36" s="56">
+      <c r="R36" s="37">
         <v>2800000</v>
       </c>
-      <c r="S36" s="56">
-        <v>0</v>
-      </c>
-      <c r="T36" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="40" t="s">
+      <c r="S36" s="37">
+        <v>0</v>
+      </c>
+      <c r="T36" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="13">
-        <v>1</v>
-      </c>
-      <c r="C37" s="28">
+      <c r="B37" s="43">
+        <v>1</v>
+      </c>
+      <c r="C37" s="37">
         <v>10</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="44">
         <v>96</v>
       </c>
-      <c r="E37" s="49">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13">
+      <c r="E37" s="59">
+        <v>0</v>
+      </c>
+      <c r="F37" s="43">
+        <v>0</v>
+      </c>
+      <c r="G37" s="43">
+        <v>0</v>
+      </c>
+      <c r="H37" s="43">
+        <v>0</v>
+      </c>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43">
         <v>90</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="37">
         <v>9500</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="37">
         <v>2000</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28">
+      <c r="N37" s="37"/>
+      <c r="O37" s="37">
         <v>9500</v>
       </c>
-      <c r="P37" s="28">
+      <c r="P37" s="37">
         <v>2000</v>
       </c>
-      <c r="Q37" s="66">
+      <c r="Q37" s="43">
         <v>135788.59716344613</v>
       </c>
-      <c r="R37" s="56">
+      <c r="R37" s="37">
         <v>2800000</v>
       </c>
-      <c r="S37" s="56">
-        <v>0</v>
-      </c>
-      <c r="T37" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="S37" s="37">
+        <v>0</v>
+      </c>
+      <c r="T37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="25">
+      <c r="B38" s="46">
+        <v>1</v>
+      </c>
+      <c r="C38" s="31">
         <v>11</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="47">
         <v>96</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+      <c r="E38" s="46">
+        <v>0</v>
+      </c>
+      <c r="F38" s="46">
+        <v>0</v>
+      </c>
+      <c r="G38" s="46">
+        <v>0</v>
+      </c>
+      <c r="H38" s="46">
+        <v>0</v>
+      </c>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46">
         <v>60</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="31">
         <v>12000</v>
       </c>
-      <c r="M38" s="25">
+      <c r="M38" s="31">
         <v>1500</v>
       </c>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25">
+      <c r="N38" s="31"/>
+      <c r="O38" s="31">
         <v>12000</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="31">
         <v>1500</v>
       </c>
-      <c r="Q38" s="64">
+      <c r="Q38" s="46">
         <v>263072.79652163608</v>
       </c>
-      <c r="R38" s="54">
+      <c r="R38" s="31">
         <v>273606.30000000005</v>
       </c>
-      <c r="S38" s="54">
-        <v>0</v>
-      </c>
-      <c r="T38" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
+      <c r="S38" s="31">
+        <v>0</v>
+      </c>
+      <c r="T38" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="26">
+      <c r="B39" s="48">
+        <v>1</v>
+      </c>
+      <c r="C39" s="32">
         <v>11</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="49">
         <v>96</v>
       </c>
-      <c r="E39" s="20">
-        <v>0</v>
-      </c>
-      <c r="F39" s="20">
-        <v>0</v>
-      </c>
-      <c r="G39" s="20">
-        <v>0</v>
-      </c>
-      <c r="H39" s="20">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20">
+      <c r="E39" s="48">
+        <v>0</v>
+      </c>
+      <c r="F39" s="48">
+        <v>0</v>
+      </c>
+      <c r="G39" s="48">
+        <v>0</v>
+      </c>
+      <c r="H39" s="48">
+        <v>0</v>
+      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48">
         <v>60</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="32">
         <v>3000</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="32">
         <v>1500</v>
       </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26">
+      <c r="N39" s="32"/>
+      <c r="O39" s="32">
         <v>3000</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="32">
         <v>1500</v>
       </c>
-      <c r="Q39" s="60">
+      <c r="Q39" s="48">
         <v>263072.79652163608</v>
       </c>
-      <c r="R39" s="65">
+      <c r="R39" s="54">
         <v>273606.30000000005</v>
       </c>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-    </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+    </row>
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3176,29 +3164,29 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D41"/>
-      <c r="L41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="L41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T39"/>
+  <autoFilter ref="A2:T39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="S1:T1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE7BD5D-0D31-469B-818F-7BBE0A43DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
@@ -254,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,11 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -517,7 +516,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,6 +591,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -601,70 +678,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,32 +699,55 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -789,23 +838,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -841,23 +873,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1033,39 +1048,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" customWidth="1"/>
-    <col min="24" max="29" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="68" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="77" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" customWidth="1"/>
+    <col min="24" max="29" width="5.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1078,14 +1093,14 @@
       <c r="D1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
@@ -1103,7 +1118,7 @@
       <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="18" t="s">
@@ -1118,12 +1133,12 @@
       <c r="R1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="27"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T1" s="53"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1136,16 +1151,16 @@
       <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="56" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -1163,7 +1178,7 @@
       <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="56" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1185,1993 +1200,1994 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="38">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35">
         <v>32</v>
       </c>
-      <c r="E3" s="39">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
+      <c r="E3" s="57">
+        <v>0</v>
+      </c>
+      <c r="F3" s="57">
+        <v>0</v>
+      </c>
+      <c r="G3" s="57">
+        <v>0</v>
+      </c>
+      <c r="H3" s="57">
+        <v>0</v>
+      </c>
+      <c r="I3" s="35">
         <v>7</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <v>30</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <v>180</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="26">
         <v>30000</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="26">
         <v>4500</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29">
+      <c r="N3" s="37"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="38">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="B4" s="35">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35">
         <v>32</v>
       </c>
-      <c r="E4" s="39">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
+      <c r="E4" s="57">
+        <v>0</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0</v>
+      </c>
+      <c r="H4" s="57">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
         <v>7</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <v>30</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <v>180</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="26">
         <v>30000</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="26">
         <v>4500</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29">
+      <c r="N4" s="37"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="38">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="35">
         <v>32</v>
       </c>
-      <c r="E5" s="39">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
+      <c r="E5" s="57">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0</v>
+      </c>
+      <c r="G5" s="57">
+        <v>0</v>
+      </c>
+      <c r="H5" s="57">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>7</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="35">
         <v>30</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="35">
         <v>180</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="26">
         <v>30000</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="26">
         <v>4500</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29">
+      <c r="N5" s="37"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="38">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35">
         <v>32</v>
       </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
+      <c r="E6" s="57">
+        <v>0</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
         <v>7</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <v>30</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <v>180</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="26">
         <v>30000</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="26">
         <v>4500</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29">
+      <c r="N6" s="37"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="38">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="35">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>64</v>
       </c>
-      <c r="E7" s="39">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
+      <c r="E7" s="57">
+        <v>0</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0</v>
+      </c>
+      <c r="G7" s="57">
+        <v>0</v>
+      </c>
+      <c r="H7" s="57">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
         <v>7</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <v>30</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <v>180</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="26">
         <v>18000</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="26">
         <v>4500</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="26">
         <v>19181769.476781182</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="26">
         <v>137431124</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="38">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="35">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
         <v>2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="35">
         <v>64</v>
       </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="E8" s="57">
+        <v>0</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0</v>
+      </c>
+      <c r="G8" s="57">
+        <v>0</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
         <v>7</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>30</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="35">
         <v>180</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="26">
         <v>18000</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="26">
         <v>4500</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="26">
         <v>19181769.476781182</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="26">
         <v>137431124</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="35">
         <v>2</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>3</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <v>32</v>
       </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38">
+      <c r="E9" s="57">
+        <v>0</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0</v>
+      </c>
+      <c r="G9" s="57">
+        <v>0</v>
+      </c>
+      <c r="H9" s="57">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
         <v>151</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="26">
         <v>12000</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="26">
         <v>1500</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29">
+      <c r="N9" s="37"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26">
         <v>9564665.3300000001</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="26">
         <v>12564665.33</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="26">
         <v>4500</v>
       </c>
-      <c r="T9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="35">
         <v>2</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="35">
         <v>32</v>
       </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0</v>
-      </c>
-      <c r="G10" s="38">
-        <v>0</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="E10" s="57">
+        <v>0</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0</v>
+      </c>
+      <c r="G10" s="57">
+        <v>0</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
         <v>151</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="26">
         <v>12000</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="26">
         <v>1500</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29">
+      <c r="N10" s="37"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26">
         <v>9564665.3300000001</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="26">
         <v>12564665.33</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="26">
         <v>4500</v>
       </c>
-      <c r="T10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <v>4</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="35">
         <v>64</v>
       </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38">
+      <c r="E11" s="57">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0</v>
+      </c>
+      <c r="G11" s="57">
+        <v>0</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35">
         <v>221</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26">
         <v>7500</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="26">
         <v>1500</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="26">
         <v>21328000</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="26">
         <v>110000000</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="26">
         <v>4500</v>
       </c>
-      <c r="T11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="35">
         <v>2</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <v>64</v>
       </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38">
+      <c r="E12" s="57">
+        <v>0</v>
+      </c>
+      <c r="F12" s="57">
+        <v>0</v>
+      </c>
+      <c r="G12" s="57">
+        <v>0</v>
+      </c>
+      <c r="H12" s="57">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35">
         <v>221</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29">
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="26">
         <v>7500</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="26">
         <v>1500</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="26">
         <v>21328000</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="26">
         <v>110000000</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="26">
         <v>4500</v>
       </c>
-      <c r="T12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="38">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29">
-        <v>0</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
         <v>32</v>
       </c>
-      <c r="E13" s="38">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>0</v>
-      </c>
-      <c r="H13" s="38">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38">
+      <c r="E13" s="57">
+        <v>0</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0</v>
+      </c>
+      <c r="G13" s="57">
+        <v>0</v>
+      </c>
+      <c r="H13" s="57">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35">
         <v>141</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="26">
         <v>15000</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="26">
         <v>2000</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29">
+      <c r="N13" s="37"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26">
         <v>6666666.6699999999</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="26">
         <v>8666666.6699999999</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="26">
         <v>7500</v>
       </c>
-      <c r="T13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="38">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="38">
+      <c r="B14" s="35">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="35">
         <v>64</v>
       </c>
-      <c r="E14" s="40">
-        <v>0</v>
-      </c>
-      <c r="F14" s="40">
-        <v>0</v>
-      </c>
-      <c r="G14" s="40">
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40">
+      <c r="E14" s="58">
+        <v>0</v>
+      </c>
+      <c r="F14" s="58">
+        <v>0</v>
+      </c>
+      <c r="G14" s="58">
+        <v>0</v>
+      </c>
+      <c r="H14" s="58">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36">
         <v>171</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="30">
         <v>10000</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="30">
         <v>2000</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="26">
         <v>7804256.7300000004</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="30">
         <v>14069063</v>
       </c>
-      <c r="S14" s="33">
-        <v>0</v>
-      </c>
-      <c r="T14" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S14" s="30">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="38">
-        <v>1</v>
-      </c>
-      <c r="C15" s="29">
-        <v>0</v>
-      </c>
-      <c r="D15" s="38">
+      <c r="B15" s="35">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35">
         <v>64</v>
       </c>
-      <c r="E15" s="38">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38">
-        <v>0</v>
-      </c>
-      <c r="G15" s="38">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38">
-        <v>0</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38">
+      <c r="E15" s="57">
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <v>0</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35">
         <v>111</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29">
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="26">
         <v>12000</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="26">
         <v>1500</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="26">
         <v>1577166.67</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="26">
         <v>19970000</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="26">
         <v>6000</v>
       </c>
-      <c r="T15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="T15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29">
-        <v>0</v>
-      </c>
-      <c r="D16" s="38">
+      <c r="B16" s="35">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="35">
         <v>64</v>
       </c>
-      <c r="E16" s="38">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38">
-        <v>0</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38">
+      <c r="E16" s="57">
+        <v>0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0</v>
+      </c>
+      <c r="H16" s="57">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35">
         <v>416</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29">
+      <c r="L16" s="37"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="26">
         <v>12000</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="26">
         <v>4000</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="38">
         <v>16180200</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="26">
         <v>42203355</v>
       </c>
-      <c r="S16" s="29">
-        <v>0</v>
-      </c>
-      <c r="T16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="38">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
-        <v>0</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="B17" s="35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
         <v>64</v>
       </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0</v>
-      </c>
-      <c r="G17" s="38">
-        <v>0</v>
-      </c>
-      <c r="H17" s="38">
-        <v>0</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38">
+      <c r="E17" s="57">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0</v>
+      </c>
+      <c r="G17" s="57">
+        <v>0</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35">
         <v>416</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29">
+      <c r="L17" s="37"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="26">
         <v>6000</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="26">
         <v>4000</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="26">
         <v>15000000</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="26">
         <v>38000000</v>
       </c>
-      <c r="S17" s="29">
-        <v>0</v>
-      </c>
-      <c r="T17" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="43">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44">
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
         <v>96</v>
       </c>
-      <c r="E18" s="44">
-        <v>1</v>
-      </c>
-      <c r="F18" s="45">
-        <v>0</v>
-      </c>
-      <c r="G18" s="45">
-        <v>0</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45">
+      <c r="E18" s="59">
+        <v>1</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0</v>
+      </c>
+      <c r="G18" s="62">
+        <v>0</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41">
         <v>120</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="27">
         <v>7500</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="27">
         <v>1500</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30">
+      <c r="N18" s="72"/>
+      <c r="O18" s="27">
         <v>6000</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="27">
         <v>1500</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="41">
         <v>2120516.1768038473</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="27">
         <v>8515093</v>
       </c>
-      <c r="S18" s="30">
-        <v>0</v>
-      </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S18" s="27">
+        <v>0</v>
+      </c>
+      <c r="T18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="46">
-        <v>1</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="B19" s="42">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28">
         <v>5</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="43">
         <v>96</v>
       </c>
-      <c r="E19" s="47">
-        <v>0</v>
-      </c>
-      <c r="F19" s="46">
-        <v>0</v>
-      </c>
-      <c r="G19" s="46">
-        <v>0</v>
-      </c>
-      <c r="H19" s="46">
-        <v>0</v>
-      </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46">
+      <c r="E19" s="60">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63">
+        <v>0</v>
+      </c>
+      <c r="G19" s="63">
+        <v>0</v>
+      </c>
+      <c r="H19" s="63">
+        <v>0</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42">
         <v>416</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="28">
         <v>8000</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="28">
         <v>2000</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31">
+      <c r="N19" s="73"/>
+      <c r="O19" s="28">
         <v>8000</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="28">
         <v>2000</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="28">
         <v>1474602.1</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="28">
         <v>5000000</v>
       </c>
-      <c r="S19" s="31">
-        <v>0</v>
-      </c>
-      <c r="T19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="28">
+        <v>0</v>
+      </c>
+      <c r="T19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="48">
-        <v>1</v>
-      </c>
-      <c r="C20" s="32">
+      <c r="B20" s="44">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29">
         <v>5</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="45">
         <v>96</v>
       </c>
-      <c r="E20" s="49">
-        <v>1</v>
-      </c>
-      <c r="F20" s="48">
-        <v>0</v>
-      </c>
-      <c r="G20" s="48">
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <v>0</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48">
+      <c r="E20" s="61">
+        <v>1</v>
+      </c>
+      <c r="F20" s="64">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64">
+        <v>0</v>
+      </c>
+      <c r="H20" s="64">
+        <v>0</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44">
         <v>90</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="29">
         <v>10500</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="29">
         <v>2000</v>
       </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32">
+      <c r="N20" s="74"/>
+      <c r="O20" s="29">
         <v>6000</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="29">
         <v>2000</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="44">
         <v>963499.54218044691</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="29">
         <v>4949371.9000000004</v>
       </c>
-      <c r="S20" s="32">
-        <v>0</v>
-      </c>
-      <c r="T20" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S20" s="29">
+        <v>0</v>
+      </c>
+      <c r="T20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="40">
-        <v>1</v>
-      </c>
-      <c r="C21" s="33">
-        <v>0</v>
-      </c>
-      <c r="D21" s="40">
+      <c r="B21" s="36">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36">
         <v>32</v>
       </c>
-      <c r="E21" s="40">
-        <v>0</v>
-      </c>
-      <c r="F21" s="40">
-        <v>0</v>
-      </c>
-      <c r="G21" s="40">
-        <v>0</v>
-      </c>
-      <c r="H21" s="50">
-        <v>1</v>
-      </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40">
+      <c r="E21" s="58">
+        <v>0</v>
+      </c>
+      <c r="F21" s="58">
+        <v>0</v>
+      </c>
+      <c r="G21" s="58">
+        <v>0</v>
+      </c>
+      <c r="H21" s="65">
+        <v>1</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36">
         <v>60</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="30">
         <v>5000</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="30">
         <v>1000</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="71">
         <v>1500</v>
       </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="40">
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="36">
         <v>743937.70182970166</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="30">
         <v>6529330</v>
       </c>
-      <c r="S21" s="33">
-        <v>0</v>
-      </c>
-      <c r="T21" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="30">
+        <v>0</v>
+      </c>
+      <c r="T21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="38">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="B22" s="35">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="35">
         <v>64</v>
       </c>
-      <c r="E22" s="38">
-        <v>0</v>
-      </c>
-      <c r="F22" s="38">
-        <v>0</v>
-      </c>
-      <c r="G22" s="38">
-        <v>0</v>
-      </c>
-      <c r="H22" s="38">
-        <v>0</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38">
+      <c r="E22" s="57">
+        <v>0</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0</v>
+      </c>
+      <c r="G22" s="57">
+        <v>0</v>
+      </c>
+      <c r="H22" s="57">
+        <v>0</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35">
         <v>60</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29">
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="26">
         <v>5000</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="26">
         <v>1000</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="35">
         <v>743937.70182970166</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="30">
         <v>6529330</v>
       </c>
-      <c r="S22" s="33">
-        <v>0</v>
-      </c>
-      <c r="T22" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="30">
+        <v>0</v>
+      </c>
+      <c r="T22" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="40">
-        <v>1</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="B23" s="36">
+        <v>1</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="35">
         <v>32</v>
       </c>
-      <c r="E23" s="38">
-        <v>0</v>
-      </c>
-      <c r="F23" s="38">
-        <v>0</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0</v>
-      </c>
-      <c r="H23" s="38">
-        <v>0</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="33">
+      <c r="E23" s="57">
+        <v>0</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0</v>
+      </c>
+      <c r="G23" s="57">
+        <v>0</v>
+      </c>
+      <c r="H23" s="57">
+        <v>0</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="30">
         <v>2000</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="26">
         <v>2000</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="29">
-        <v>0</v>
-      </c>
-      <c r="R23" s="33">
+      <c r="N23" s="37"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="26">
+        <v>0</v>
+      </c>
+      <c r="R23" s="30">
         <v>3375350.0000000005</v>
       </c>
-      <c r="S23" s="33">
-        <v>0</v>
-      </c>
-      <c r="T23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="30">
+        <v>0</v>
+      </c>
+      <c r="T23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="45">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="45">
+      <c r="B24" s="41">
+        <v>1</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
         <v>64</v>
       </c>
-      <c r="E24" s="45">
-        <v>0</v>
-      </c>
-      <c r="F24" s="45">
-        <v>0</v>
-      </c>
-      <c r="G24" s="45">
-        <v>0</v>
-      </c>
-      <c r="H24" s="45">
-        <v>0</v>
-      </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30">
+      <c r="E24" s="62">
+        <v>0</v>
+      </c>
+      <c r="F24" s="62">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>0</v>
+      </c>
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="27">
         <v>3000</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="27">
         <v>3000</v>
       </c>
-      <c r="Q24" s="30">
-        <v>0</v>
-      </c>
-      <c r="R24" s="37">
+      <c r="Q24" s="27">
+        <v>0</v>
+      </c>
+      <c r="R24" s="34">
         <v>3375350.0000000005</v>
       </c>
-      <c r="S24" s="37">
-        <v>0</v>
-      </c>
-      <c r="T24" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="34">
+        <v>0</v>
+      </c>
+      <c r="T24" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="42">
         <v>5</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="31">
         <v>6</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="43">
         <v>96</v>
       </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="46">
-        <v>0</v>
-      </c>
-      <c r="G25" s="46">
-        <v>0</v>
-      </c>
-      <c r="H25" s="46">
-        <v>0</v>
-      </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="31">
+      <c r="E25" s="63">
+        <v>0</v>
+      </c>
+      <c r="F25" s="63">
+        <v>0</v>
+      </c>
+      <c r="G25" s="63">
+        <v>0</v>
+      </c>
+      <c r="H25" s="63">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="28">
         <v>2000</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="28">
         <v>2000</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31">
+      <c r="N25" s="73"/>
+      <c r="O25" s="28">
         <v>2000</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="28">
         <v>2000</v>
       </c>
-      <c r="Q25" s="31">
-        <v>0</v>
-      </c>
-      <c r="R25" s="31">
+      <c r="Q25" s="28">
+        <v>0</v>
+      </c>
+      <c r="R25" s="28">
         <v>10074019</v>
       </c>
-      <c r="S25" s="31">
-        <v>0</v>
-      </c>
-      <c r="T25" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="28">
+        <v>0</v>
+      </c>
+      <c r="T25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="44">
         <v>5</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="32">
         <v>6</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="45">
         <v>96</v>
       </c>
-      <c r="E26" s="52">
-        <v>0</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0</v>
-      </c>
-      <c r="G26" s="48">
-        <v>0</v>
-      </c>
-      <c r="H26" s="48">
-        <v>0</v>
-      </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="32">
+      <c r="E26" s="64">
+        <v>0</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0</v>
+      </c>
+      <c r="G26" s="64">
+        <v>0</v>
+      </c>
+      <c r="H26" s="64">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="29">
         <v>2000</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="29">
         <v>2000</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32">
+      <c r="N26" s="74"/>
+      <c r="O26" s="29">
         <v>2000</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="29">
         <v>2000</v>
       </c>
-      <c r="Q26" s="32">
-        <v>0</v>
-      </c>
-      <c r="R26" s="53">
+      <c r="Q26" s="29">
+        <v>0</v>
+      </c>
+      <c r="R26" s="47">
         <v>10074019</v>
       </c>
-      <c r="S26" s="54">
-        <v>0</v>
-      </c>
-      <c r="T26" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S26" s="48">
+        <v>0</v>
+      </c>
+      <c r="T26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="36">
         <v>3</v>
       </c>
-      <c r="C27" s="33">
-        <v>0</v>
-      </c>
-      <c r="D27" s="50">
+      <c r="C27" s="30">
+        <v>0</v>
+      </c>
+      <c r="D27" s="46">
         <v>96</v>
       </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0</v>
-      </c>
-      <c r="G27" s="40">
-        <v>0</v>
-      </c>
-      <c r="H27" s="40">
-        <v>0</v>
-      </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40">
+      <c r="E27" s="58">
+        <v>0</v>
+      </c>
+      <c r="F27" s="58">
+        <v>0</v>
+      </c>
+      <c r="G27" s="58">
+        <v>0</v>
+      </c>
+      <c r="H27" s="58">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36">
         <v>90</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="30">
         <v>9000</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="30">
         <v>1500</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33">
+      <c r="N27" s="71"/>
+      <c r="O27" s="30">
         <v>9000</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="30">
         <v>1500</v>
       </c>
-      <c r="Q27" s="40">
+      <c r="Q27" s="36">
         <v>411287.19456192118</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="30">
         <v>2909350</v>
       </c>
-      <c r="S27" s="33">
-        <v>0</v>
-      </c>
-      <c r="T27" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S27" s="30">
+        <v>0</v>
+      </c>
+      <c r="T27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="38">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29">
-        <v>0</v>
-      </c>
-      <c r="D28" s="56">
+      <c r="B28" s="35">
+        <v>1</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="49">
         <v>96</v>
       </c>
-      <c r="E28" s="39">
-        <v>0</v>
-      </c>
-      <c r="F28" s="38">
-        <v>0</v>
-      </c>
-      <c r="G28" s="38">
-        <v>0</v>
-      </c>
-      <c r="H28" s="38">
-        <v>0</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38">
+      <c r="E28" s="57">
+        <v>0</v>
+      </c>
+      <c r="F28" s="57">
+        <v>0</v>
+      </c>
+      <c r="G28" s="57">
+        <v>0</v>
+      </c>
+      <c r="H28" s="57">
+        <v>0</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35">
         <v>90</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="26">
         <v>9000</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="26">
         <v>1500</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29">
+      <c r="N28" s="37"/>
+      <c r="O28" s="26">
         <v>9000</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="26">
         <v>1500</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="35">
         <v>418193.87600668642</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="26">
         <v>2909350</v>
       </c>
-      <c r="S28" s="29">
-        <v>0</v>
-      </c>
-      <c r="T28" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="26">
+        <v>0</v>
+      </c>
+      <c r="T28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="41">
         <v>4</v>
       </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="38">
+      <c r="C29" s="29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
         <v>64</v>
       </c>
-      <c r="E29" s="45">
-        <v>0</v>
-      </c>
-      <c r="F29" s="45">
-        <v>0</v>
-      </c>
-      <c r="G29" s="45">
-        <v>0</v>
-      </c>
-      <c r="H29" s="45">
-        <v>0</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45">
+      <c r="E29" s="62">
+        <v>0</v>
+      </c>
+      <c r="F29" s="62">
+        <v>0</v>
+      </c>
+      <c r="G29" s="62">
+        <v>0</v>
+      </c>
+      <c r="H29" s="62">
+        <v>0</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41">
         <v>90</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30">
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="27">
         <v>6000</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="27">
         <v>1500</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="35">
         <v>782258.53766308737</v>
       </c>
-      <c r="R29" s="29">
+      <c r="R29" s="26">
         <v>2909350</v>
       </c>
-      <c r="S29" s="30">
-        <v>0</v>
-      </c>
-      <c r="T29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S29" s="27">
+        <v>0</v>
+      </c>
+      <c r="T29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="46">
-        <v>1</v>
-      </c>
-      <c r="C30" s="33">
+      <c r="B30" s="42">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30">
         <v>7</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="49">
         <v>96</v>
       </c>
-      <c r="E30" s="47">
-        <v>1</v>
-      </c>
-      <c r="F30" s="46">
-        <v>0</v>
-      </c>
-      <c r="G30" s="46">
-        <v>0</v>
-      </c>
-      <c r="H30" s="46">
-        <v>0</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46">
+      <c r="E30" s="60">
+        <v>1</v>
+      </c>
+      <c r="F30" s="63">
+        <v>0</v>
+      </c>
+      <c r="G30" s="63">
+        <v>0</v>
+      </c>
+      <c r="H30" s="63">
+        <v>0</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42">
         <v>90</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="28">
         <v>16000</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="28">
         <v>4000</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31">
+      <c r="N30" s="73"/>
+      <c r="O30" s="28">
         <v>8000</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="28">
         <v>2000</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="35">
         <v>346712.07397105638</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="28">
         <v>2924166.6707000006</v>
       </c>
-      <c r="S30" s="31">
-        <v>0</v>
-      </c>
-      <c r="T30" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="28">
+        <v>0</v>
+      </c>
+      <c r="T30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="45">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="B31" s="41">
+        <v>1</v>
+      </c>
+      <c r="C31" s="27">
         <v>7</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="41">
         <v>64</v>
       </c>
-      <c r="E31" s="45">
-        <v>0</v>
-      </c>
-      <c r="F31" s="57">
-        <v>1</v>
-      </c>
-      <c r="G31" s="57">
-        <v>0</v>
-      </c>
-      <c r="H31" s="45">
-        <v>0</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57">
+      <c r="E31" s="62">
+        <v>0</v>
+      </c>
+      <c r="F31" s="69">
+        <v>1</v>
+      </c>
+      <c r="G31" s="69">
+        <v>0</v>
+      </c>
+      <c r="H31" s="62">
+        <v>0</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50">
         <v>141</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30">
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="27">
         <v>12000</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="27">
         <v>3000</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="27">
         <v>1144912.53</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="27">
         <v>3596459.9000000004</v>
       </c>
-      <c r="S31" s="30">
-        <v>0</v>
-      </c>
-      <c r="T31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S31" s="27">
+        <v>0</v>
+      </c>
+      <c r="T31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="46">
-        <v>1</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B32" s="42">
+        <v>1</v>
+      </c>
+      <c r="C32" s="28">
         <v>8</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="43">
         <v>96</v>
       </c>
-      <c r="E32" s="47">
-        <v>1</v>
-      </c>
-      <c r="F32" s="46">
-        <v>0</v>
-      </c>
-      <c r="G32" s="46">
-        <v>0</v>
-      </c>
-      <c r="H32" s="46">
-        <v>0</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46">
+      <c r="E32" s="60">
+        <v>1</v>
+      </c>
+      <c r="F32" s="63">
+        <v>0</v>
+      </c>
+      <c r="G32" s="63">
+        <v>0</v>
+      </c>
+      <c r="H32" s="63">
+        <v>0</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42">
         <v>90</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="28">
         <v>16000</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="28">
         <v>4000</v>
       </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31">
+      <c r="N32" s="73"/>
+      <c r="O32" s="28">
         <v>8000</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="28">
         <v>2000</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="42">
         <v>124219.53415625692</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="28">
         <v>1776000</v>
       </c>
-      <c r="S32" s="31">
-        <v>0</v>
-      </c>
-      <c r="T32" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="28">
+        <v>0</v>
+      </c>
+      <c r="T32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="48">
-        <v>1</v>
-      </c>
-      <c r="C33" s="32">
+      <c r="B33" s="44">
+        <v>1</v>
+      </c>
+      <c r="C33" s="29">
         <v>8</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="44">
         <v>64</v>
       </c>
-      <c r="E33" s="48">
-        <v>0</v>
-      </c>
-      <c r="F33" s="58">
-        <v>1</v>
-      </c>
-      <c r="G33" s="58">
-        <v>0</v>
-      </c>
-      <c r="H33" s="48">
-        <v>0</v>
-      </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58">
+      <c r="E33" s="64">
+        <v>0</v>
+      </c>
+      <c r="F33" s="70">
+        <v>1</v>
+      </c>
+      <c r="G33" s="70">
+        <v>0</v>
+      </c>
+      <c r="H33" s="64">
+        <v>0</v>
+      </c>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51">
         <v>141</v>
       </c>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32">
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="29">
         <v>12000</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="29">
         <v>3000</v>
       </c>
-      <c r="Q33" s="32">
+      <c r="Q33" s="29">
         <v>823131.99</v>
       </c>
-      <c r="R33" s="32">
+      <c r="R33" s="29">
         <v>2609718.3200000003</v>
       </c>
-      <c r="S33" s="32">
-        <v>0</v>
-      </c>
-      <c r="T33" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S33" s="29">
+        <v>0</v>
+      </c>
+      <c r="T33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="40">
-        <v>1</v>
-      </c>
-      <c r="C34" s="36">
+      <c r="B34" s="36">
+        <v>1</v>
+      </c>
+      <c r="C34" s="33">
         <v>9</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="46">
         <v>96</v>
       </c>
-      <c r="E34" s="50">
-        <v>1</v>
-      </c>
-      <c r="F34" s="50">
-        <v>1</v>
-      </c>
-      <c r="G34" s="50">
-        <v>1</v>
-      </c>
-      <c r="H34" s="40">
-        <v>0</v>
-      </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50">
+      <c r="E34" s="65">
+        <v>1</v>
+      </c>
+      <c r="F34" s="65">
+        <v>1</v>
+      </c>
+      <c r="G34" s="65">
+        <v>1</v>
+      </c>
+      <c r="H34" s="58">
+        <v>0</v>
+      </c>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46">
         <v>141</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="30">
         <v>16000</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="30">
         <v>4000</v>
       </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33">
+      <c r="N34" s="71"/>
+      <c r="O34" s="30">
         <v>8000</v>
       </c>
-      <c r="P34" s="33">
+      <c r="P34" s="30">
         <v>2000</v>
       </c>
-      <c r="Q34" s="40">
+      <c r="Q34" s="36">
         <v>183449.94994008305</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="30">
         <v>2319166.6707000006</v>
       </c>
-      <c r="S34" s="33">
-        <v>0</v>
-      </c>
-      <c r="T34" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="30">
+        <v>0</v>
+      </c>
+      <c r="T34" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="48">
-        <v>1</v>
-      </c>
-      <c r="C35" s="35">
+      <c r="B35" s="44">
+        <v>1</v>
+      </c>
+      <c r="C35" s="32">
         <v>9</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="35">
         <v>64</v>
       </c>
-      <c r="E35" s="48">
-        <v>0</v>
-      </c>
-      <c r="F35" s="48">
-        <v>0</v>
-      </c>
-      <c r="G35" s="48">
-        <v>0</v>
-      </c>
-      <c r="H35" s="48">
-        <v>0</v>
-      </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48">
+      <c r="E35" s="64">
+        <v>0</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0</v>
+      </c>
+      <c r="G35" s="64">
+        <v>0</v>
+      </c>
+      <c r="H35" s="64">
+        <v>0</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44">
         <v>120</v>
       </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32">
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="29">
         <v>12000</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="29">
         <v>3000</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="29">
         <v>1379980.37</v>
       </c>
-      <c r="R35" s="32">
+      <c r="R35" s="29">
         <v>3114824.35</v>
       </c>
-      <c r="S35" s="32">
-        <v>0</v>
-      </c>
-      <c r="T35" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="29">
+        <v>0</v>
+      </c>
+      <c r="T35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="43">
-        <v>1</v>
-      </c>
-      <c r="C36" s="37">
+      <c r="B36" s="39">
+        <v>1</v>
+      </c>
+      <c r="C36" s="34">
         <v>10</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="40">
         <v>96</v>
       </c>
-      <c r="E36" s="59">
-        <v>0</v>
-      </c>
-      <c r="F36" s="43">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43">
-        <v>0</v>
-      </c>
-      <c r="H36" s="43">
-        <v>0</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43">
+      <c r="E36" s="66">
+        <v>0</v>
+      </c>
+      <c r="F36" s="66">
+        <v>0</v>
+      </c>
+      <c r="G36" s="66">
+        <v>0</v>
+      </c>
+      <c r="H36" s="66">
+        <v>0</v>
+      </c>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39">
         <v>90</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="34">
         <v>9500</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="34">
         <v>2000</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37">
+      <c r="N36" s="75"/>
+      <c r="O36" s="34">
         <v>9500</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="34">
         <v>2000</v>
       </c>
-      <c r="Q36" s="43">
+      <c r="Q36" s="39">
         <v>135788.59716344613</v>
       </c>
-      <c r="R36" s="37">
+      <c r="R36" s="34">
         <v>2800000</v>
       </c>
-      <c r="S36" s="37">
-        <v>0</v>
-      </c>
-      <c r="T36" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="34">
+        <v>0</v>
+      </c>
+      <c r="T36" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="43">
-        <v>1</v>
-      </c>
-      <c r="C37" s="37">
+      <c r="B37" s="39">
+        <v>1</v>
+      </c>
+      <c r="C37" s="34">
         <v>10</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="40">
         <v>96</v>
       </c>
-      <c r="E37" s="59">
-        <v>0</v>
-      </c>
-      <c r="F37" s="43">
-        <v>0</v>
-      </c>
-      <c r="G37" s="43">
-        <v>0</v>
-      </c>
-      <c r="H37" s="43">
-        <v>0</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43">
+      <c r="E37" s="66">
+        <v>0</v>
+      </c>
+      <c r="F37" s="66">
+        <v>0</v>
+      </c>
+      <c r="G37" s="66">
+        <v>0</v>
+      </c>
+      <c r="H37" s="66">
+        <v>0</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39">
         <v>90</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="34">
         <v>9500</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="34">
         <v>2000</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37">
+      <c r="N37" s="75"/>
+      <c r="O37" s="34">
         <v>9500</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P37" s="34">
         <v>2000</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="39">
         <v>135788.59716344613</v>
       </c>
-      <c r="R37" s="37">
+      <c r="R37" s="34">
         <v>2800000</v>
       </c>
-      <c r="S37" s="37">
-        <v>0</v>
-      </c>
-      <c r="T37" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S37" s="34">
+        <v>0</v>
+      </c>
+      <c r="T37" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="46">
-        <v>1</v>
-      </c>
-      <c r="C38" s="31">
+      <c r="B38" s="42">
+        <v>1</v>
+      </c>
+      <c r="C38" s="28">
         <v>11</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="43">
         <v>96</v>
       </c>
-      <c r="E38" s="46">
-        <v>0</v>
-      </c>
-      <c r="F38" s="46">
-        <v>0</v>
-      </c>
-      <c r="G38" s="46">
-        <v>0</v>
-      </c>
-      <c r="H38" s="46">
-        <v>0</v>
-      </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46">
+      <c r="E38" s="63">
+        <v>0</v>
+      </c>
+      <c r="F38" s="63">
+        <v>0</v>
+      </c>
+      <c r="G38" s="63">
+        <v>0</v>
+      </c>
+      <c r="H38" s="63">
+        <v>0</v>
+      </c>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42">
         <v>60</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="28">
         <v>12000</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="28">
         <v>1500</v>
       </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31">
+      <c r="N38" s="73"/>
+      <c r="O38" s="28">
         <v>12000</v>
       </c>
-      <c r="P38" s="31">
+      <c r="P38" s="28">
         <v>1500</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="42">
         <v>263072.79652163608</v>
       </c>
-      <c r="R38" s="31">
+      <c r="R38" s="28">
         <v>273606.30000000005</v>
       </c>
-      <c r="S38" s="31">
-        <v>0</v>
-      </c>
-      <c r="T38" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="28">
+        <v>0</v>
+      </c>
+      <c r="T38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="48">
-        <v>1</v>
-      </c>
-      <c r="C39" s="32">
+      <c r="B39" s="44">
+        <v>1</v>
+      </c>
+      <c r="C39" s="29">
         <v>11</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="45">
         <v>96</v>
       </c>
-      <c r="E39" s="48">
-        <v>0</v>
-      </c>
-      <c r="F39" s="48">
-        <v>0</v>
-      </c>
-      <c r="G39" s="48">
-        <v>0</v>
-      </c>
-      <c r="H39" s="48">
-        <v>0</v>
-      </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48">
+      <c r="E39" s="64">
+        <v>0</v>
+      </c>
+      <c r="F39" s="64">
+        <v>0</v>
+      </c>
+      <c r="G39" s="64">
+        <v>0</v>
+      </c>
+      <c r="H39" s="64">
+        <v>0</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44">
         <v>60</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="29">
         <v>3000</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="29">
         <v>1500</v>
       </c>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32">
+      <c r="N39" s="74"/>
+      <c r="O39" s="29">
         <v>3000</v>
       </c>
-      <c r="P39" s="32">
+      <c r="P39" s="29">
         <v>1500</v>
       </c>
-      <c r="Q39" s="48">
+      <c r="Q39" s="44">
         <v>263072.79652163608</v>
       </c>
-      <c r="R39" s="54">
+      <c r="R39" s="48">
         <v>273606.30000000005</v>
       </c>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-    </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+    </row>
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="23"/>
+      <c r="N40" s="76"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D41"/>
       <c r="L41" s="10"/>
       <c r="N41" s="10"/>
@@ -3182,11 +3198,11 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T39"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="S1:T1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B49D7F-01A2-43AB-8FEA-31352C3FA434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
@@ -207,12 +208,6 @@
     <t>common_restricted2</t>
   </si>
   <si>
-    <t>sne</t>
-  </si>
-  <si>
-    <t>ppr</t>
-  </si>
-  <si>
     <t>МИ-8П</t>
   </si>
   <si>
@@ -248,12 +243,18 @@
   </si>
   <si>
     <t>8А-6311-00 4 СЕР</t>
+  </si>
+  <si>
+    <t>sne_new</t>
+  </si>
+  <si>
+    <t>ppr_new</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,6 +670,71 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -678,76 +744,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -838,6 +839,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -873,6 +891,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1048,39 +1083,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="68" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" customWidth="1"/>
-    <col min="24" max="29" width="5.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
+    <col min="24" max="29" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1093,14 +1128,14 @@
       <c r="D1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
@@ -1118,7 +1153,7 @@
       <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="18" t="s">
@@ -1133,12 +1168,12 @@
       <c r="R1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="53"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="T1" s="76"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1151,16 +1186,16 @@
       <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="53" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -1178,7 +1213,7 @@
       <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="53" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1194,15 +1229,15 @@
         <v>53</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="35">
         <v>1</v>
@@ -1213,16 +1248,16 @@
       <c r="D3" s="35">
         <v>32</v>
       </c>
-      <c r="E3" s="57">
-        <v>0</v>
-      </c>
-      <c r="F3" s="57">
-        <v>0</v>
-      </c>
-      <c r="G3" s="57">
-        <v>0</v>
-      </c>
-      <c r="H3" s="57">
+      <c r="E3" s="54">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54">
+        <v>0</v>
+      </c>
+      <c r="H3" s="54">
         <v>0</v>
       </c>
       <c r="I3" s="35">
@@ -1252,9 +1287,9 @@
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="35">
         <v>1</v>
@@ -1265,16 +1300,16 @@
       <c r="D4" s="35">
         <v>32</v>
       </c>
-      <c r="E4" s="57">
-        <v>0</v>
-      </c>
-      <c r="F4" s="57">
-        <v>0</v>
-      </c>
-      <c r="G4" s="57">
-        <v>0</v>
-      </c>
-      <c r="H4" s="57">
+      <c r="E4" s="54">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
+      <c r="H4" s="54">
         <v>0</v>
       </c>
       <c r="I4" s="35">
@@ -1304,9 +1339,9 @@
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="35">
         <v>1</v>
@@ -1317,16 +1352,16 @@
       <c r="D5" s="35">
         <v>32</v>
       </c>
-      <c r="E5" s="57">
-        <v>0</v>
-      </c>
-      <c r="F5" s="57">
-        <v>0</v>
-      </c>
-      <c r="G5" s="57">
-        <v>0</v>
-      </c>
-      <c r="H5" s="57">
+      <c r="E5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="54">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54">
         <v>0</v>
       </c>
       <c r="I5" s="35">
@@ -1356,9 +1391,9 @@
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="35">
         <v>1</v>
@@ -1369,16 +1404,16 @@
       <c r="D6" s="35">
         <v>32</v>
       </c>
-      <c r="E6" s="57">
-        <v>0</v>
-      </c>
-      <c r="F6" s="57">
-        <v>0</v>
-      </c>
-      <c r="G6" s="57">
-        <v>0</v>
-      </c>
-      <c r="H6" s="57">
+      <c r="E6" s="54">
+        <v>0</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54">
+        <v>0</v>
+      </c>
+      <c r="H6" s="54">
         <v>0</v>
       </c>
       <c r="I6" s="35">
@@ -1408,9 +1443,9 @@
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="35">
         <v>1</v>
@@ -1421,16 +1456,16 @@
       <c r="D7" s="35">
         <v>64</v>
       </c>
-      <c r="E7" s="57">
-        <v>0</v>
-      </c>
-      <c r="F7" s="57">
-        <v>0</v>
-      </c>
-      <c r="G7" s="57">
-        <v>0</v>
-      </c>
-      <c r="H7" s="57">
+      <c r="E7" s="54">
+        <v>0</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0</v>
+      </c>
+      <c r="H7" s="54">
         <v>0</v>
       </c>
       <c r="I7" s="35">
@@ -1460,9 +1495,9 @@
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="35">
         <v>1</v>
@@ -1473,16 +1508,16 @@
       <c r="D8" s="35">
         <v>64</v>
       </c>
-      <c r="E8" s="57">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57">
-        <v>0</v>
-      </c>
-      <c r="G8" s="57">
-        <v>0</v>
-      </c>
-      <c r="H8" s="57">
+      <c r="E8" s="54">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54">
         <v>0</v>
       </c>
       <c r="I8" s="35">
@@ -1512,9 +1547,9 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="35">
         <v>2</v>
@@ -1525,16 +1560,16 @@
       <c r="D9" s="35">
         <v>32</v>
       </c>
-      <c r="E9" s="57">
-        <v>0</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0</v>
-      </c>
-      <c r="G9" s="57">
-        <v>0</v>
-      </c>
-      <c r="H9" s="57">
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0</v>
+      </c>
+      <c r="H9" s="54">
         <v>0</v>
       </c>
       <c r="I9" s="35"/>
@@ -1564,9 +1599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="35">
         <v>2</v>
@@ -1577,16 +1612,16 @@
       <c r="D10" s="35">
         <v>32</v>
       </c>
-      <c r="E10" s="57">
-        <v>0</v>
-      </c>
-      <c r="F10" s="57">
-        <v>0</v>
-      </c>
-      <c r="G10" s="57">
-        <v>0</v>
-      </c>
-      <c r="H10" s="57">
+      <c r="E10" s="54">
+        <v>0</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54">
+        <v>0</v>
+      </c>
+      <c r="H10" s="54">
         <v>0</v>
       </c>
       <c r="I10" s="35"/>
@@ -1616,9 +1651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="35">
         <v>2</v>
@@ -1629,16 +1664,16 @@
       <c r="D11" s="35">
         <v>64</v>
       </c>
-      <c r="E11" s="57">
-        <v>0</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0</v>
-      </c>
-      <c r="G11" s="57">
-        <v>0</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
         <v>0</v>
       </c>
       <c r="I11" s="35"/>
@@ -1668,9 +1703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="35">
         <v>2</v>
@@ -1681,16 +1716,16 @@
       <c r="D12" s="35">
         <v>64</v>
       </c>
-      <c r="E12" s="57">
-        <v>0</v>
-      </c>
-      <c r="F12" s="57">
-        <v>0</v>
-      </c>
-      <c r="G12" s="57">
-        <v>0</v>
-      </c>
-      <c r="H12" s="57">
+      <c r="E12" s="54">
+        <v>0</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54">
         <v>0</v>
       </c>
       <c r="I12" s="35"/>
@@ -1720,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -1733,16 +1768,16 @@
       <c r="D13" s="35">
         <v>32</v>
       </c>
-      <c r="E13" s="57">
-        <v>0</v>
-      </c>
-      <c r="F13" s="57">
-        <v>0</v>
-      </c>
-      <c r="G13" s="57">
-        <v>0</v>
-      </c>
-      <c r="H13" s="57">
+      <c r="E13" s="54">
+        <v>0</v>
+      </c>
+      <c r="F13" s="54">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0</v>
+      </c>
+      <c r="H13" s="54">
         <v>0</v>
       </c>
       <c r="I13" s="35"/>
@@ -1772,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1785,16 +1820,16 @@
       <c r="D14" s="35">
         <v>64</v>
       </c>
-      <c r="E14" s="58">
-        <v>0</v>
-      </c>
-      <c r="F14" s="58">
-        <v>0</v>
-      </c>
-      <c r="G14" s="58">
-        <v>0</v>
-      </c>
-      <c r="H14" s="58">
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="55">
         <v>0</v>
       </c>
       <c r="I14" s="36"/>
@@ -1804,7 +1839,7 @@
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="71"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="30">
         <v>10000</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
@@ -1837,16 +1872,16 @@
       <c r="D15" s="35">
         <v>64</v>
       </c>
-      <c r="E15" s="57">
-        <v>0</v>
-      </c>
-      <c r="F15" s="57">
-        <v>0</v>
-      </c>
-      <c r="G15" s="57">
-        <v>0</v>
-      </c>
-      <c r="H15" s="57">
+      <c r="E15" s="54">
+        <v>0</v>
+      </c>
+      <c r="F15" s="54">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54">
         <v>0</v>
       </c>
       <c r="I15" s="35"/>
@@ -1876,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1889,16 +1924,16 @@
       <c r="D16" s="35">
         <v>64</v>
       </c>
-      <c r="E16" s="57">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
-        <v>0</v>
-      </c>
-      <c r="H16" s="57">
+      <c r="E16" s="54">
+        <v>0</v>
+      </c>
+      <c r="F16" s="54">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
         <v>0</v>
       </c>
       <c r="I16" s="35"/>
@@ -1928,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
@@ -1941,16 +1976,16 @@
       <c r="D17" s="35">
         <v>64</v>
       </c>
-      <c r="E17" s="57">
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
-        <v>0</v>
-      </c>
-      <c r="G17" s="57">
-        <v>0</v>
-      </c>
-      <c r="H17" s="57">
+      <c r="E17" s="54">
+        <v>0</v>
+      </c>
+      <c r="F17" s="54">
+        <v>0</v>
+      </c>
+      <c r="G17" s="54">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54">
         <v>0</v>
       </c>
       <c r="I17" s="35"/>
@@ -1980,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -1993,16 +2028,16 @@
       <c r="D18" s="40">
         <v>96</v>
       </c>
-      <c r="E18" s="59">
-        <v>1</v>
-      </c>
-      <c r="F18" s="62">
-        <v>0</v>
-      </c>
-      <c r="G18" s="62">
-        <v>0</v>
-      </c>
-      <c r="H18" s="62">
+      <c r="E18" s="56">
+        <v>1</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59">
+        <v>0</v>
+      </c>
+      <c r="H18" s="59">
         <v>0</v>
       </c>
       <c r="I18" s="41"/>
@@ -2016,7 +2051,7 @@
       <c r="M18" s="27">
         <v>1500</v>
       </c>
-      <c r="N18" s="72"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="27">
         <v>6000</v>
       </c>
@@ -2036,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2049,16 +2084,16 @@
       <c r="D19" s="43">
         <v>96</v>
       </c>
-      <c r="E19" s="60">
-        <v>0</v>
-      </c>
-      <c r="F19" s="63">
-        <v>0</v>
-      </c>
-      <c r="G19" s="63">
-        <v>0</v>
-      </c>
-      <c r="H19" s="63">
+      <c r="E19" s="57">
+        <v>0</v>
+      </c>
+      <c r="F19" s="60">
+        <v>0</v>
+      </c>
+      <c r="G19" s="60">
+        <v>0</v>
+      </c>
+      <c r="H19" s="60">
         <v>0</v>
       </c>
       <c r="I19" s="42"/>
@@ -2072,7 +2107,7 @@
       <c r="M19" s="28">
         <v>2000</v>
       </c>
-      <c r="N19" s="73"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="28">
         <v>8000</v>
       </c>
@@ -2092,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -2105,16 +2140,16 @@
       <c r="D20" s="45">
         <v>96</v>
       </c>
-      <c r="E20" s="61">
-        <v>1</v>
-      </c>
-      <c r="F20" s="64">
-        <v>0</v>
-      </c>
-      <c r="G20" s="64">
-        <v>0</v>
-      </c>
-      <c r="H20" s="64">
+      <c r="E20" s="58">
+        <v>1</v>
+      </c>
+      <c r="F20" s="61">
+        <v>0</v>
+      </c>
+      <c r="G20" s="61">
+        <v>0</v>
+      </c>
+      <c r="H20" s="61">
         <v>0</v>
       </c>
       <c r="I20" s="44"/>
@@ -2128,7 +2163,7 @@
       <c r="M20" s="29">
         <v>2000</v>
       </c>
-      <c r="N20" s="74"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="29">
         <v>6000</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -2161,16 +2196,16 @@
       <c r="D21" s="36">
         <v>32</v>
       </c>
-      <c r="E21" s="58">
-        <v>0</v>
-      </c>
-      <c r="F21" s="58">
-        <v>0</v>
-      </c>
-      <c r="G21" s="58">
-        <v>0</v>
-      </c>
-      <c r="H21" s="65">
+      <c r="E21" s="55">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="62">
         <v>1</v>
       </c>
       <c r="I21" s="36"/>
@@ -2184,7 +2219,7 @@
       <c r="M21" s="30">
         <v>1000</v>
       </c>
-      <c r="N21" s="71">
+      <c r="N21" s="68">
         <v>1500</v>
       </c>
       <c r="O21" s="30"/>
@@ -2202,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2215,16 +2250,16 @@
       <c r="D22" s="35">
         <v>64</v>
       </c>
-      <c r="E22" s="57">
-        <v>0</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0</v>
-      </c>
-      <c r="G22" s="57">
-        <v>0</v>
-      </c>
-      <c r="H22" s="57">
+      <c r="E22" s="54">
+        <v>0</v>
+      </c>
+      <c r="F22" s="54">
+        <v>0</v>
+      </c>
+      <c r="G22" s="54">
+        <v>0</v>
+      </c>
+      <c r="H22" s="54">
         <v>0</v>
       </c>
       <c r="I22" s="35"/>
@@ -2254,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2267,16 +2302,16 @@
       <c r="D23" s="35">
         <v>32</v>
       </c>
-      <c r="E23" s="57">
-        <v>0</v>
-      </c>
-      <c r="F23" s="57">
-        <v>0</v>
-      </c>
-      <c r="G23" s="57">
-        <v>0</v>
-      </c>
-      <c r="H23" s="57">
+      <c r="E23" s="54">
+        <v>0</v>
+      </c>
+      <c r="F23" s="54">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54">
+        <v>0</v>
+      </c>
+      <c r="H23" s="54">
         <v>0</v>
       </c>
       <c r="I23" s="35"/>
@@ -2304,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
@@ -2317,16 +2352,16 @@
       <c r="D24" s="41">
         <v>64</v>
       </c>
-      <c r="E24" s="62">
-        <v>0</v>
-      </c>
-      <c r="F24" s="62">
-        <v>0</v>
-      </c>
-      <c r="G24" s="62">
-        <v>0</v>
-      </c>
-      <c r="H24" s="62">
+      <c r="E24" s="59">
+        <v>0</v>
+      </c>
+      <c r="F24" s="59">
+        <v>0</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0</v>
+      </c>
+      <c r="H24" s="59">
         <v>0</v>
       </c>
       <c r="I24" s="41"/>
@@ -2334,7 +2369,7 @@
       <c r="K24" s="41"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="72"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="27">
         <v>3000</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
@@ -2367,16 +2402,16 @@
       <c r="D25" s="43">
         <v>96</v>
       </c>
-      <c r="E25" s="63">
-        <v>0</v>
-      </c>
-      <c r="F25" s="63">
-        <v>0</v>
-      </c>
-      <c r="G25" s="63">
-        <v>0</v>
-      </c>
-      <c r="H25" s="63">
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60">
+        <v>0</v>
+      </c>
+      <c r="G25" s="60">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60">
         <v>0</v>
       </c>
       <c r="I25" s="42"/>
@@ -2388,7 +2423,7 @@
       <c r="M25" s="28">
         <v>2000</v>
       </c>
-      <c r="N25" s="73"/>
+      <c r="N25" s="70"/>
       <c r="O25" s="28">
         <v>2000</v>
       </c>
@@ -2408,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
@@ -2421,16 +2456,16 @@
       <c r="D26" s="45">
         <v>96</v>
       </c>
-      <c r="E26" s="64">
-        <v>0</v>
-      </c>
-      <c r="F26" s="64">
-        <v>0</v>
-      </c>
-      <c r="G26" s="64">
-        <v>0</v>
-      </c>
-      <c r="H26" s="64">
+      <c r="E26" s="61">
+        <v>0</v>
+      </c>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="61">
+        <v>0</v>
+      </c>
+      <c r="H26" s="61">
         <v>0</v>
       </c>
       <c r="I26" s="44"/>
@@ -2442,7 +2477,7 @@
       <c r="M26" s="29">
         <v>2000</v>
       </c>
-      <c r="N26" s="74"/>
+      <c r="N26" s="71"/>
       <c r="O26" s="29">
         <v>2000</v>
       </c>
@@ -2462,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
@@ -2475,16 +2510,16 @@
       <c r="D27" s="46">
         <v>96</v>
       </c>
-      <c r="E27" s="58">
-        <v>0</v>
-      </c>
-      <c r="F27" s="58">
-        <v>0</v>
-      </c>
-      <c r="G27" s="58">
-        <v>0</v>
-      </c>
-      <c r="H27" s="58">
+      <c r="E27" s="55">
+        <v>0</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
         <v>0</v>
       </c>
       <c r="I27" s="36"/>
@@ -2498,7 +2533,7 @@
       <c r="M27" s="30">
         <v>1500</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="68"/>
       <c r="O27" s="30">
         <v>9000</v>
       </c>
@@ -2518,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2531,16 +2566,16 @@
       <c r="D28" s="49">
         <v>96</v>
       </c>
-      <c r="E28" s="57">
-        <v>0</v>
-      </c>
-      <c r="F28" s="57">
-        <v>0</v>
-      </c>
-      <c r="G28" s="57">
-        <v>0</v>
-      </c>
-      <c r="H28" s="57">
+      <c r="E28" s="54">
+        <v>0</v>
+      </c>
+      <c r="F28" s="54">
+        <v>0</v>
+      </c>
+      <c r="G28" s="54">
+        <v>0</v>
+      </c>
+      <c r="H28" s="54">
         <v>0</v>
       </c>
       <c r="I28" s="35"/>
@@ -2574,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -2587,16 +2622,16 @@
       <c r="D29" s="35">
         <v>64</v>
       </c>
-      <c r="E29" s="62">
-        <v>0</v>
-      </c>
-      <c r="F29" s="62">
-        <v>0</v>
-      </c>
-      <c r="G29" s="62">
-        <v>0</v>
-      </c>
-      <c r="H29" s="62">
+      <c r="E29" s="59">
+        <v>0</v>
+      </c>
+      <c r="F29" s="59">
+        <v>0</v>
+      </c>
+      <c r="G29" s="59">
+        <v>0</v>
+      </c>
+      <c r="H29" s="59">
         <v>0</v>
       </c>
       <c r="I29" s="41"/>
@@ -2606,7 +2641,7 @@
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
-      <c r="N29" s="72"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="27">
         <v>6000</v>
       </c>
@@ -2626,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -2639,16 +2674,16 @@
       <c r="D30" s="49">
         <v>96</v>
       </c>
-      <c r="E30" s="60">
-        <v>1</v>
-      </c>
-      <c r="F30" s="63">
-        <v>0</v>
-      </c>
-      <c r="G30" s="63">
-        <v>0</v>
-      </c>
-      <c r="H30" s="63">
+      <c r="E30" s="57">
+        <v>1</v>
+      </c>
+      <c r="F30" s="60">
+        <v>0</v>
+      </c>
+      <c r="G30" s="60">
+        <v>0</v>
+      </c>
+      <c r="H30" s="60">
         <v>0</v>
       </c>
       <c r="I30" s="42"/>
@@ -2662,7 +2697,7 @@
       <c r="M30" s="28">
         <v>4000</v>
       </c>
-      <c r="N30" s="73"/>
+      <c r="N30" s="70"/>
       <c r="O30" s="28">
         <v>8000</v>
       </c>
@@ -2682,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
@@ -2695,16 +2730,16 @@
       <c r="D31" s="41">
         <v>64</v>
       </c>
-      <c r="E31" s="62">
-        <v>0</v>
-      </c>
-      <c r="F31" s="69">
-        <v>1</v>
-      </c>
-      <c r="G31" s="69">
-        <v>0</v>
-      </c>
-      <c r="H31" s="62">
+      <c r="E31" s="59">
+        <v>0</v>
+      </c>
+      <c r="F31" s="66">
+        <v>1</v>
+      </c>
+      <c r="G31" s="66">
+        <v>0</v>
+      </c>
+      <c r="H31" s="59">
         <v>0</v>
       </c>
       <c r="I31" s="50"/>
@@ -2714,7 +2749,7 @@
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
-      <c r="N31" s="72"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="27">
         <v>12000</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
@@ -2747,16 +2782,16 @@
       <c r="D32" s="43">
         <v>96</v>
       </c>
-      <c r="E32" s="60">
-        <v>1</v>
-      </c>
-      <c r="F32" s="63">
-        <v>0</v>
-      </c>
-      <c r="G32" s="63">
-        <v>0</v>
-      </c>
-      <c r="H32" s="63">
+      <c r="E32" s="57">
+        <v>1</v>
+      </c>
+      <c r="F32" s="60">
+        <v>0</v>
+      </c>
+      <c r="G32" s="60">
+        <v>0</v>
+      </c>
+      <c r="H32" s="60">
         <v>0</v>
       </c>
       <c r="I32" s="42"/>
@@ -2770,7 +2805,7 @@
       <c r="M32" s="28">
         <v>4000</v>
       </c>
-      <c r="N32" s="73"/>
+      <c r="N32" s="70"/>
       <c r="O32" s="28">
         <v>8000</v>
       </c>
@@ -2790,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>39</v>
       </c>
@@ -2803,16 +2838,16 @@
       <c r="D33" s="44">
         <v>64</v>
       </c>
-      <c r="E33" s="64">
-        <v>0</v>
-      </c>
-      <c r="F33" s="70">
-        <v>1</v>
-      </c>
-      <c r="G33" s="70">
-        <v>0</v>
-      </c>
-      <c r="H33" s="64">
+      <c r="E33" s="61">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
+        <v>1</v>
+      </c>
+      <c r="G33" s="67">
+        <v>0</v>
+      </c>
+      <c r="H33" s="61">
         <v>0</v>
       </c>
       <c r="I33" s="51"/>
@@ -2822,7 +2857,7 @@
       </c>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="74"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="29">
         <v>12000</v>
       </c>
@@ -2842,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
@@ -2855,16 +2890,16 @@
       <c r="D34" s="46">
         <v>96</v>
       </c>
-      <c r="E34" s="65">
-        <v>1</v>
-      </c>
-      <c r="F34" s="65">
-        <v>1</v>
-      </c>
-      <c r="G34" s="65">
-        <v>1</v>
-      </c>
-      <c r="H34" s="58">
+      <c r="E34" s="62">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62">
+        <v>1</v>
+      </c>
+      <c r="G34" s="62">
+        <v>1</v>
+      </c>
+      <c r="H34" s="55">
         <v>0</v>
       </c>
       <c r="I34" s="46"/>
@@ -2878,7 +2913,7 @@
       <c r="M34" s="30">
         <v>4000</v>
       </c>
-      <c r="N34" s="71"/>
+      <c r="N34" s="68"/>
       <c r="O34" s="30">
         <v>8000</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
@@ -2911,16 +2946,16 @@
       <c r="D35" s="35">
         <v>64</v>
       </c>
-      <c r="E35" s="64">
-        <v>0</v>
-      </c>
-      <c r="F35" s="64">
-        <v>0</v>
-      </c>
-      <c r="G35" s="64">
-        <v>0</v>
-      </c>
-      <c r="H35" s="64">
+      <c r="E35" s="61">
+        <v>0</v>
+      </c>
+      <c r="F35" s="61">
+        <v>0</v>
+      </c>
+      <c r="G35" s="61">
+        <v>0</v>
+      </c>
+      <c r="H35" s="61">
         <v>0</v>
       </c>
       <c r="I35" s="44"/>
@@ -2930,7 +2965,7 @@
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="74"/>
+      <c r="N35" s="71"/>
       <c r="O35" s="29">
         <v>12000</v>
       </c>
@@ -2950,9 +2985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="39">
         <v>1</v>
@@ -2963,16 +2998,16 @@
       <c r="D36" s="40">
         <v>96</v>
       </c>
-      <c r="E36" s="66">
-        <v>0</v>
-      </c>
-      <c r="F36" s="66">
-        <v>0</v>
-      </c>
-      <c r="G36" s="66">
-        <v>0</v>
-      </c>
-      <c r="H36" s="66">
+      <c r="E36" s="63">
+        <v>0</v>
+      </c>
+      <c r="F36" s="63">
+        <v>0</v>
+      </c>
+      <c r="G36" s="63">
+        <v>0</v>
+      </c>
+      <c r="H36" s="63">
         <v>0</v>
       </c>
       <c r="I36" s="39"/>
@@ -2986,7 +3021,7 @@
       <c r="M36" s="34">
         <v>2000</v>
       </c>
-      <c r="N36" s="75"/>
+      <c r="N36" s="72"/>
       <c r="O36" s="34">
         <v>9500</v>
       </c>
@@ -3006,9 +3041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="39">
         <v>1</v>
@@ -3019,16 +3054,16 @@
       <c r="D37" s="40">
         <v>96</v>
       </c>
-      <c r="E37" s="66">
-        <v>0</v>
-      </c>
-      <c r="F37" s="66">
-        <v>0</v>
-      </c>
-      <c r="G37" s="66">
-        <v>0</v>
-      </c>
-      <c r="H37" s="66">
+      <c r="E37" s="63">
+        <v>0</v>
+      </c>
+      <c r="F37" s="63">
+        <v>0</v>
+      </c>
+      <c r="G37" s="63">
+        <v>0</v>
+      </c>
+      <c r="H37" s="63">
         <v>0</v>
       </c>
       <c r="I37" s="39"/>
@@ -3042,7 +3077,7 @@
       <c r="M37" s="34">
         <v>2000</v>
       </c>
-      <c r="N37" s="75"/>
+      <c r="N37" s="72"/>
       <c r="O37" s="34">
         <v>9500</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
@@ -3075,16 +3110,16 @@
       <c r="D38" s="43">
         <v>96</v>
       </c>
-      <c r="E38" s="63">
-        <v>0</v>
-      </c>
-      <c r="F38" s="63">
-        <v>0</v>
-      </c>
-      <c r="G38" s="63">
-        <v>0</v>
-      </c>
-      <c r="H38" s="63">
+      <c r="E38" s="60">
+        <v>0</v>
+      </c>
+      <c r="F38" s="60">
+        <v>0</v>
+      </c>
+      <c r="G38" s="60">
+        <v>0</v>
+      </c>
+      <c r="H38" s="60">
         <v>0</v>
       </c>
       <c r="I38" s="42"/>
@@ -3098,7 +3133,7 @@
       <c r="M38" s="28">
         <v>1500</v>
       </c>
-      <c r="N38" s="73"/>
+      <c r="N38" s="70"/>
       <c r="O38" s="28">
         <v>12000</v>
       </c>
@@ -3118,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -3131,16 +3166,16 @@
       <c r="D39" s="45">
         <v>96</v>
       </c>
-      <c r="E39" s="64">
-        <v>0</v>
-      </c>
-      <c r="F39" s="64">
-        <v>0</v>
-      </c>
-      <c r="G39" s="64">
-        <v>0</v>
-      </c>
-      <c r="H39" s="64">
+      <c r="E39" s="61">
+        <v>0</v>
+      </c>
+      <c r="F39" s="61">
+        <v>0</v>
+      </c>
+      <c r="G39" s="61">
+        <v>0</v>
+      </c>
+      <c r="H39" s="61">
         <v>0</v>
       </c>
       <c r="I39" s="44"/>
@@ -3154,7 +3189,7 @@
       <c r="M39" s="29">
         <v>1500</v>
       </c>
-      <c r="N39" s="74"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="29">
         <v>3000</v>
       </c>
@@ -3170,24 +3205,24 @@
       <c r="S39" s="48"/>
       <c r="T39" s="48"/>
     </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D40" s="4"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="23"/>
-      <c r="N40" s="76"/>
+      <c r="N40" s="73"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D41"/>
       <c r="L41" s="10"/>
       <c r="N41" s="10"/>
@@ -3198,11 +3233,11 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T39"/>
+  <autoFilter ref="A2:T39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="S1:T1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B49D7F-01A2-43AB-8FEA-31352C3FA434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
@@ -196,9 +195,6 @@
     <t>8АТ-2710-00</t>
   </si>
   <si>
-    <t>ac_typ</t>
-  </si>
-  <si>
     <t>Тип ВС</t>
   </si>
   <si>
@@ -249,12 +245,15 @@
   </si>
   <si>
     <t>ppr_new</t>
+  </si>
+  <si>
+    <t>ac_type_mask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,8 +746,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -839,23 +838,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -891,23 +873,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1083,39 +1048,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="74" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" customWidth="1"/>
-    <col min="24" max="29" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="65" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="74" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" customWidth="1"/>
+    <col min="24" max="29" width="5.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>3</v>
@@ -1173,7 +1138,7 @@
       </c>
       <c r="T1" s="76"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1184,16 +1149,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>60</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>45</v>
@@ -1229,15 +1194,15 @@
         <v>53</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="35">
         <v>1</v>
@@ -1287,9 +1252,9 @@
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="35">
         <v>1</v>
@@ -1339,9 +1304,9 @@
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="35">
         <v>1</v>
@@ -1391,9 +1356,9 @@
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="35">
         <v>1</v>
@@ -1443,9 +1408,9 @@
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="35">
         <v>1</v>
@@ -1495,9 +1460,9 @@
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="35">
         <v>1</v>
@@ -1547,9 +1512,9 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="35">
         <v>2</v>
@@ -1599,9 +1564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="35">
         <v>2</v>
@@ -1651,9 +1616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="35">
         <v>2</v>
@@ -1703,9 +1668,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="35">
         <v>2</v>
@@ -1755,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -1807,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
@@ -1911,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1963,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -2071,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -2183,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -2237,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2289,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2339,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
@@ -2389,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
@@ -2443,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
@@ -2497,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
@@ -2553,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2609,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -2661,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -2717,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
@@ -2769,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
@@ -2825,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>39</v>
       </c>
@@ -2877,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
@@ -2933,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
@@ -2985,9 +2950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="39">
         <v>1</v>
@@ -3041,9 +3006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="39">
         <v>1</v>
@@ -3097,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
@@ -3153,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -3205,7 +3170,7 @@
       <c r="S39" s="48"/>
       <c r="T39" s="48"/>
     </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -3222,7 +3187,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D41"/>
       <c r="L41" s="10"/>
       <c r="N41" s="10"/>
@@ -3233,11 +3198,11 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T39"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="S1:T1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="35">
         <v>32</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="35">
         <v>64</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="35">
         <v>64</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="35">
         <v>64</v>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="35">
         <v>64</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D18" s="40">
         <v>96</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D21" s="36">
         <v>32</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D22" s="35">
         <v>64</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35">
         <v>32</v>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D24" s="41">
         <v>64</v>
@@ -2470,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D27" s="46">
         <v>96</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D28" s="49">
         <v>96</v>
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="29">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D29" s="35">
         <v>64</v>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$T$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$U$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>ac_type_mask</t>
+  </si>
+  <si>
+    <t>repair_number</t>
+  </si>
+  <si>
+    <t>Объем ремонта</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,20 +1073,21 @@
     <col min="8" max="8" width="15.81640625" style="65" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" style="74" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" customWidth="1"/>
-    <col min="24" max="29" width="5.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.54296875" customWidth="1"/>
+    <col min="25" max="30" width="5.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1110,35 +1117,38 @@
         <v>48</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="T1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="76"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U1" s="76"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1170,37 +1180,40 @@
         <v>50</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="O2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -1231,28 +1244,29 @@
       <c r="J3" s="35">
         <v>30</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35">
         <v>180</v>
       </c>
-      <c r="L3" s="26">
+      <c r="M3" s="26">
         <v>30000</v>
       </c>
-      <c r="M3" s="26">
+      <c r="N3" s="26">
         <v>4500</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="26"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="26">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R3" s="26">
+      <c r="S3" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S3" s="26"/>
       <c r="T3" s="26"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>60</v>
       </c>
@@ -1283,28 +1297,29 @@
       <c r="J4" s="35">
         <v>30</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35">
         <v>180</v>
       </c>
-      <c r="L4" s="26">
+      <c r="M4" s="26">
         <v>30000</v>
       </c>
-      <c r="M4" s="26">
+      <c r="N4" s="26">
         <v>4500</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="26"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="26"/>
-      <c r="Q4" s="26">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R4" s="26">
+      <c r="S4" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S4" s="26"/>
       <c r="T4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1335,28 +1350,29 @@
       <c r="J5" s="35">
         <v>30</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35">
         <v>180</v>
       </c>
-      <c r="L5" s="26">
+      <c r="M5" s="26">
         <v>30000</v>
       </c>
-      <c r="M5" s="26">
+      <c r="N5" s="26">
         <v>4500</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="26"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="26"/>
-      <c r="Q5" s="26">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S5" s="26"/>
       <c r="T5" s="26"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -1387,28 +1403,29 @@
       <c r="J6" s="35">
         <v>30</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="35"/>
+      <c r="L6" s="35">
         <v>180</v>
       </c>
-      <c r="L6" s="26">
+      <c r="M6" s="26">
         <v>30000</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="26">
         <v>4500</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="26"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="26"/>
-      <c r="Q6" s="26">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26">
         <v>17675645.609921526</v>
       </c>
-      <c r="R6" s="26">
+      <c r="S6" s="26">
         <v>27675645.609921526</v>
       </c>
-      <c r="S6" s="26"/>
       <c r="T6" s="26"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
@@ -1439,28 +1456,29 @@
       <c r="J7" s="35">
         <v>30</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <v>180</v>
       </c>
-      <c r="L7" s="26"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="26">
+      <c r="N7" s="26"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="26">
         <v>18000</v>
       </c>
-      <c r="P7" s="26">
+      <c r="Q7" s="26">
         <v>4500</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="R7" s="26">
         <v>19181769.476781182</v>
       </c>
-      <c r="R7" s="26">
+      <c r="S7" s="26">
         <v>137431124</v>
       </c>
-      <c r="S7" s="26"/>
       <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -1491,28 +1509,29 @@
       <c r="J8" s="35">
         <v>30</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <v>180</v>
       </c>
-      <c r="L8" s="26"/>
       <c r="M8" s="26"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="26">
+      <c r="N8" s="26"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="26">
         <v>18000</v>
       </c>
-      <c r="P8" s="26">
+      <c r="Q8" s="26">
         <v>4500</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="R8" s="26">
         <v>19181769.476781182</v>
       </c>
-      <c r="R8" s="26">
+      <c r="S8" s="26">
         <v>137431124</v>
       </c>
-      <c r="S8" s="26"/>
       <c r="T8" s="26"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
@@ -1539,32 +1558,33 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="35">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35">
         <v>151</v>
       </c>
-      <c r="L9" s="26">
+      <c r="M9" s="26">
         <v>12000</v>
       </c>
-      <c r="M9" s="26">
+      <c r="N9" s="26">
         <v>1500</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="26"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="26">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26">
         <v>9564665.3300000001</v>
       </c>
-      <c r="R9" s="26">
+      <c r="S9" s="26">
         <v>12564665.33</v>
       </c>
-      <c r="S9" s="26">
+      <c r="T9" s="26">
         <v>4500</v>
       </c>
-      <c r="T9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
@@ -1591,32 +1611,33 @@
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35">
+      <c r="K10" s="35"/>
+      <c r="L10" s="35">
         <v>151</v>
       </c>
-      <c r="L10" s="26">
+      <c r="M10" s="26">
         <v>12000</v>
       </c>
-      <c r="M10" s="26">
+      <c r="N10" s="26">
         <v>1500</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="26"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26">
         <v>9564665.3300000001</v>
       </c>
-      <c r="R10" s="26">
+      <c r="S10" s="26">
         <v>12564665.33</v>
       </c>
-      <c r="S10" s="26">
+      <c r="T10" s="26">
         <v>4500</v>
       </c>
-      <c r="T10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>69</v>
       </c>
@@ -1643,32 +1664,33 @@
       </c>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="35">
+      <c r="K11" s="35"/>
+      <c r="L11" s="35">
         <v>221</v>
       </c>
-      <c r="L11" s="26"/>
       <c r="M11" s="26"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="26">
+      <c r="N11" s="26"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="26">
         <v>7500</v>
       </c>
-      <c r="P11" s="26">
+      <c r="Q11" s="26">
         <v>1500</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="R11" s="26">
         <v>21328000</v>
       </c>
-      <c r="R11" s="26">
+      <c r="S11" s="26">
         <v>110000000</v>
       </c>
-      <c r="S11" s="26">
+      <c r="T11" s="26">
         <v>4500</v>
       </c>
-      <c r="T11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
@@ -1695,32 +1717,33 @@
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="35">
+      <c r="K12" s="35"/>
+      <c r="L12" s="35">
         <v>221</v>
       </c>
-      <c r="L12" s="26"/>
       <c r="M12" s="26"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="26">
+      <c r="N12" s="26"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="26">
         <v>7500</v>
       </c>
-      <c r="P12" s="26">
+      <c r="Q12" s="26">
         <v>1500</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="R12" s="26">
         <v>21328000</v>
       </c>
-      <c r="R12" s="26">
+      <c r="S12" s="26">
         <v>110000000</v>
       </c>
-      <c r="S12" s="26">
+      <c r="T12" s="26">
         <v>4500</v>
       </c>
-      <c r="T12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -1747,32 +1770,33 @@
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="35">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35">
         <v>141</v>
       </c>
-      <c r="L13" s="26">
+      <c r="M13" s="26">
         <v>15000</v>
       </c>
-      <c r="M13" s="26">
+      <c r="N13" s="26">
         <v>2000</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="26"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26">
         <v>6666666.6699999999</v>
       </c>
-      <c r="R13" s="26">
+      <c r="S13" s="26">
         <v>8666666.6699999999</v>
       </c>
-      <c r="S13" s="26">
+      <c r="T13" s="26">
         <v>7500</v>
       </c>
-      <c r="T13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1799,32 +1823,33 @@
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
-      <c r="K14" s="36">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
         <v>171</v>
       </c>
-      <c r="L14" s="30"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="30">
+      <c r="N14" s="30"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="30">
         <v>10000</v>
       </c>
-      <c r="P14" s="30">
+      <c r="Q14" s="30">
         <v>2000</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="R14" s="26">
         <v>7804256.7300000004</v>
       </c>
-      <c r="R14" s="30">
+      <c r="S14" s="30">
         <v>14069063</v>
       </c>
-      <c r="S14" s="30">
-        <v>0</v>
-      </c>
       <c r="T14" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
@@ -1851,32 +1876,33 @@
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="35">
+      <c r="K15" s="35"/>
+      <c r="L15" s="35">
         <v>111</v>
       </c>
-      <c r="L15" s="26"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="26">
+      <c r="N15" s="26"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="26">
         <v>12000</v>
       </c>
-      <c r="P15" s="26">
+      <c r="Q15" s="26">
         <v>1500</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="R15" s="26">
         <v>1577166.67</v>
       </c>
-      <c r="R15" s="26">
+      <c r="S15" s="26">
         <v>19970000</v>
       </c>
-      <c r="S15" s="26">
+      <c r="T15" s="26">
         <v>6000</v>
       </c>
-      <c r="T15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1903,32 +1929,33 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
-      <c r="K16" s="35">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35">
         <v>416</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="26">
+      <c r="M16" s="37"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="26">
         <v>12000</v>
       </c>
-      <c r="P16" s="26">
+      <c r="Q16" s="26">
         <v>4000</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="R16" s="38">
         <v>16180200</v>
       </c>
-      <c r="R16" s="26">
+      <c r="S16" s="26">
         <v>42203355</v>
       </c>
-      <c r="S16" s="26">
-        <v>0</v>
-      </c>
       <c r="T16" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
@@ -1955,32 +1982,33 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="35">
+      <c r="K17" s="35"/>
+      <c r="L17" s="35">
         <v>416</v>
       </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="26">
+      <c r="M17" s="37"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="26">
         <v>6000</v>
       </c>
-      <c r="P17" s="26">
+      <c r="Q17" s="26">
         <v>4000</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="R17" s="26">
         <v>15000000</v>
       </c>
-      <c r="R17" s="26">
+      <c r="S17" s="26">
         <v>38000000</v>
       </c>
-      <c r="S17" s="26">
-        <v>0</v>
-      </c>
       <c r="T17" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -2007,36 +2035,37 @@
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
-      <c r="K18" s="41">
+      <c r="K18" s="41"/>
+      <c r="L18" s="41">
         <v>120</v>
       </c>
-      <c r="L18" s="27">
+      <c r="M18" s="27">
         <v>7500</v>
       </c>
-      <c r="M18" s="27">
+      <c r="N18" s="27">
         <v>1500</v>
       </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="27">
+      <c r="O18" s="69"/>
+      <c r="P18" s="27">
         <v>6000</v>
       </c>
-      <c r="P18" s="27">
+      <c r="Q18" s="27">
         <v>1500</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="R18" s="41">
         <v>2120516.1768038473</v>
       </c>
-      <c r="R18" s="27">
+      <c r="S18" s="27">
         <v>8515093</v>
       </c>
-      <c r="S18" s="27">
-        <v>0</v>
-      </c>
       <c r="T18" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2063,36 +2092,37 @@
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
-      <c r="K19" s="42">
+      <c r="K19" s="42"/>
+      <c r="L19" s="42">
         <v>416</v>
       </c>
-      <c r="L19" s="28">
+      <c r="M19" s="28">
         <v>8000</v>
       </c>
-      <c r="M19" s="28">
+      <c r="N19" s="28">
         <v>2000</v>
       </c>
-      <c r="N19" s="70"/>
-      <c r="O19" s="28">
+      <c r="O19" s="70"/>
+      <c r="P19" s="28">
         <v>8000</v>
       </c>
-      <c r="P19" s="28">
+      <c r="Q19" s="28">
         <v>2000</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="R19" s="28">
         <v>1474602.1</v>
       </c>
-      <c r="R19" s="28">
+      <c r="S19" s="28">
         <v>5000000</v>
       </c>
-      <c r="S19" s="28">
-        <v>0</v>
-      </c>
       <c r="T19" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -2119,36 +2149,37 @@
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
-      <c r="K20" s="44">
+      <c r="K20" s="44"/>
+      <c r="L20" s="44">
         <v>90</v>
       </c>
-      <c r="L20" s="29">
+      <c r="M20" s="29">
         <v>10500</v>
       </c>
-      <c r="M20" s="29">
+      <c r="N20" s="29">
         <v>2000</v>
       </c>
-      <c r="N20" s="71"/>
-      <c r="O20" s="29">
+      <c r="O20" s="71"/>
+      <c r="P20" s="29">
         <v>6000</v>
       </c>
-      <c r="P20" s="29">
+      <c r="Q20" s="29">
         <v>2000</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="R20" s="44">
         <v>963499.54218044691</v>
       </c>
-      <c r="R20" s="29">
+      <c r="S20" s="29">
         <v>4949371.9000000004</v>
       </c>
-      <c r="S20" s="29">
-        <v>0</v>
-      </c>
       <c r="T20" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -2175,34 +2206,35 @@
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="36">
+      <c r="K21" s="36"/>
+      <c r="L21" s="36">
         <v>60</v>
       </c>
-      <c r="L21" s="30">
+      <c r="M21" s="30">
         <v>5000</v>
       </c>
-      <c r="M21" s="30">
+      <c r="N21" s="30">
         <v>1000</v>
       </c>
-      <c r="N21" s="68">
+      <c r="O21" s="68">
         <v>1500</v>
       </c>
-      <c r="O21" s="30"/>
       <c r="P21" s="30"/>
-      <c r="Q21" s="36">
+      <c r="Q21" s="30"/>
+      <c r="R21" s="36">
         <v>743937.70182970166</v>
       </c>
-      <c r="R21" s="30">
+      <c r="S21" s="30">
         <v>6529330</v>
       </c>
-      <c r="S21" s="30">
-        <v>0</v>
-      </c>
       <c r="T21" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2229,32 +2261,33 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="35">
+      <c r="K22" s="35"/>
+      <c r="L22" s="35">
         <v>60</v>
       </c>
-      <c r="L22" s="26"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="26">
+      <c r="N22" s="26"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="26">
         <v>5000</v>
       </c>
-      <c r="P22" s="26">
+      <c r="Q22" s="26">
         <v>1000</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="R22" s="35">
         <v>743937.70182970166</v>
       </c>
-      <c r="R22" s="30">
+      <c r="S22" s="30">
         <v>6529330</v>
       </c>
-      <c r="S22" s="30">
-        <v>0</v>
-      </c>
       <c r="T22" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2282,29 +2315,30 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="30">
+      <c r="L23" s="35"/>
+      <c r="M23" s="30">
         <v>2000</v>
       </c>
-      <c r="M23" s="26">
+      <c r="N23" s="26">
         <v>2000</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="30"/>
+      <c r="O23" s="37"/>
       <c r="P23" s="30"/>
-      <c r="Q23" s="26">
-        <v>0</v>
-      </c>
-      <c r="R23" s="30">
+      <c r="Q23" s="30"/>
+      <c r="R23" s="26">
+        <v>0</v>
+      </c>
+      <c r="S23" s="30">
         <v>3375350.0000000005</v>
       </c>
-      <c r="S23" s="30">
-        <v>0</v>
-      </c>
       <c r="T23" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
@@ -2332,29 +2366,30 @@
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="27"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="27">
-        <v>3000</v>
-      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="27">
         <v>3000</v>
       </c>
       <c r="Q24" s="27">
-        <v>0</v>
-      </c>
-      <c r="R24" s="34">
+        <v>3000</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0</v>
+      </c>
+      <c r="S24" s="34">
         <v>3375350.0000000005</v>
       </c>
-      <c r="S24" s="34">
-        <v>0</v>
-      </c>
       <c r="T24" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U24" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
@@ -2382,33 +2417,34 @@
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="28">
-        <v>2000</v>
-      </c>
+      <c r="L25" s="42"/>
       <c r="M25" s="28">
         <v>2000</v>
       </c>
-      <c r="N25" s="70"/>
-      <c r="O25" s="28">
+      <c r="N25" s="28">
         <v>2000</v>
       </c>
+      <c r="O25" s="70"/>
       <c r="P25" s="28">
         <v>2000</v>
       </c>
       <c r="Q25" s="28">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="R25" s="28">
+        <v>0</v>
+      </c>
+      <c r="S25" s="28">
         <v>10074019</v>
       </c>
-      <c r="S25" s="28">
-        <v>0</v>
-      </c>
       <c r="T25" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
@@ -2436,33 +2472,34 @@
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
-      <c r="L26" s="29">
-        <v>2000</v>
-      </c>
+      <c r="L26" s="44"/>
       <c r="M26" s="29">
         <v>2000</v>
       </c>
-      <c r="N26" s="71"/>
-      <c r="O26" s="29">
+      <c r="N26" s="29">
         <v>2000</v>
       </c>
+      <c r="O26" s="71"/>
       <c r="P26" s="29">
         <v>2000</v>
       </c>
       <c r="Q26" s="29">
-        <v>0</v>
-      </c>
-      <c r="R26" s="47">
+        <v>2000</v>
+      </c>
+      <c r="R26" s="29">
+        <v>0</v>
+      </c>
+      <c r="S26" s="47">
         <v>10074019</v>
       </c>
-      <c r="S26" s="48">
-        <v>0</v>
-      </c>
       <c r="T26" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
@@ -2489,36 +2526,37 @@
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="36">
+      <c r="K27" s="36"/>
+      <c r="L27" s="36">
         <v>90</v>
       </c>
-      <c r="L27" s="30">
+      <c r="M27" s="30">
         <v>9000</v>
       </c>
-      <c r="M27" s="30">
+      <c r="N27" s="30">
         <v>1500</v>
       </c>
-      <c r="N27" s="68"/>
-      <c r="O27" s="30">
+      <c r="O27" s="68"/>
+      <c r="P27" s="30">
         <v>9000</v>
       </c>
-      <c r="P27" s="30">
+      <c r="Q27" s="30">
         <v>1500</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="R27" s="36">
         <v>411287.19456192118</v>
       </c>
-      <c r="R27" s="30">
+      <c r="S27" s="30">
         <v>2909350</v>
       </c>
-      <c r="S27" s="30">
-        <v>0</v>
-      </c>
       <c r="T27" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2545,36 +2583,37 @@
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
-      <c r="K28" s="35">
+      <c r="K28" s="35"/>
+      <c r="L28" s="35">
         <v>90</v>
       </c>
-      <c r="L28" s="26">
+      <c r="M28" s="26">
         <v>9000</v>
       </c>
-      <c r="M28" s="26">
+      <c r="N28" s="26">
         <v>1500</v>
       </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="26">
+      <c r="O28" s="37"/>
+      <c r="P28" s="26">
         <v>9000</v>
       </c>
-      <c r="P28" s="26">
+      <c r="Q28" s="26">
         <v>1500</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="R28" s="35">
         <v>418193.87600668642</v>
       </c>
-      <c r="R28" s="26">
+      <c r="S28" s="26">
         <v>2909350</v>
       </c>
-      <c r="S28" s="26">
-        <v>0</v>
-      </c>
       <c r="T28" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -2601,32 +2640,33 @@
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
-      <c r="K29" s="41">
+      <c r="K29" s="41"/>
+      <c r="L29" s="41">
         <v>90</v>
       </c>
-      <c r="L29" s="27"/>
       <c r="M29" s="27"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="27">
+      <c r="N29" s="27"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="27">
         <v>6000</v>
       </c>
-      <c r="P29" s="27">
+      <c r="Q29" s="27">
         <v>1500</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="R29" s="35">
         <v>782258.53766308737</v>
       </c>
-      <c r="R29" s="26">
+      <c r="S29" s="26">
         <v>2909350</v>
       </c>
-      <c r="S29" s="27">
-        <v>0</v>
-      </c>
       <c r="T29" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U29" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -2653,36 +2693,37 @@
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
-      <c r="K30" s="42">
+      <c r="K30" s="42"/>
+      <c r="L30" s="42">
         <v>90</v>
       </c>
-      <c r="L30" s="28">
+      <c r="M30" s="28">
         <v>16000</v>
       </c>
-      <c r="M30" s="28">
+      <c r="N30" s="28">
         <v>4000</v>
       </c>
-      <c r="N30" s="70"/>
-      <c r="O30" s="28">
+      <c r="O30" s="70"/>
+      <c r="P30" s="28">
         <v>8000</v>
       </c>
-      <c r="P30" s="28">
+      <c r="Q30" s="28">
         <v>2000</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="R30" s="35">
         <v>346712.07397105638</v>
       </c>
-      <c r="R30" s="28">
+      <c r="S30" s="28">
         <v>2924166.6707000006</v>
       </c>
-      <c r="S30" s="28">
-        <v>0</v>
-      </c>
       <c r="T30" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
@@ -2709,32 +2750,33 @@
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
-      <c r="K31" s="50">
+      <c r="K31" s="50"/>
+      <c r="L31" s="50">
         <v>141</v>
       </c>
-      <c r="L31" s="27"/>
       <c r="M31" s="27"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="27">
+      <c r="N31" s="27"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="27">
         <v>12000</v>
       </c>
-      <c r="P31" s="27">
+      <c r="Q31" s="27">
         <v>3000</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="R31" s="27">
         <v>1144912.53</v>
       </c>
-      <c r="R31" s="27">
+      <c r="S31" s="27">
         <v>3596459.9000000004</v>
       </c>
-      <c r="S31" s="27">
-        <v>0</v>
-      </c>
       <c r="T31" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
@@ -2761,36 +2803,37 @@
       </c>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
-      <c r="K32" s="42">
+      <c r="K32" s="42"/>
+      <c r="L32" s="42">
         <v>90</v>
       </c>
-      <c r="L32" s="28">
+      <c r="M32" s="28">
         <v>16000</v>
       </c>
-      <c r="M32" s="28">
+      <c r="N32" s="28">
         <v>4000</v>
       </c>
-      <c r="N32" s="70"/>
-      <c r="O32" s="28">
+      <c r="O32" s="70"/>
+      <c r="P32" s="28">
         <v>8000</v>
       </c>
-      <c r="P32" s="28">
+      <c r="Q32" s="28">
         <v>2000</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="R32" s="42">
         <v>124219.53415625692</v>
       </c>
-      <c r="R32" s="28">
+      <c r="S32" s="28">
         <v>1776000</v>
       </c>
-      <c r="S32" s="28">
-        <v>0</v>
-      </c>
       <c r="T32" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>39</v>
       </c>
@@ -2817,32 +2860,33 @@
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
-      <c r="K33" s="51">
+      <c r="K33" s="51"/>
+      <c r="L33" s="51">
         <v>141</v>
       </c>
-      <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="29">
+      <c r="N33" s="29"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="29">
         <v>12000</v>
       </c>
-      <c r="P33" s="29">
+      <c r="Q33" s="29">
         <v>3000</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="R33" s="29">
         <v>823131.99</v>
       </c>
-      <c r="R33" s="29">
+      <c r="S33" s="29">
         <v>2609718.3200000003</v>
       </c>
-      <c r="S33" s="29">
-        <v>0</v>
-      </c>
       <c r="T33" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
@@ -2869,36 +2913,37 @@
       </c>
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
-      <c r="K34" s="46">
+      <c r="K34" s="46"/>
+      <c r="L34" s="46">
         <v>141</v>
       </c>
-      <c r="L34" s="30">
+      <c r="M34" s="30">
         <v>16000</v>
       </c>
-      <c r="M34" s="30">
+      <c r="N34" s="30">
         <v>4000</v>
       </c>
-      <c r="N34" s="68"/>
-      <c r="O34" s="30">
+      <c r="O34" s="68"/>
+      <c r="P34" s="30">
         <v>8000</v>
       </c>
-      <c r="P34" s="30">
+      <c r="Q34" s="30">
         <v>2000</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="R34" s="36">
         <v>183449.94994008305</v>
       </c>
-      <c r="R34" s="30">
+      <c r="S34" s="30">
         <v>2319166.6707000006</v>
       </c>
-      <c r="S34" s="30">
-        <v>0</v>
-      </c>
       <c r="T34" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U34" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
@@ -2925,32 +2970,33 @@
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
-      <c r="K35" s="44">
+      <c r="K35" s="44"/>
+      <c r="L35" s="44">
         <v>120</v>
       </c>
-      <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="29">
+      <c r="N35" s="29"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="29">
         <v>12000</v>
       </c>
-      <c r="P35" s="29">
+      <c r="Q35" s="29">
         <v>3000</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="R35" s="29">
         <v>1379980.37</v>
       </c>
-      <c r="R35" s="29">
+      <c r="S35" s="29">
         <v>3114824.35</v>
       </c>
-      <c r="S35" s="29">
-        <v>0</v>
-      </c>
       <c r="T35" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>70</v>
       </c>
@@ -2977,36 +3023,37 @@
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="39">
+      <c r="K36" s="39"/>
+      <c r="L36" s="39">
         <v>90</v>
       </c>
-      <c r="L36" s="34">
+      <c r="M36" s="34">
         <v>9500</v>
       </c>
-      <c r="M36" s="34">
+      <c r="N36" s="34">
         <v>2000</v>
       </c>
-      <c r="N36" s="72"/>
-      <c r="O36" s="34">
+      <c r="O36" s="72"/>
+      <c r="P36" s="34">
         <v>9500</v>
       </c>
-      <c r="P36" s="34">
+      <c r="Q36" s="34">
         <v>2000</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="R36" s="39">
         <v>135788.59716344613</v>
       </c>
-      <c r="R36" s="34">
+      <c r="S36" s="34">
         <v>2800000</v>
       </c>
-      <c r="S36" s="34">
-        <v>0</v>
-      </c>
       <c r="T36" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U36" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>71</v>
       </c>
@@ -3033,36 +3080,37 @@
       </c>
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="39">
+      <c r="K37" s="39"/>
+      <c r="L37" s="39">
         <v>90</v>
       </c>
-      <c r="L37" s="34">
+      <c r="M37" s="34">
         <v>9500</v>
       </c>
-      <c r="M37" s="34">
+      <c r="N37" s="34">
         <v>2000</v>
       </c>
-      <c r="N37" s="72"/>
-      <c r="O37" s="34">
+      <c r="O37" s="72"/>
+      <c r="P37" s="34">
         <v>9500</v>
       </c>
-      <c r="P37" s="34">
+      <c r="Q37" s="34">
         <v>2000</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="R37" s="39">
         <v>135788.59716344613</v>
       </c>
-      <c r="R37" s="34">
+      <c r="S37" s="34">
         <v>2800000</v>
       </c>
-      <c r="S37" s="34">
-        <v>0</v>
-      </c>
       <c r="T37" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U37" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
@@ -3089,36 +3137,37 @@
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
-      <c r="K38" s="42">
+      <c r="K38" s="42"/>
+      <c r="L38" s="42">
         <v>60</v>
       </c>
-      <c r="L38" s="28">
+      <c r="M38" s="28">
         <v>12000</v>
       </c>
-      <c r="M38" s="28">
+      <c r="N38" s="28">
         <v>1500</v>
       </c>
-      <c r="N38" s="70"/>
-      <c r="O38" s="28">
+      <c r="O38" s="70"/>
+      <c r="P38" s="28">
         <v>12000</v>
       </c>
-      <c r="P38" s="28">
+      <c r="Q38" s="28">
         <v>1500</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="R38" s="42">
         <v>263072.79652163608</v>
       </c>
-      <c r="R38" s="28">
+      <c r="S38" s="28">
         <v>273606.30000000005</v>
       </c>
-      <c r="S38" s="28">
-        <v>0</v>
-      </c>
       <c r="T38" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -3145,32 +3194,33 @@
       </c>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
-      <c r="K39" s="44">
+      <c r="K39" s="44"/>
+      <c r="L39" s="44">
         <v>60</v>
       </c>
-      <c r="L39" s="29">
+      <c r="M39" s="29">
         <v>3000</v>
       </c>
-      <c r="M39" s="29">
+      <c r="N39" s="29">
         <v>1500</v>
       </c>
-      <c r="N39" s="71"/>
-      <c r="O39" s="29">
+      <c r="O39" s="71"/>
+      <c r="P39" s="29">
         <v>3000</v>
       </c>
-      <c r="P39" s="29">
+      <c r="Q39" s="29">
         <v>1500</v>
       </c>
-      <c r="Q39" s="44">
+      <c r="R39" s="44">
         <v>263072.79652163608</v>
       </c>
-      <c r="R39" s="48">
+      <c r="S39" s="48">
         <v>273606.30000000005</v>
       </c>
-      <c r="S39" s="48"/>
       <c r="T39" s="48"/>
-    </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="U39" s="48"/>
+    </row>
+    <row r="40" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -3179,33 +3229,34 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="23"/>
-      <c r="N40" s="73"/>
-      <c r="P40" s="23"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="23"/>
+      <c r="O40" s="73"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="25"/>
+      <c r="S40" s="23"/>
       <c r="T40" s="25"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U40" s="25"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D41"/>
-      <c r="L41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U41" s="10"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T39"/>
+  <autoFilter ref="A2:U39"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,7 +1244,9 @@
       <c r="J3" s="35">
         <v>30</v>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="35">
+        <v>18</v>
+      </c>
       <c r="L3" s="35">
         <v>180</v>
       </c>
@@ -1297,7 +1299,9 @@
       <c r="J4" s="35">
         <v>30</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="35">
+        <v>18</v>
+      </c>
       <c r="L4" s="35">
         <v>180</v>
       </c>
@@ -1350,7 +1354,9 @@
       <c r="J5" s="35">
         <v>30</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="35">
+        <v>18</v>
+      </c>
       <c r="L5" s="35">
         <v>180</v>
       </c>
@@ -1403,7 +1409,9 @@
       <c r="J6" s="35">
         <v>30</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="35">
+        <v>18</v>
+      </c>
       <c r="L6" s="35">
         <v>180</v>
       </c>
@@ -1456,7 +1464,9 @@
       <c r="J7" s="35">
         <v>30</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="35">
+        <v>18</v>
+      </c>
       <c r="L7" s="35">
         <v>180</v>
       </c>
@@ -1509,7 +1519,9 @@
       <c r="J8" s="35">
         <v>30</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="35">
+        <v>18</v>
+      </c>
       <c r="L8" s="35">
         <v>180</v>
       </c>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70430E3D-8875-4EBA-A7D7-83A8FB5A4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$U$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$V$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -254,12 +266,147 @@
   </si>
   <si>
     <t>Объем ремонта</t>
+  </si>
+  <si>
+    <t>8А-4101-00Б-1</t>
+  </si>
+  <si>
+    <t>8А-4101-00Б-2</t>
+  </si>
+  <si>
+    <t>АМОРТИЗАТОР ОСНОВНОГО ШАССИ</t>
+  </si>
+  <si>
+    <t>8А-4201-00А</t>
+  </si>
+  <si>
+    <t>8А-5104-200</t>
+  </si>
+  <si>
+    <t>РЫЧАЖНАЯ АМОРТСТОЙКА ПЕРЕДНЕГО ШАССИ</t>
+  </si>
+  <si>
+    <t>ЗАБУСТЕРНАЯ ЧАСТЬ УПР. НВ МИ-8Т,П,ПС</t>
+  </si>
+  <si>
+    <t>8АТ-1250-00</t>
+  </si>
+  <si>
+    <t>ГАСИТЕЛЬ ВИБРАЦИИ (опциональное оборудование)</t>
+  </si>
+  <si>
+    <t>8АТ-5104-305</t>
+  </si>
+  <si>
+    <t>КРОНШТЕЙН В СБОРЕ</t>
+  </si>
+  <si>
+    <t>8АТ-9600-700</t>
+  </si>
+  <si>
+    <t>НАРУЖНАЯ ПОДВЕСКА (опциональное оборудование)</t>
+  </si>
+  <si>
+    <t>8МТ-1280-100</t>
+  </si>
+  <si>
+    <t>АГБ-3К-3С</t>
+  </si>
+  <si>
+    <t>АВИАГОРИЗОНТ</t>
+  </si>
+  <si>
+    <t>АГБ-96Д 6Ш2.511.018-02</t>
+  </si>
+  <si>
+    <t>АГБ-96Д-С 6Ш2.511.018-22</t>
+  </si>
+  <si>
+    <t>АГБ-96Р 6Ш2.511.018</t>
+  </si>
+  <si>
+    <t>АГБ-96Р-С 6Ш2.511.018-13</t>
+  </si>
+  <si>
+    <t>АГБ-96Р-С 6Ш2.511.018-21</t>
+  </si>
+  <si>
+    <t>АК-50Т1 СЕРИЯ 3 14-950-390-01</t>
+  </si>
+  <si>
+    <t>КОМПРЕССОР</t>
+  </si>
+  <si>
+    <t>АРМ-406П ЦДКТ.462524.406-02</t>
+  </si>
+  <si>
+    <t>АРМ-406П ЦДКТ.462524.406</t>
+  </si>
+  <si>
+    <t>АВАРИЙНЫЙ РАДИОМАЯК</t>
+  </si>
+  <si>
+    <t>НР-40ВА 3102</t>
+  </si>
+  <si>
+    <t>НАСОС-РЕГУЛЯТОР</t>
+  </si>
+  <si>
+    <t>НАСОС-РЕГУЛЯТОР (двигатель ТВ2-117)</t>
+  </si>
+  <si>
+    <t>8АМТ.9611.000.903 (АМТ)</t>
+  </si>
+  <si>
+    <t>ПОДВЕСКА С ВЕСОИЗМЕРИТЕЛЕМ</t>
+  </si>
+  <si>
+    <t>8АТ-5104-405</t>
+  </si>
+  <si>
+    <t>КРОНШТЕЙН</t>
+  </si>
+  <si>
+    <t>8АМТ-5104-200-3-Д</t>
+  </si>
+  <si>
+    <t>8АМТ-5104-200-Д</t>
+  </si>
+  <si>
+    <t>ДЕТАЛИ ЗАБУСТЕРНОЙ ЧАСТИ УПРАВЛЕНИЯ</t>
+  </si>
+  <si>
+    <t>СВ-78БА 0780859090-06</t>
+  </si>
+  <si>
+    <t>СВ-78БА 0780859090-05</t>
+  </si>
+  <si>
+    <t>СТАРТЕР ВОЗДУШНЫЙ</t>
+  </si>
+  <si>
+    <t>НР-3ВМ 3184.000</t>
+  </si>
+  <si>
+    <t>НР-3ВМ-Т 3184.000-03</t>
+  </si>
+  <si>
+    <t>8МТ-5104-200</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Два лимита</t>
+  </si>
+  <si>
+    <t>second_ll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +496,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -516,13 +669,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -531,9 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,9 +740,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -576,9 +764,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -588,15 +773,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,9 +890,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,8 +914,36 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -749,11 +953,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -769,9 +979,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -809,9 +1019,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,7 +1056,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,7 +1091,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1054,2221 +1264,3895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="65" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="65" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.54296875" customWidth="1"/>
-    <col min="25" max="30" width="5.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="59" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="59" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" customWidth="1"/>
+    <col min="26" max="31" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="U1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="76"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="V1" s="80"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="P2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="35">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35">
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30">
         <v>32</v>
       </c>
-      <c r="E3" s="54">
-        <v>0</v>
-      </c>
-      <c r="F3" s="54">
-        <v>0</v>
-      </c>
-      <c r="G3" s="54">
-        <v>0</v>
-      </c>
-      <c r="H3" s="54">
-        <v>0</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="E3" s="49">
+        <v>0</v>
+      </c>
+      <c r="F3" s="49">
+        <v>0</v>
+      </c>
+      <c r="G3" s="49">
+        <v>0</v>
+      </c>
+      <c r="H3" s="49">
+        <v>0</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="30">
         <v>7</v>
       </c>
-      <c r="J3" s="35">
+      <c r="K3" s="30">
         <v>30</v>
       </c>
-      <c r="K3" s="35">
+      <c r="L3" s="30">
         <v>18</v>
       </c>
-      <c r="L3" s="35">
+      <c r="M3" s="30">
         <v>180</v>
       </c>
-      <c r="M3" s="26">
+      <c r="N3" s="21">
         <v>30000</v>
       </c>
-      <c r="N3" s="26">
+      <c r="O3" s="21">
         <v>4500</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21">
         <v>17675645.609921526</v>
       </c>
-      <c r="S3" s="26">
+      <c r="T3" s="21">
         <v>27675645.609921526</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="35">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="35">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
         <v>32</v>
       </c>
-      <c r="E4" s="54">
-        <v>0</v>
-      </c>
-      <c r="F4" s="54">
-        <v>0</v>
-      </c>
-      <c r="G4" s="54">
-        <v>0</v>
-      </c>
-      <c r="H4" s="54">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="30">
         <v>7</v>
       </c>
-      <c r="J4" s="35">
+      <c r="K4" s="30">
         <v>30</v>
       </c>
-      <c r="K4" s="35">
+      <c r="L4" s="30">
         <v>18</v>
       </c>
-      <c r="L4" s="35">
+      <c r="M4" s="30">
         <v>180</v>
       </c>
-      <c r="M4" s="26">
+      <c r="N4" s="21">
         <v>30000</v>
       </c>
-      <c r="N4" s="26">
+      <c r="O4" s="21">
         <v>4500</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="P4" s="32"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21">
         <v>17675645.609921526</v>
       </c>
-      <c r="S4" s="26">
+      <c r="T4" s="21">
         <v>27675645.609921526</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="35">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35">
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
         <v>32</v>
       </c>
-      <c r="E5" s="54">
-        <v>0</v>
-      </c>
-      <c r="F5" s="54">
-        <v>0</v>
-      </c>
-      <c r="G5" s="54">
-        <v>0</v>
-      </c>
-      <c r="H5" s="54">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="30">
         <v>7</v>
       </c>
-      <c r="J5" s="35">
+      <c r="K5" s="30">
         <v>30</v>
       </c>
-      <c r="K5" s="35">
+      <c r="L5" s="30">
         <v>18</v>
       </c>
-      <c r="L5" s="35">
+      <c r="M5" s="30">
         <v>180</v>
       </c>
-      <c r="M5" s="26">
+      <c r="N5" s="21">
         <v>30000</v>
       </c>
-      <c r="N5" s="26">
+      <c r="O5" s="21">
         <v>4500</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21">
         <v>17675645.609921526</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="21">
         <v>27675645.609921526</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="35">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
         <v>32</v>
       </c>
-      <c r="E6" s="54">
-        <v>0</v>
-      </c>
-      <c r="F6" s="54">
-        <v>0</v>
-      </c>
-      <c r="G6" s="54">
-        <v>0</v>
-      </c>
-      <c r="H6" s="54">
-        <v>0</v>
-      </c>
-      <c r="I6" s="35">
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="30">
         <v>7</v>
       </c>
-      <c r="J6" s="35">
+      <c r="K6" s="30">
         <v>30</v>
       </c>
-      <c r="K6" s="35">
+      <c r="L6" s="30">
         <v>18</v>
       </c>
-      <c r="L6" s="35">
+      <c r="M6" s="30">
         <v>180</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="21">
         <v>30000</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="21">
         <v>4500</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26">
+      <c r="P6" s="32"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21">
         <v>17675645.609921526</v>
       </c>
-      <c r="S6" s="26">
+      <c r="T6" s="21">
         <v>27675645.609921526</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="35">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
         <v>2</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="30">
         <v>64</v>
       </c>
-      <c r="E7" s="54">
-        <v>0</v>
-      </c>
-      <c r="F7" s="54">
-        <v>0</v>
-      </c>
-      <c r="G7" s="54">
-        <v>0</v>
-      </c>
-      <c r="H7" s="54">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="30">
         <v>7</v>
       </c>
-      <c r="J7" s="35">
+      <c r="K7" s="30">
         <v>30</v>
       </c>
-      <c r="K7" s="35">
+      <c r="L7" s="30">
         <v>18</v>
       </c>
-      <c r="L7" s="35">
+      <c r="M7" s="30">
         <v>180</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="26">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="21">
         <v>18000</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="R7" s="21">
         <v>4500</v>
       </c>
-      <c r="R7" s="26">
+      <c r="S7" s="21">
         <v>19181769.476781182</v>
       </c>
-      <c r="S7" s="26">
+      <c r="T7" s="21">
         <v>137431124</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="35">
-        <v>1</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="30">
         <v>64</v>
       </c>
-      <c r="E8" s="54">
-        <v>0</v>
-      </c>
-      <c r="F8" s="54">
-        <v>0</v>
-      </c>
-      <c r="G8" s="54">
-        <v>0</v>
-      </c>
-      <c r="H8" s="54">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="E8" s="49">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="30">
         <v>7</v>
       </c>
-      <c r="J8" s="35">
+      <c r="K8" s="30">
         <v>30</v>
       </c>
-      <c r="K8" s="35">
+      <c r="L8" s="30">
         <v>18</v>
       </c>
-      <c r="L8" s="35">
+      <c r="M8" s="30">
         <v>180</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="26">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="21">
         <v>18000</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="R8" s="21">
         <v>4500</v>
       </c>
-      <c r="R8" s="26">
+      <c r="S8" s="21">
         <v>19181769.476781182</v>
       </c>
-      <c r="S8" s="26">
+      <c r="T8" s="21">
         <v>137431124</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="30">
         <v>32</v>
       </c>
-      <c r="E9" s="54">
-        <v>0</v>
-      </c>
-      <c r="F9" s="54">
-        <v>0</v>
-      </c>
-      <c r="G9" s="54">
-        <v>0</v>
-      </c>
-      <c r="H9" s="54">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35">
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30">
         <v>151</v>
       </c>
-      <c r="M9" s="26">
+      <c r="N9" s="21">
         <v>12000</v>
       </c>
-      <c r="N9" s="26">
+      <c r="O9" s="21">
         <v>1500</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21">
         <v>9564665.3300000001</v>
       </c>
-      <c r="S9" s="26">
+      <c r="T9" s="21">
         <v>12564665.33</v>
       </c>
-      <c r="T9" s="26">
+      <c r="U9" s="21">
         <v>4500</v>
       </c>
-      <c r="U9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="V9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <v>2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="21">
         <v>3</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="30">
         <v>32</v>
       </c>
-      <c r="E10" s="54">
-        <v>0</v>
-      </c>
-      <c r="F10" s="54">
-        <v>0</v>
-      </c>
-      <c r="G10" s="54">
-        <v>0</v>
-      </c>
-      <c r="H10" s="54">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35">
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30">
         <v>151</v>
       </c>
-      <c r="M10" s="26">
+      <c r="N10" s="21">
         <v>12000</v>
       </c>
-      <c r="N10" s="26">
+      <c r="O10" s="21">
         <v>1500</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26">
+      <c r="P10" s="32"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21">
         <v>9564665.3300000001</v>
       </c>
-      <c r="S10" s="26">
+      <c r="T10" s="21">
         <v>12564665.33</v>
       </c>
-      <c r="T10" s="26">
+      <c r="U10" s="21">
         <v>4500</v>
       </c>
-      <c r="U10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="V10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="30">
         <v>2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="21">
         <v>4</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="30">
         <v>64</v>
       </c>
-      <c r="E11" s="54">
-        <v>0</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0</v>
-      </c>
-      <c r="G11" s="54">
-        <v>0</v>
-      </c>
-      <c r="H11" s="54">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35">
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30">
         <v>221</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="26">
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="21">
         <v>7500</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="R11" s="21">
         <v>1500</v>
       </c>
-      <c r="R11" s="26">
+      <c r="S11" s="21">
         <v>21328000</v>
       </c>
-      <c r="S11" s="26">
+      <c r="T11" s="21">
         <v>110000000</v>
       </c>
-      <c r="T11" s="26">
+      <c r="U11" s="21">
         <v>4500</v>
       </c>
-      <c r="U11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="30">
         <v>2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="21">
         <v>4</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="30">
         <v>64</v>
       </c>
-      <c r="E12" s="54">
-        <v>0</v>
-      </c>
-      <c r="F12" s="54">
-        <v>0</v>
-      </c>
-      <c r="G12" s="54">
-        <v>0</v>
-      </c>
-      <c r="H12" s="54">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35">
+      <c r="E12" s="49">
+        <v>0</v>
+      </c>
+      <c r="F12" s="49">
+        <v>0</v>
+      </c>
+      <c r="G12" s="49">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <v>0</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30">
         <v>221</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="26">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="21">
         <v>7500</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="R12" s="21">
         <v>1500</v>
       </c>
-      <c r="R12" s="26">
+      <c r="S12" s="21">
         <v>21328000</v>
       </c>
-      <c r="S12" s="26">
+      <c r="T12" s="21">
         <v>110000000</v>
       </c>
-      <c r="T12" s="26">
+      <c r="U12" s="21">
         <v>4500</v>
       </c>
-      <c r="U12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="V12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
         <v>12</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="30">
         <v>32</v>
       </c>
-      <c r="E13" s="54">
-        <v>0</v>
-      </c>
-      <c r="F13" s="54">
-        <v>0</v>
-      </c>
-      <c r="G13" s="54">
-        <v>0</v>
-      </c>
-      <c r="H13" s="54">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35">
+      <c r="E13" s="49">
+        <v>0</v>
+      </c>
+      <c r="F13" s="49">
+        <v>0</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>0</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30">
         <v>141</v>
       </c>
-      <c r="M13" s="26">
+      <c r="N13" s="21">
         <v>15000</v>
       </c>
-      <c r="N13" s="26">
+      <c r="O13" s="21">
         <v>2000</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21">
         <v>6666666.6699999999</v>
       </c>
-      <c r="S13" s="26">
+      <c r="T13" s="21">
         <v>8666666.6699999999</v>
       </c>
-      <c r="T13" s="26">
+      <c r="U13" s="21">
         <v>7500</v>
       </c>
-      <c r="U13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="V13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
         <v>13</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="30">
         <v>64</v>
       </c>
-      <c r="E14" s="55">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="55">
-        <v>0</v>
-      </c>
-      <c r="H14" s="55">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36">
+      <c r="E14" s="50">
+        <v>0</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31">
         <v>171</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="30">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="25">
         <v>10000</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="R14" s="25">
         <v>2000</v>
       </c>
-      <c r="R14" s="26">
+      <c r="S14" s="21">
         <v>7804256.7300000004</v>
       </c>
-      <c r="S14" s="30">
+      <c r="T14" s="25">
         <v>14069063</v>
       </c>
-      <c r="T14" s="30">
-        <v>0</v>
-      </c>
-      <c r="U14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="U14" s="25">
+        <v>0</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="35">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" s="30">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
         <v>14</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="30">
         <v>64</v>
       </c>
-      <c r="E15" s="54">
-        <v>0</v>
-      </c>
-      <c r="F15" s="54">
-        <v>0</v>
-      </c>
-      <c r="G15" s="54">
-        <v>0</v>
-      </c>
-      <c r="H15" s="54">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35">
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="49">
+        <v>0</v>
+      </c>
+      <c r="G15" s="49">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <v>0</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30">
         <v>111</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="26">
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="21">
         <v>12000</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="R15" s="21">
         <v>1500</v>
       </c>
-      <c r="R15" s="26">
+      <c r="S15" s="21">
         <v>1577166.67</v>
       </c>
-      <c r="S15" s="26">
+      <c r="T15" s="21">
         <v>19970000</v>
       </c>
-      <c r="T15" s="26">
+      <c r="U15" s="21">
         <v>6000</v>
       </c>
-      <c r="U15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="V15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35">
-        <v>1</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="30">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
         <v>15</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="30">
         <v>64</v>
       </c>
-      <c r="E16" s="54">
-        <v>0</v>
-      </c>
-      <c r="F16" s="54">
-        <v>0</v>
-      </c>
-      <c r="G16" s="54">
-        <v>0</v>
-      </c>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35">
+      <c r="E16" s="49">
+        <v>0</v>
+      </c>
+      <c r="F16" s="49">
+        <v>0</v>
+      </c>
+      <c r="G16" s="49">
+        <v>0</v>
+      </c>
+      <c r="H16" s="49">
+        <v>0</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30">
         <v>416</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="26">
+      <c r="N16" s="32"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="21">
         <v>12000</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="R16" s="21">
         <v>4000</v>
       </c>
-      <c r="R16" s="38">
+      <c r="S16" s="33">
         <v>16180200</v>
       </c>
-      <c r="S16" s="26">
+      <c r="T16" s="21">
         <v>42203355</v>
       </c>
-      <c r="T16" s="26">
-        <v>0</v>
-      </c>
-      <c r="U16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="35">
-        <v>1</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
         <v>16</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="30">
         <v>64</v>
       </c>
-      <c r="E17" s="54">
-        <v>0</v>
-      </c>
-      <c r="F17" s="54">
-        <v>0</v>
-      </c>
-      <c r="G17" s="54">
-        <v>0</v>
-      </c>
-      <c r="H17" s="54">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35">
+      <c r="E17" s="49">
+        <v>0</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="49">
+        <v>0</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30">
         <v>416</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="26">
+      <c r="N17" s="32"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="21">
         <v>6000</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="R17" s="21">
         <v>4000</v>
       </c>
-      <c r="R17" s="26">
+      <c r="S17" s="21">
         <v>15000000</v>
       </c>
-      <c r="S17" s="26">
+      <c r="T17" s="21">
         <v>38000000</v>
       </c>
-      <c r="T17" s="26">
-        <v>0</v>
-      </c>
-      <c r="U17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="U17" s="21">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="39">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22">
         <v>17</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="35">
         <v>96</v>
       </c>
-      <c r="E18" s="56">
-        <v>1</v>
-      </c>
-      <c r="F18" s="59">
-        <v>0</v>
-      </c>
-      <c r="G18" s="59">
-        <v>0</v>
-      </c>
-      <c r="H18" s="59">
-        <v>0</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41">
+      <c r="E18" s="51">
+        <v>1</v>
+      </c>
+      <c r="F18" s="54">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36">
+        <v>9</v>
+      </c>
+      <c r="M18" s="36">
         <v>120</v>
       </c>
-      <c r="M18" s="27">
+      <c r="N18" s="22">
         <v>7500</v>
       </c>
-      <c r="N18" s="27">
+      <c r="O18" s="22">
         <v>1500</v>
       </c>
-      <c r="O18" s="69"/>
-      <c r="P18" s="27">
+      <c r="P18" s="63"/>
+      <c r="Q18" s="22">
         <v>6000</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="R18" s="22">
         <v>1500</v>
       </c>
-      <c r="R18" s="41">
+      <c r="S18" s="36">
         <v>2120516.1768038473</v>
       </c>
-      <c r="S18" s="27">
+      <c r="T18" s="22">
         <v>8515093</v>
       </c>
-      <c r="T18" s="27">
-        <v>0</v>
-      </c>
-      <c r="U18" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="U18" s="22">
+        <v>0</v>
+      </c>
+      <c r="V18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="42">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="B19" s="37">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23">
         <v>5</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="38">
         <v>96</v>
       </c>
-      <c r="E19" s="57">
-        <v>0</v>
-      </c>
-      <c r="F19" s="60">
-        <v>0</v>
-      </c>
-      <c r="G19" s="60">
-        <v>0</v>
-      </c>
-      <c r="H19" s="60">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42">
+      <c r="E19" s="52">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="37">
         <v>416</v>
       </c>
-      <c r="M19" s="28">
+      <c r="N19" s="23">
         <v>8000</v>
       </c>
-      <c r="N19" s="28">
+      <c r="O19" s="23">
         <v>2000</v>
       </c>
-      <c r="O19" s="70"/>
-      <c r="P19" s="28">
+      <c r="P19" s="64"/>
+      <c r="Q19" s="23">
         <v>8000</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="R19" s="23">
         <v>2000</v>
       </c>
-      <c r="R19" s="28">
+      <c r="S19" s="23">
         <v>1474602.1</v>
       </c>
-      <c r="S19" s="28">
+      <c r="T19" s="23">
         <v>5000000</v>
       </c>
-      <c r="T19" s="28">
-        <v>0</v>
-      </c>
-      <c r="U19" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="U19" s="23">
+        <v>0</v>
+      </c>
+      <c r="V19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="44">
-        <v>1</v>
-      </c>
-      <c r="C20" s="29">
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
         <v>5</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="40">
         <v>96</v>
       </c>
-      <c r="E20" s="58">
-        <v>1</v>
-      </c>
-      <c r="F20" s="61">
-        <v>0</v>
-      </c>
-      <c r="G20" s="61">
-        <v>0</v>
-      </c>
-      <c r="H20" s="61">
-        <v>0</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44">
+      <c r="E20" s="53">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+      <c r="G20" s="56">
+        <v>0</v>
+      </c>
+      <c r="H20" s="56">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39">
+        <v>9</v>
+      </c>
+      <c r="M20" s="39">
         <v>90</v>
       </c>
-      <c r="M20" s="29">
+      <c r="N20" s="24">
         <v>10500</v>
       </c>
-      <c r="N20" s="29">
+      <c r="O20" s="24">
         <v>2000</v>
       </c>
-      <c r="O20" s="71"/>
-      <c r="P20" s="29">
+      <c r="P20" s="65"/>
+      <c r="Q20" s="24">
         <v>6000</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="R20" s="24">
         <v>2000</v>
       </c>
-      <c r="R20" s="44">
+      <c r="S20" s="39">
         <v>963499.54218044691</v>
       </c>
-      <c r="S20" s="29">
+      <c r="T20" s="24">
         <v>4949371.9000000004</v>
       </c>
-      <c r="T20" s="29">
-        <v>0</v>
-      </c>
-      <c r="U20" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="U20" s="24">
+        <v>0</v>
+      </c>
+      <c r="V20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="36">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="31">
+        <v>1</v>
+      </c>
+      <c r="C21" s="25">
         <v>18</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="31">
         <v>32</v>
       </c>
-      <c r="E21" s="55">
-        <v>0</v>
-      </c>
-      <c r="F21" s="55">
-        <v>0</v>
-      </c>
-      <c r="G21" s="55">
-        <v>0</v>
-      </c>
-      <c r="H21" s="62">
-        <v>1</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36">
+      <c r="E21" s="50">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57">
+        <v>1</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="39">
+        <v>15</v>
+      </c>
+      <c r="M21" s="31">
         <v>60</v>
       </c>
-      <c r="M21" s="30">
+      <c r="N21" s="25">
         <v>5000</v>
       </c>
-      <c r="N21" s="30">
+      <c r="O21" s="25">
         <v>1000</v>
       </c>
-      <c r="O21" s="68">
+      <c r="P21" s="62">
         <v>1500</v>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="36">
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="31">
         <v>743937.70182970166</v>
       </c>
-      <c r="S21" s="30">
+      <c r="T21" s="25">
         <v>6529330</v>
       </c>
-      <c r="T21" s="30">
-        <v>0</v>
-      </c>
-      <c r="U21" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" ht="14.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="U21" s="25">
+        <v>0</v>
+      </c>
+      <c r="V21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="35">
-        <v>1</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="B22" s="30">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
         <v>19</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="30">
         <v>64</v>
       </c>
-      <c r="E22" s="54">
-        <v>0</v>
-      </c>
-      <c r="F22" s="54">
-        <v>0</v>
-      </c>
-      <c r="G22" s="54">
-        <v>0</v>
-      </c>
-      <c r="H22" s="54">
-        <v>0</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35">
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="49">
+        <v>0</v>
+      </c>
+      <c r="G22" s="49">
+        <v>0</v>
+      </c>
+      <c r="H22" s="49">
+        <v>0</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="39">
+        <v>15</v>
+      </c>
+      <c r="M22" s="30">
         <v>60</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="26">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="21">
         <v>5000</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="R22" s="21">
         <v>1000</v>
       </c>
-      <c r="R22" s="35">
+      <c r="S22" s="30">
         <v>743937.70182970166</v>
       </c>
-      <c r="S22" s="30">
+      <c r="T22" s="25">
         <v>6529330</v>
       </c>
-      <c r="T22" s="30">
-        <v>0</v>
-      </c>
-      <c r="U22" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="36">
-        <v>1</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="31">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
         <v>20</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="30">
         <v>32</v>
       </c>
-      <c r="E23" s="54">
-        <v>0</v>
-      </c>
-      <c r="F23" s="54">
-        <v>0</v>
-      </c>
-      <c r="G23" s="54">
-        <v>0</v>
-      </c>
-      <c r="H23" s="54">
-        <v>0</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="30">
+      <c r="E23" s="49">
+        <v>0</v>
+      </c>
+      <c r="F23" s="49">
+        <v>0</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="49">
+        <v>0</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="25">
         <v>2000</v>
       </c>
-      <c r="N23" s="26">
+      <c r="O23" s="21">
         <v>2000</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="26">
-        <v>0</v>
-      </c>
-      <c r="S23" s="30">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="25">
         <v>3375350.0000000005</v>
       </c>
-      <c r="T23" s="30">
-        <v>0</v>
-      </c>
-      <c r="U23" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="U23" s="25">
+        <v>0</v>
+      </c>
+      <c r="V23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="41">
-        <v>1</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="B24" s="36">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22">
         <v>21</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="36">
         <v>64</v>
       </c>
-      <c r="E24" s="59">
-        <v>0</v>
-      </c>
-      <c r="F24" s="59">
-        <v>0</v>
-      </c>
-      <c r="G24" s="59">
-        <v>0</v>
-      </c>
-      <c r="H24" s="59">
-        <v>0</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="27">
+      <c r="E24" s="54">
+        <v>0</v>
+      </c>
+      <c r="F24" s="54">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54">
+        <v>0</v>
+      </c>
+      <c r="H24" s="54">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="22">
         <v>3000</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="R24" s="22">
         <v>3000</v>
       </c>
-      <c r="R24" s="27">
-        <v>0</v>
-      </c>
-      <c r="S24" s="34">
+      <c r="S24" s="22">
+        <v>0</v>
+      </c>
+      <c r="T24" s="29">
         <v>3375350.0000000005</v>
       </c>
-      <c r="T24" s="34">
-        <v>0</v>
-      </c>
-      <c r="U24" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="U24" s="29">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="37">
         <v>5</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="26">
         <v>6</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="38">
         <v>96</v>
       </c>
-      <c r="E25" s="60">
-        <v>0</v>
-      </c>
-      <c r="F25" s="60">
-        <v>0</v>
-      </c>
-      <c r="G25" s="60">
-        <v>0</v>
-      </c>
-      <c r="H25" s="60">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="28">
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55">
+        <v>0</v>
+      </c>
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="23">
         <v>2000</v>
       </c>
-      <c r="N25" s="28">
+      <c r="O25" s="23">
         <v>2000</v>
       </c>
-      <c r="O25" s="70"/>
-      <c r="P25" s="28">
+      <c r="P25" s="64"/>
+      <c r="Q25" s="23">
         <v>2000</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="R25" s="23">
         <v>2000</v>
       </c>
-      <c r="R25" s="28">
-        <v>0</v>
-      </c>
-      <c r="S25" s="28">
+      <c r="S25" s="23">
+        <v>0</v>
+      </c>
+      <c r="T25" s="23">
         <v>10074019</v>
       </c>
-      <c r="T25" s="28">
-        <v>0</v>
-      </c>
-      <c r="U25" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="U25" s="23">
+        <v>0</v>
+      </c>
+      <c r="V25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="39">
         <v>5</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="27">
         <v>6</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="40">
         <v>96</v>
       </c>
-      <c r="E26" s="61">
-        <v>0</v>
-      </c>
-      <c r="F26" s="61">
-        <v>0</v>
-      </c>
-      <c r="G26" s="61">
-        <v>0</v>
-      </c>
-      <c r="H26" s="61">
-        <v>0</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="29">
+      <c r="E26" s="56">
+        <v>0</v>
+      </c>
+      <c r="F26" s="56">
+        <v>0</v>
+      </c>
+      <c r="G26" s="56">
+        <v>0</v>
+      </c>
+      <c r="H26" s="56">
+        <v>0</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="24">
         <v>2000</v>
       </c>
-      <c r="N26" s="29">
+      <c r="O26" s="24">
         <v>2000</v>
       </c>
-      <c r="O26" s="71"/>
-      <c r="P26" s="29">
+      <c r="P26" s="65"/>
+      <c r="Q26" s="24">
         <v>2000</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="R26" s="24">
         <v>2000</v>
       </c>
-      <c r="R26" s="29">
-        <v>0</v>
-      </c>
-      <c r="S26" s="47">
+      <c r="S26" s="24">
+        <v>0</v>
+      </c>
+      <c r="T26" s="42">
         <v>10074019</v>
       </c>
-      <c r="T26" s="48">
-        <v>0</v>
-      </c>
-      <c r="U26" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="U26" s="43">
+        <v>0</v>
+      </c>
+      <c r="V26" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="25">
         <v>22</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="41">
         <v>96</v>
       </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="55">
-        <v>0</v>
-      </c>
-      <c r="G27" s="55">
-        <v>0</v>
-      </c>
-      <c r="H27" s="55">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36">
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0</v>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="30">
+        <v>36</v>
+      </c>
+      <c r="M27" s="31">
         <v>90</v>
       </c>
-      <c r="M27" s="30">
+      <c r="N27" s="25">
         <v>9000</v>
       </c>
-      <c r="N27" s="30">
+      <c r="O27" s="25">
         <v>1500</v>
       </c>
-      <c r="O27" s="68"/>
-      <c r="P27" s="30">
+      <c r="P27" s="62"/>
+      <c r="Q27" s="25">
         <v>9000</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="R27" s="25">
         <v>1500</v>
       </c>
-      <c r="R27" s="36">
+      <c r="S27" s="31">
         <v>411287.19456192118</v>
       </c>
-      <c r="S27" s="30">
+      <c r="T27" s="25">
         <v>2909350</v>
       </c>
-      <c r="T27" s="30">
-        <v>0</v>
-      </c>
-      <c r="U27" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="U27" s="25">
+        <v>0</v>
+      </c>
+      <c r="V27" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="35">
-        <v>1</v>
-      </c>
-      <c r="C28" s="26">
+      <c r="B28" s="30">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21">
         <v>23</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="44">
         <v>96</v>
       </c>
-      <c r="E28" s="54">
-        <v>0</v>
-      </c>
-      <c r="F28" s="54">
-        <v>0</v>
-      </c>
-      <c r="G28" s="54">
-        <v>0</v>
-      </c>
-      <c r="H28" s="54">
-        <v>0</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35">
+      <c r="E28" s="49">
+        <v>0</v>
+      </c>
+      <c r="F28" s="49">
+        <v>0</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0</v>
+      </c>
+      <c r="H28" s="49">
+        <v>0</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30">
+        <v>36</v>
+      </c>
+      <c r="M28" s="30">
         <v>90</v>
       </c>
-      <c r="M28" s="26">
+      <c r="N28" s="21">
         <v>9000</v>
       </c>
-      <c r="N28" s="26">
+      <c r="O28" s="21">
         <v>1500</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="26">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="21">
         <v>9000</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="R28" s="21">
         <v>1500</v>
       </c>
-      <c r="R28" s="35">
+      <c r="S28" s="30">
         <v>418193.87600668642</v>
       </c>
-      <c r="S28" s="26">
+      <c r="T28" s="21">
         <v>2909350</v>
       </c>
-      <c r="T28" s="26">
-        <v>0</v>
-      </c>
-      <c r="U28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="U28" s="21">
+        <v>0</v>
+      </c>
+      <c r="V28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="36">
         <v>4</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="24">
         <v>24</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="30">
         <v>64</v>
       </c>
-      <c r="E29" s="59">
-        <v>0</v>
-      </c>
-      <c r="F29" s="59">
-        <v>0</v>
-      </c>
-      <c r="G29" s="59">
-        <v>0</v>
-      </c>
-      <c r="H29" s="59">
-        <v>0</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41">
+      <c r="E29" s="54">
+        <v>0</v>
+      </c>
+      <c r="F29" s="54">
+        <v>0</v>
+      </c>
+      <c r="G29" s="54">
+        <v>0</v>
+      </c>
+      <c r="H29" s="54">
+        <v>0</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="30">
+        <v>36</v>
+      </c>
+      <c r="M29" s="36">
         <v>90</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="27">
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="22">
         <v>6000</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="R29" s="22">
         <v>1500</v>
       </c>
-      <c r="R29" s="35">
+      <c r="S29" s="30">
         <v>782258.53766308737</v>
       </c>
-      <c r="S29" s="26">
+      <c r="T29" s="21">
         <v>2909350</v>
       </c>
-      <c r="T29" s="27">
-        <v>0</v>
-      </c>
-      <c r="U29" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="U29" s="22">
+        <v>0</v>
+      </c>
+      <c r="V29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="42">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30">
+      <c r="B30" s="37">
+        <v>1</v>
+      </c>
+      <c r="C30" s="25">
         <v>7</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="44">
         <v>96</v>
       </c>
-      <c r="E30" s="57">
-        <v>1</v>
-      </c>
-      <c r="F30" s="60">
-        <v>0</v>
-      </c>
-      <c r="G30" s="60">
-        <v>0</v>
-      </c>
-      <c r="H30" s="60">
-        <v>0</v>
-      </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42">
+      <c r="E30" s="52">
+        <v>1</v>
+      </c>
+      <c r="F30" s="55">
+        <v>0</v>
+      </c>
+      <c r="G30" s="55">
+        <v>0</v>
+      </c>
+      <c r="H30" s="55">
+        <v>0</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="30">
+        <v>7</v>
+      </c>
+      <c r="M30" s="37">
         <v>90</v>
       </c>
-      <c r="M30" s="28">
+      <c r="N30" s="23">
         <v>16000</v>
       </c>
-      <c r="N30" s="28">
+      <c r="O30" s="23">
         <v>4000</v>
       </c>
-      <c r="O30" s="70"/>
-      <c r="P30" s="28">
+      <c r="P30" s="64"/>
+      <c r="Q30" s="23">
         <v>8000</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="R30" s="23">
         <v>2000</v>
       </c>
-      <c r="R30" s="35">
+      <c r="S30" s="30">
         <v>346712.07397105638</v>
       </c>
-      <c r="S30" s="28">
+      <c r="T30" s="23">
         <v>2924166.6707000006</v>
       </c>
-      <c r="T30" s="28">
-        <v>0</v>
-      </c>
-      <c r="U30" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="U30" s="23">
+        <v>0</v>
+      </c>
+      <c r="V30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="41">
-        <v>1</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="B31" s="36">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22">
         <v>7</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="36">
         <v>64</v>
       </c>
-      <c r="E31" s="59">
-        <v>0</v>
-      </c>
-      <c r="F31" s="66">
-        <v>1</v>
-      </c>
-      <c r="G31" s="66">
-        <v>0</v>
-      </c>
-      <c r="H31" s="59">
-        <v>0</v>
-      </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50">
+      <c r="E31" s="54">
+        <v>0</v>
+      </c>
+      <c r="F31" s="60">
+        <v>1</v>
+      </c>
+      <c r="G31" s="60">
+        <v>0</v>
+      </c>
+      <c r="H31" s="54">
+        <v>0</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="45">
         <v>141</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="27">
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="22">
         <v>12000</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="R31" s="22">
         <v>3000</v>
       </c>
-      <c r="R31" s="27">
+      <c r="S31" s="22">
         <v>1144912.53</v>
       </c>
-      <c r="S31" s="27">
+      <c r="T31" s="22">
         <v>3596459.9000000004</v>
       </c>
-      <c r="T31" s="27">
-        <v>0</v>
-      </c>
-      <c r="U31" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="U31" s="22">
+        <v>0</v>
+      </c>
+      <c r="V31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="42">
-        <v>1</v>
-      </c>
-      <c r="C32" s="28">
+      <c r="B32" s="37">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23">
         <v>8</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="38">
         <v>96</v>
       </c>
-      <c r="E32" s="57">
-        <v>1</v>
-      </c>
-      <c r="F32" s="60">
-        <v>0</v>
-      </c>
-      <c r="G32" s="60">
-        <v>0</v>
-      </c>
-      <c r="H32" s="60">
-        <v>0</v>
-      </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42">
+      <c r="E32" s="52">
+        <v>1</v>
+      </c>
+      <c r="F32" s="55">
+        <v>0</v>
+      </c>
+      <c r="G32" s="55">
+        <v>0</v>
+      </c>
+      <c r="H32" s="55">
+        <v>0</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="30">
+        <v>7</v>
+      </c>
+      <c r="M32" s="37">
         <v>90</v>
       </c>
-      <c r="M32" s="28">
+      <c r="N32" s="23">
         <v>16000</v>
       </c>
-      <c r="N32" s="28">
+      <c r="O32" s="23">
         <v>4000</v>
       </c>
-      <c r="O32" s="70"/>
-      <c r="P32" s="28">
+      <c r="P32" s="64"/>
+      <c r="Q32" s="23">
         <v>8000</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="R32" s="23">
         <v>2000</v>
       </c>
-      <c r="R32" s="42">
+      <c r="S32" s="37">
         <v>124219.53415625692</v>
       </c>
-      <c r="S32" s="28">
+      <c r="T32" s="23">
         <v>1776000</v>
       </c>
-      <c r="T32" s="28">
-        <v>0</v>
-      </c>
-      <c r="U32" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="U32" s="23">
+        <v>0</v>
+      </c>
+      <c r="V32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="44">
-        <v>1</v>
-      </c>
-      <c r="C33" s="29">
+      <c r="B33" s="39">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24">
         <v>8</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="39">
         <v>64</v>
       </c>
-      <c r="E33" s="61">
-        <v>0</v>
-      </c>
-      <c r="F33" s="67">
-        <v>1</v>
-      </c>
-      <c r="G33" s="67">
-        <v>0</v>
-      </c>
-      <c r="H33" s="61">
-        <v>0</v>
-      </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51">
+      <c r="E33" s="56">
+        <v>0</v>
+      </c>
+      <c r="F33" s="61">
+        <v>1</v>
+      </c>
+      <c r="G33" s="61">
+        <v>0</v>
+      </c>
+      <c r="H33" s="56">
+        <v>0</v>
+      </c>
+      <c r="I33" s="82"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="46">
         <v>141</v>
       </c>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="29">
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="24">
         <v>12000</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="R33" s="24">
         <v>3000</v>
       </c>
-      <c r="R33" s="29">
+      <c r="S33" s="24">
         <v>823131.99</v>
       </c>
-      <c r="S33" s="29">
+      <c r="T33" s="24">
         <v>2609718.3200000003</v>
       </c>
-      <c r="T33" s="29">
-        <v>0</v>
-      </c>
-      <c r="U33" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="U33" s="24">
+        <v>0</v>
+      </c>
+      <c r="V33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="36">
-        <v>1</v>
-      </c>
-      <c r="C34" s="33">
+      <c r="B34" s="31">
+        <v>1</v>
+      </c>
+      <c r="C34" s="28">
         <v>9</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="41">
         <v>96</v>
       </c>
-      <c r="E34" s="62">
-        <v>1</v>
-      </c>
-      <c r="F34" s="62">
-        <v>1</v>
-      </c>
-      <c r="G34" s="62">
-        <v>1</v>
-      </c>
-      <c r="H34" s="55">
-        <v>0</v>
-      </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46">
+      <c r="E34" s="57">
+        <v>1</v>
+      </c>
+      <c r="F34" s="57">
+        <v>1</v>
+      </c>
+      <c r="G34" s="57">
+        <v>1</v>
+      </c>
+      <c r="H34" s="50">
+        <v>0</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="30">
+        <v>4</v>
+      </c>
+      <c r="M34" s="41">
         <v>141</v>
       </c>
-      <c r="M34" s="30">
+      <c r="N34" s="25">
         <v>16000</v>
       </c>
-      <c r="N34" s="30">
+      <c r="O34" s="25">
         <v>4000</v>
       </c>
-      <c r="O34" s="68"/>
-      <c r="P34" s="30">
+      <c r="P34" s="62"/>
+      <c r="Q34" s="25">
         <v>8000</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="R34" s="25">
         <v>2000</v>
       </c>
-      <c r="R34" s="36">
+      <c r="S34" s="31">
         <v>183449.94994008305</v>
       </c>
-      <c r="S34" s="30">
+      <c r="T34" s="25">
         <v>2319166.6707000006</v>
       </c>
-      <c r="T34" s="30">
-        <v>0</v>
-      </c>
-      <c r="U34" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="U34" s="25">
+        <v>0</v>
+      </c>
+      <c r="V34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="44">
-        <v>1</v>
-      </c>
-      <c r="C35" s="32">
+      <c r="B35" s="39">
+        <v>1</v>
+      </c>
+      <c r="C35" s="27">
         <v>9</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="30">
         <v>64</v>
       </c>
-      <c r="E35" s="61">
-        <v>0</v>
-      </c>
-      <c r="F35" s="61">
-        <v>0</v>
-      </c>
-      <c r="G35" s="61">
-        <v>0</v>
-      </c>
-      <c r="H35" s="61">
-        <v>0</v>
-      </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44">
+      <c r="E35" s="56">
+        <v>0</v>
+      </c>
+      <c r="F35" s="56">
+        <v>0</v>
+      </c>
+      <c r="G35" s="56">
+        <v>0</v>
+      </c>
+      <c r="H35" s="56">
+        <v>0</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="39">
         <v>120</v>
       </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="29">
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="24">
         <v>12000</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="R35" s="24">
         <v>3000</v>
       </c>
-      <c r="R35" s="29">
+      <c r="S35" s="24">
         <v>1379980.37</v>
       </c>
-      <c r="S35" s="29">
+      <c r="T35" s="24">
         <v>3114824.35</v>
       </c>
-      <c r="T35" s="29">
-        <v>0</v>
-      </c>
-      <c r="U35" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="U35" s="24">
+        <v>0</v>
+      </c>
+      <c r="V35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="39">
-        <v>1</v>
-      </c>
-      <c r="C36" s="34">
+      <c r="B36" s="34">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29">
         <v>10</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="35">
         <v>96</v>
       </c>
-      <c r="E36" s="63">
-        <v>0</v>
-      </c>
-      <c r="F36" s="63">
-        <v>0</v>
-      </c>
-      <c r="G36" s="63">
-        <v>0</v>
-      </c>
-      <c r="H36" s="63">
-        <v>0</v>
-      </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39">
+      <c r="E36" s="58">
+        <v>0</v>
+      </c>
+      <c r="F36" s="58">
+        <v>0</v>
+      </c>
+      <c r="G36" s="58">
+        <v>0</v>
+      </c>
+      <c r="H36" s="58">
+        <v>0</v>
+      </c>
+      <c r="I36" s="58"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="30">
+        <v>9</v>
+      </c>
+      <c r="M36" s="34">
         <v>90</v>
       </c>
-      <c r="M36" s="34">
+      <c r="N36" s="29">
         <v>9500</v>
       </c>
-      <c r="N36" s="34">
+      <c r="O36" s="29">
         <v>2000</v>
       </c>
-      <c r="O36" s="72"/>
-      <c r="P36" s="34">
+      <c r="P36" s="66"/>
+      <c r="Q36" s="29">
         <v>9500</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="R36" s="29">
         <v>2000</v>
       </c>
-      <c r="R36" s="39">
+      <c r="S36" s="34">
         <v>135788.59716344613</v>
       </c>
-      <c r="S36" s="34">
+      <c r="T36" s="29">
         <v>2800000</v>
       </c>
-      <c r="T36" s="34">
-        <v>0</v>
-      </c>
-      <c r="U36" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+      <c r="U36" s="29">
+        <v>0</v>
+      </c>
+      <c r="V36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="39">
-        <v>1</v>
-      </c>
-      <c r="C37" s="34">
+      <c r="B37" s="34">
+        <v>1</v>
+      </c>
+      <c r="C37" s="29">
         <v>10</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="35">
         <v>96</v>
       </c>
-      <c r="E37" s="63">
-        <v>0</v>
-      </c>
-      <c r="F37" s="63">
-        <v>0</v>
-      </c>
-      <c r="G37" s="63">
-        <v>0</v>
-      </c>
-      <c r="H37" s="63">
-        <v>0</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39">
+      <c r="E37" s="58">
+        <v>0</v>
+      </c>
+      <c r="F37" s="58">
+        <v>0</v>
+      </c>
+      <c r="G37" s="58">
+        <v>0</v>
+      </c>
+      <c r="H37" s="58">
+        <v>0</v>
+      </c>
+      <c r="I37" s="58"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="30">
+        <v>9</v>
+      </c>
+      <c r="M37" s="34">
         <v>90</v>
       </c>
-      <c r="M37" s="34">
+      <c r="N37" s="29">
         <v>9500</v>
       </c>
-      <c r="N37" s="34">
+      <c r="O37" s="29">
         <v>2000</v>
       </c>
-      <c r="O37" s="72"/>
-      <c r="P37" s="34">
+      <c r="P37" s="66"/>
+      <c r="Q37" s="29">
         <v>9500</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="R37" s="29">
         <v>2000</v>
       </c>
-      <c r="R37" s="39">
+      <c r="S37" s="34">
         <v>135788.59716344613</v>
       </c>
-      <c r="S37" s="34">
+      <c r="T37" s="29">
         <v>2800000</v>
       </c>
-      <c r="T37" s="34">
-        <v>0</v>
-      </c>
-      <c r="U37" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="U37" s="29">
+        <v>0</v>
+      </c>
+      <c r="V37" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="42">
-        <v>1</v>
-      </c>
-      <c r="C38" s="28">
+      <c r="B38" s="37">
+        <v>1</v>
+      </c>
+      <c r="C38" s="23">
         <v>11</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="38">
         <v>96</v>
       </c>
-      <c r="E38" s="60">
-        <v>0</v>
-      </c>
-      <c r="F38" s="60">
-        <v>0</v>
-      </c>
-      <c r="G38" s="60">
-        <v>0</v>
-      </c>
-      <c r="H38" s="60">
-        <v>0</v>
-      </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42">
+      <c r="E38" s="55">
+        <v>0</v>
+      </c>
+      <c r="F38" s="55">
+        <v>0</v>
+      </c>
+      <c r="G38" s="55">
+        <v>0</v>
+      </c>
+      <c r="H38" s="55">
+        <v>0</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="30">
+        <v>10</v>
+      </c>
+      <c r="M38" s="37">
         <v>60</v>
       </c>
-      <c r="M38" s="28">
+      <c r="N38" s="23">
         <v>12000</v>
       </c>
-      <c r="N38" s="28">
+      <c r="O38" s="23">
         <v>1500</v>
       </c>
-      <c r="O38" s="70"/>
-      <c r="P38" s="28">
+      <c r="P38" s="64"/>
+      <c r="Q38" s="23">
         <v>12000</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="R38" s="23">
         <v>1500</v>
       </c>
-      <c r="R38" s="42">
+      <c r="S38" s="37">
         <v>263072.79652163608</v>
       </c>
-      <c r="S38" s="28">
+      <c r="T38" s="23">
         <v>273606.30000000005</v>
       </c>
-      <c r="T38" s="28">
-        <v>0</v>
-      </c>
-      <c r="U38" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="U38" s="23">
+        <v>0</v>
+      </c>
+      <c r="V38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="44">
-        <v>1</v>
-      </c>
-      <c r="C39" s="29">
+      <c r="B39" s="36">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22">
         <v>11</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="35">
         <v>96</v>
       </c>
-      <c r="E39" s="61">
-        <v>0</v>
-      </c>
-      <c r="F39" s="61">
-        <v>0</v>
-      </c>
-      <c r="G39" s="61">
-        <v>0</v>
-      </c>
-      <c r="H39" s="61">
-        <v>0</v>
-      </c>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44">
+      <c r="E39" s="54">
+        <v>0</v>
+      </c>
+      <c r="F39" s="54">
+        <v>0</v>
+      </c>
+      <c r="G39" s="54">
+        <v>0</v>
+      </c>
+      <c r="H39" s="54">
+        <v>0</v>
+      </c>
+      <c r="I39" s="54"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="30">
+        <v>10</v>
+      </c>
+      <c r="M39" s="36">
         <v>60</v>
       </c>
-      <c r="M39" s="29">
+      <c r="N39" s="22">
         <v>3000</v>
       </c>
-      <c r="N39" s="29">
+      <c r="O39" s="22">
         <v>1500</v>
       </c>
-      <c r="O39" s="71"/>
-      <c r="P39" s="29">
+      <c r="P39" s="63"/>
+      <c r="Q39" s="22">
         <v>3000</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="R39" s="22">
         <v>1500</v>
       </c>
-      <c r="R39" s="44">
+      <c r="S39" s="36">
         <v>263072.79652163608</v>
       </c>
-      <c r="S39" s="48">
+      <c r="T39" s="29">
         <v>273606.30000000005</v>
       </c>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-    </row>
-    <row r="40" spans="1:21" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D40" s="4"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="23"/>
-      <c r="O40" s="73"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="D41"/>
-      <c r="M41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A46" s="19"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="69">
+        <v>1</v>
+      </c>
+      <c r="C40" s="69">
+        <v>25</v>
+      </c>
+      <c r="D40" s="76">
+        <v>96</v>
+      </c>
+      <c r="E40" s="70">
+        <v>0</v>
+      </c>
+      <c r="F40" s="77">
+        <v>0</v>
+      </c>
+      <c r="G40" s="77">
+        <v>0</v>
+      </c>
+      <c r="H40" s="77">
+        <v>0</v>
+      </c>
+      <c r="I40" s="83"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="30">
+        <v>16</v>
+      </c>
+      <c r="M40" s="69">
+        <v>60</v>
+      </c>
+      <c r="N40" s="71">
+        <v>26000</v>
+      </c>
+      <c r="O40" s="68">
+        <v>6000</v>
+      </c>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="71">
+        <v>26000</v>
+      </c>
+      <c r="R40" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S40" s="71">
+        <v>77419</v>
+      </c>
+      <c r="T40" s="71">
+        <v>7493325</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0</v>
+      </c>
+      <c r="V40" s="23">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="69">
+        <v>1</v>
+      </c>
+      <c r="C41" s="69">
+        <v>26</v>
+      </c>
+      <c r="D41" s="76">
+        <v>96</v>
+      </c>
+      <c r="E41" s="70">
+        <v>0</v>
+      </c>
+      <c r="F41" s="77">
+        <v>0</v>
+      </c>
+      <c r="G41" s="77">
+        <v>0</v>
+      </c>
+      <c r="H41" s="77">
+        <v>0</v>
+      </c>
+      <c r="I41" s="83"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="30">
+        <v>16</v>
+      </c>
+      <c r="M41" s="69">
+        <v>60</v>
+      </c>
+      <c r="N41" s="71">
+        <v>26000</v>
+      </c>
+      <c r="O41" s="68">
+        <v>6000</v>
+      </c>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="71">
+        <v>26000</v>
+      </c>
+      <c r="R41" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S41" s="73">
+        <v>77419</v>
+      </c>
+      <c r="T41" s="73">
+        <v>7493325</v>
+      </c>
+      <c r="U41" s="23">
+        <v>0</v>
+      </c>
+      <c r="V41" s="23">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="69">
+        <v>1</v>
+      </c>
+      <c r="C42" s="69">
+        <v>27</v>
+      </c>
+      <c r="D42" s="76">
+        <v>96</v>
+      </c>
+      <c r="E42" s="70">
+        <v>0</v>
+      </c>
+      <c r="F42" s="77">
+        <v>0</v>
+      </c>
+      <c r="G42" s="77">
+        <v>0</v>
+      </c>
+      <c r="H42" s="77">
+        <v>0</v>
+      </c>
+      <c r="I42" s="83"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="30">
+        <v>16</v>
+      </c>
+      <c r="M42" s="69">
+        <v>60</v>
+      </c>
+      <c r="N42" s="71">
+        <v>26000</v>
+      </c>
+      <c r="O42" s="68">
+        <v>6000</v>
+      </c>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="71">
+        <v>26000</v>
+      </c>
+      <c r="R42" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S42" s="71">
+        <v>89355</v>
+      </c>
+      <c r="T42" s="71">
+        <v>9613885</v>
+      </c>
+      <c r="U42" s="23">
+        <v>0</v>
+      </c>
+      <c r="V42" s="23">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="69">
+        <v>1</v>
+      </c>
+      <c r="C43" s="69">
+        <v>28</v>
+      </c>
+      <c r="D43" s="69">
+        <v>32</v>
+      </c>
+      <c r="E43" s="70">
+        <v>0</v>
+      </c>
+      <c r="F43" s="77">
+        <v>0</v>
+      </c>
+      <c r="G43" s="77">
+        <v>0</v>
+      </c>
+      <c r="H43" s="77">
+        <v>0</v>
+      </c>
+      <c r="I43" s="83"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="30">
+        <v>18</v>
+      </c>
+      <c r="M43" s="69">
+        <v>60</v>
+      </c>
+      <c r="N43" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O43" s="68">
+        <v>2000</v>
+      </c>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71">
+        <v>44250</v>
+      </c>
+      <c r="T43" s="71">
+        <v>1456980</v>
+      </c>
+      <c r="U43" s="23">
+        <v>0</v>
+      </c>
+      <c r="V43" s="23">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="69">
+        <v>1</v>
+      </c>
+      <c r="C44" s="69">
+        <v>29</v>
+      </c>
+      <c r="D44" s="69">
+        <v>64</v>
+      </c>
+      <c r="E44" s="70">
+        <v>0</v>
+      </c>
+      <c r="F44" s="77">
+        <v>0</v>
+      </c>
+      <c r="G44" s="77">
+        <v>0</v>
+      </c>
+      <c r="H44" s="77">
+        <v>0</v>
+      </c>
+      <c r="I44" s="83"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="30">
+        <v>18</v>
+      </c>
+      <c r="M44" s="69">
+        <v>60</v>
+      </c>
+      <c r="N44" s="71"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R44" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S44" s="71">
+        <v>44250</v>
+      </c>
+      <c r="T44" s="71">
+        <v>2207605</v>
+      </c>
+      <c r="U44" s="23">
+        <v>0</v>
+      </c>
+      <c r="V44" s="23">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="69">
+        <v>1</v>
+      </c>
+      <c r="C45" s="69">
+        <v>30</v>
+      </c>
+      <c r="D45" s="69">
+        <v>64</v>
+      </c>
+      <c r="E45" s="70">
+        <v>0</v>
+      </c>
+      <c r="F45" s="77">
+        <v>0</v>
+      </c>
+      <c r="G45" s="77">
+        <v>0</v>
+      </c>
+      <c r="H45" s="77">
+        <v>0</v>
+      </c>
+      <c r="I45" s="83"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="30">
+        <v>18</v>
+      </c>
+      <c r="M45" s="69">
+        <v>60</v>
+      </c>
+      <c r="N45" s="71"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R45" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S45" s="71">
+        <v>44250</v>
+      </c>
+      <c r="T45" s="71">
+        <v>613492</v>
+      </c>
+      <c r="U45" s="23">
+        <v>0</v>
+      </c>
+      <c r="V45" s="23">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="69">
+        <v>1</v>
+      </c>
+      <c r="C46" s="69">
+        <v>30</v>
+      </c>
+      <c r="D46" s="69">
+        <v>64</v>
+      </c>
+      <c r="E46" s="70">
+        <v>0</v>
+      </c>
+      <c r="F46" s="77">
+        <v>0</v>
+      </c>
+      <c r="G46" s="77">
+        <v>0</v>
+      </c>
+      <c r="H46" s="77">
+        <v>0</v>
+      </c>
+      <c r="I46" s="83"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="30">
+        <v>18</v>
+      </c>
+      <c r="M46" s="69">
+        <v>60</v>
+      </c>
+      <c r="N46" s="71"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R46" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S46" s="71">
+        <v>44250</v>
+      </c>
+      <c r="T46" s="71">
+        <v>613492</v>
+      </c>
+      <c r="U46" s="23">
+        <v>0</v>
+      </c>
+      <c r="V46" s="23">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="69">
+        <v>1</v>
+      </c>
+      <c r="C47" s="69">
+        <v>31</v>
+      </c>
+      <c r="D47" s="76">
+        <v>96</v>
+      </c>
+      <c r="E47" s="70">
+        <v>1</v>
+      </c>
+      <c r="F47" s="77">
+        <v>0</v>
+      </c>
+      <c r="G47" s="77">
+        <v>0</v>
+      </c>
+      <c r="H47" s="77">
+        <v>0</v>
+      </c>
+      <c r="I47" s="83"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="30">
+        <v>10</v>
+      </c>
+      <c r="M47" s="69">
+        <v>60</v>
+      </c>
+      <c r="N47" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O47" s="68">
+        <v>2000</v>
+      </c>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R47" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S47" s="71">
+        <v>36088</v>
+      </c>
+      <c r="T47" s="71">
+        <v>353633</v>
+      </c>
+      <c r="U47" s="23">
+        <v>0</v>
+      </c>
+      <c r="V47" s="23">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="69">
+        <v>1</v>
+      </c>
+      <c r="C48" s="69">
+        <v>31</v>
+      </c>
+      <c r="D48" s="76">
+        <v>96</v>
+      </c>
+      <c r="E48" s="70">
+        <v>1</v>
+      </c>
+      <c r="F48" s="77">
+        <v>0</v>
+      </c>
+      <c r="G48" s="77">
+        <v>0</v>
+      </c>
+      <c r="H48" s="77">
+        <v>0</v>
+      </c>
+      <c r="I48" s="83"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="30">
+        <v>10</v>
+      </c>
+      <c r="M48" s="69">
+        <v>60</v>
+      </c>
+      <c r="N48" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O48" s="68">
+        <v>2000</v>
+      </c>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R48" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S48" s="71">
+        <v>36088</v>
+      </c>
+      <c r="T48" s="71">
+        <v>577001</v>
+      </c>
+      <c r="U48" s="23">
+        <v>0</v>
+      </c>
+      <c r="V48" s="23">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="69">
+        <v>1</v>
+      </c>
+      <c r="C49" s="69">
+        <v>32</v>
+      </c>
+      <c r="D49" s="76">
+        <v>32</v>
+      </c>
+      <c r="E49" s="70">
+        <v>0</v>
+      </c>
+      <c r="F49" s="77">
+        <v>0</v>
+      </c>
+      <c r="G49" s="77">
+        <v>0</v>
+      </c>
+      <c r="H49" s="77">
+        <v>0</v>
+      </c>
+      <c r="I49" s="83"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="30">
+        <v>5</v>
+      </c>
+      <c r="M49" s="69">
+        <v>60</v>
+      </c>
+      <c r="N49" s="71">
+        <v>8250</v>
+      </c>
+      <c r="O49" s="68">
+        <v>3000</v>
+      </c>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71">
+        <v>332032</v>
+      </c>
+      <c r="T49" s="71">
+        <v>4681529</v>
+      </c>
+      <c r="U49" s="23">
+        <v>0</v>
+      </c>
+      <c r="V49" s="23">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="69">
+        <v>1</v>
+      </c>
+      <c r="C50" s="69">
+        <v>32</v>
+      </c>
+      <c r="D50" s="76">
+        <v>96</v>
+      </c>
+      <c r="E50" s="70">
+        <v>1</v>
+      </c>
+      <c r="F50" s="77">
+        <v>0</v>
+      </c>
+      <c r="G50" s="77">
+        <v>0</v>
+      </c>
+      <c r="H50" s="77">
+        <v>0</v>
+      </c>
+      <c r="I50" s="83"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="30">
+        <v>5</v>
+      </c>
+      <c r="M50" s="69">
+        <v>60</v>
+      </c>
+      <c r="N50" s="71">
+        <v>60000</v>
+      </c>
+      <c r="O50" s="68">
+        <v>3000</v>
+      </c>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="68">
+        <v>4000</v>
+      </c>
+      <c r="R50" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S50" s="71">
+        <v>332032</v>
+      </c>
+      <c r="T50" s="71">
+        <v>7013267</v>
+      </c>
+      <c r="U50" s="23">
+        <v>0</v>
+      </c>
+      <c r="V50" s="23">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="69">
+        <v>1</v>
+      </c>
+      <c r="C51" s="69">
+        <v>33</v>
+      </c>
+      <c r="D51" s="76">
+        <v>96</v>
+      </c>
+      <c r="E51" s="70">
+        <v>0</v>
+      </c>
+      <c r="F51" s="77">
+        <v>0</v>
+      </c>
+      <c r="G51" s="77">
+        <v>0</v>
+      </c>
+      <c r="H51" s="77">
+        <v>0</v>
+      </c>
+      <c r="I51" s="83"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="30">
+        <v>5</v>
+      </c>
+      <c r="M51" s="69">
+        <v>60</v>
+      </c>
+      <c r="N51" s="71">
+        <v>40</v>
+      </c>
+      <c r="O51" s="68">
+        <v>1500</v>
+      </c>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71">
+        <v>28389</v>
+      </c>
+      <c r="T51" s="71">
+        <v>2491787</v>
+      </c>
+      <c r="U51" s="23">
+        <v>0</v>
+      </c>
+      <c r="V51" s="23">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="69">
+        <v>1</v>
+      </c>
+      <c r="C52" s="69">
+        <v>34</v>
+      </c>
+      <c r="D52" s="69">
+        <v>64</v>
+      </c>
+      <c r="E52" s="70">
+        <v>0</v>
+      </c>
+      <c r="F52" s="77">
+        <v>0</v>
+      </c>
+      <c r="G52" s="77">
+        <v>0</v>
+      </c>
+      <c r="H52" s="77">
+        <v>0</v>
+      </c>
+      <c r="I52" s="83"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="30">
+        <v>5</v>
+      </c>
+      <c r="M52" s="69">
+        <v>60</v>
+      </c>
+      <c r="N52" s="71"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="68">
+        <v>12000</v>
+      </c>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71">
+        <v>28389</v>
+      </c>
+      <c r="T52" s="71">
+        <v>6664255</v>
+      </c>
+      <c r="U52" s="23">
+        <v>0</v>
+      </c>
+      <c r="V52" s="23">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="69">
+        <v>2</v>
+      </c>
+      <c r="C53" s="69">
+        <v>35</v>
+      </c>
+      <c r="D53" s="76">
+        <v>96</v>
+      </c>
+      <c r="E53" s="70">
+        <v>0</v>
+      </c>
+      <c r="F53" s="77">
+        <v>0</v>
+      </c>
+      <c r="G53" s="77">
+        <v>0</v>
+      </c>
+      <c r="H53" s="77">
+        <v>0</v>
+      </c>
+      <c r="I53" s="72">
+        <v>15000</v>
+      </c>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="30">
+        <v>13</v>
+      </c>
+      <c r="M53" s="69">
+        <v>60</v>
+      </c>
+      <c r="N53" s="71">
+        <v>9000</v>
+      </c>
+      <c r="O53" s="68">
+        <v>3000</v>
+      </c>
+      <c r="P53" s="72">
+        <v>5000</v>
+      </c>
+      <c r="Q53" s="68">
+        <v>9000</v>
+      </c>
+      <c r="R53" s="71">
+        <v>3000</v>
+      </c>
+      <c r="S53" s="71">
+        <v>175980</v>
+      </c>
+      <c r="T53" s="71">
+        <v>2352442.63</v>
+      </c>
+      <c r="U53" s="23">
+        <v>0</v>
+      </c>
+      <c r="V53" s="23">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="69">
+        <v>2</v>
+      </c>
+      <c r="C54" s="69">
+        <v>36</v>
+      </c>
+      <c r="D54" s="69">
+        <v>64</v>
+      </c>
+      <c r="E54" s="70">
+        <v>0</v>
+      </c>
+      <c r="F54" s="77">
+        <v>0</v>
+      </c>
+      <c r="G54" s="77">
+        <v>0</v>
+      </c>
+      <c r="H54" s="77">
+        <v>0</v>
+      </c>
+      <c r="I54" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="30">
+        <v>14</v>
+      </c>
+      <c r="M54" s="69">
+        <v>60</v>
+      </c>
+      <c r="N54" s="71"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q54" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R54" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S54" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T54" s="71">
+        <v>3929496</v>
+      </c>
+      <c r="U54" s="23">
+        <v>0</v>
+      </c>
+      <c r="V54" s="23">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="69">
+        <v>2</v>
+      </c>
+      <c r="C55" s="69">
+        <v>36</v>
+      </c>
+      <c r="D55" s="69">
+        <v>64</v>
+      </c>
+      <c r="E55" s="70">
+        <v>0</v>
+      </c>
+      <c r="F55" s="77">
+        <v>0</v>
+      </c>
+      <c r="G55" s="77">
+        <v>0</v>
+      </c>
+      <c r="H55" s="77">
+        <v>0</v>
+      </c>
+      <c r="I55" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="30">
+        <v>14</v>
+      </c>
+      <c r="M55" s="69">
+        <v>60</v>
+      </c>
+      <c r="N55" s="71"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q55" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R55" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S55" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T55" s="71">
+        <v>4123075</v>
+      </c>
+      <c r="U55" s="23">
+        <v>0</v>
+      </c>
+      <c r="V55" s="23">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="69">
+        <v>1</v>
+      </c>
+      <c r="C56" s="69">
+        <v>37</v>
+      </c>
+      <c r="D56" s="69">
+        <v>64</v>
+      </c>
+      <c r="E56" s="70">
+        <v>0</v>
+      </c>
+      <c r="F56" s="77">
+        <v>0</v>
+      </c>
+      <c r="G56" s="77">
+        <v>0</v>
+      </c>
+      <c r="H56" s="77">
+        <v>0</v>
+      </c>
+      <c r="I56" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="30">
+        <v>14</v>
+      </c>
+      <c r="M56" s="69">
+        <v>60</v>
+      </c>
+      <c r="N56" s="71"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q56" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R56" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S56" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T56" s="71">
+        <v>3665106</v>
+      </c>
+      <c r="U56" s="23">
+        <v>0</v>
+      </c>
+      <c r="V56" s="23">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="69">
+        <v>1</v>
+      </c>
+      <c r="C57" s="69">
+        <v>37</v>
+      </c>
+      <c r="D57" s="69">
+        <v>64</v>
+      </c>
+      <c r="E57" s="70">
+        <v>0</v>
+      </c>
+      <c r="F57" s="77">
+        <v>0</v>
+      </c>
+      <c r="G57" s="77">
+        <v>0</v>
+      </c>
+      <c r="H57" s="77">
+        <v>0</v>
+      </c>
+      <c r="I57" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="30">
+        <v>14</v>
+      </c>
+      <c r="M57" s="69">
+        <v>60</v>
+      </c>
+      <c r="N57" s="71"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q57" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R57" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S57" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T57" s="71">
+        <v>3845796</v>
+      </c>
+      <c r="U57" s="23">
+        <v>0</v>
+      </c>
+      <c r="V57" s="23">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="69">
+        <v>1</v>
+      </c>
+      <c r="C58" s="69">
+        <v>37</v>
+      </c>
+      <c r="D58" s="69">
+        <v>64</v>
+      </c>
+      <c r="E58" s="70">
+        <v>0</v>
+      </c>
+      <c r="F58" s="77">
+        <v>0</v>
+      </c>
+      <c r="G58" s="77">
+        <v>0</v>
+      </c>
+      <c r="H58" s="77">
+        <v>0</v>
+      </c>
+      <c r="I58" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="30">
+        <v>14</v>
+      </c>
+      <c r="M58" s="69">
+        <v>60</v>
+      </c>
+      <c r="N58" s="71"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q58" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R58" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S58" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T58" s="71">
+        <v>3845796</v>
+      </c>
+      <c r="U58" s="23">
+        <v>0</v>
+      </c>
+      <c r="V58" s="23">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="69">
+        <v>1</v>
+      </c>
+      <c r="C59" s="69">
+        <v>38</v>
+      </c>
+      <c r="D59" s="76">
+        <v>96</v>
+      </c>
+      <c r="E59" s="70">
+        <v>0</v>
+      </c>
+      <c r="F59" s="77">
+        <v>0</v>
+      </c>
+      <c r="G59" s="77">
+        <v>0</v>
+      </c>
+      <c r="H59" s="77">
+        <v>0</v>
+      </c>
+      <c r="I59" s="83"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="30">
+        <v>12</v>
+      </c>
+      <c r="M59" s="69">
+        <v>60</v>
+      </c>
+      <c r="N59" s="71">
+        <v>2250</v>
+      </c>
+      <c r="O59" s="68">
+        <v>750</v>
+      </c>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="68">
+        <v>2250</v>
+      </c>
+      <c r="R59" s="71">
+        <v>750</v>
+      </c>
+      <c r="S59" s="71">
+        <v>148802</v>
+      </c>
+      <c r="T59" s="71">
+        <v>404980</v>
+      </c>
+      <c r="U59" s="23">
+        <v>0</v>
+      </c>
+      <c r="V59" s="23">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="69">
+        <v>1</v>
+      </c>
+      <c r="C60" s="69">
+        <v>39</v>
+      </c>
+      <c r="D60" s="76">
+        <v>96</v>
+      </c>
+      <c r="E60" s="70">
+        <v>0</v>
+      </c>
+      <c r="F60" s="77">
+        <v>0</v>
+      </c>
+      <c r="G60" s="77">
+        <v>0</v>
+      </c>
+      <c r="H60" s="77">
+        <v>0</v>
+      </c>
+      <c r="I60" s="83"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="71">
+        <v>7124</v>
+      </c>
+      <c r="O60" s="68"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="68">
+        <v>7124</v>
+      </c>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="T60" s="71">
+        <v>1278575</v>
+      </c>
+      <c r="U60" s="23">
+        <v>0</v>
+      </c>
+      <c r="V60" s="23">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="69">
+        <v>1</v>
+      </c>
+      <c r="C61" s="69">
+        <v>39</v>
+      </c>
+      <c r="D61" s="76">
+        <v>96</v>
+      </c>
+      <c r="E61" s="70">
+        <v>0</v>
+      </c>
+      <c r="F61" s="77">
+        <v>0</v>
+      </c>
+      <c r="G61" s="77">
+        <v>0</v>
+      </c>
+      <c r="H61" s="77">
+        <v>0</v>
+      </c>
+      <c r="I61" s="83"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="71">
+        <v>7124</v>
+      </c>
+      <c r="O61" s="68"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="68">
+        <v>7124</v>
+      </c>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="T61" s="71">
+        <v>1091750</v>
+      </c>
+      <c r="U61" s="23">
+        <v>0</v>
+      </c>
+      <c r="V61" s="23">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="69">
+        <v>2</v>
+      </c>
+      <c r="C62" s="69">
+        <v>40</v>
+      </c>
+      <c r="D62" s="69">
+        <v>32</v>
+      </c>
+      <c r="E62" s="70">
+        <v>0</v>
+      </c>
+      <c r="F62" s="77">
+        <v>0</v>
+      </c>
+      <c r="G62" s="77">
+        <v>0</v>
+      </c>
+      <c r="H62" s="77">
+        <v>0</v>
+      </c>
+      <c r="I62" s="83"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="75">
+        <v>180</v>
+      </c>
+      <c r="N62" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O62" s="68">
+        <v>1500</v>
+      </c>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="78">
+        <f>1400000/1.22</f>
+        <v>1147540.9836065574</v>
+      </c>
+      <c r="T62" s="71">
+        <v>1000000</v>
+      </c>
+      <c r="U62" s="71">
+        <v>2000</v>
+      </c>
+      <c r="V62" s="71">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="69">
+        <v>2</v>
+      </c>
+      <c r="C63" s="69">
+        <v>41</v>
+      </c>
+      <c r="D63" s="76">
+        <v>64</v>
+      </c>
+      <c r="E63" s="70">
+        <v>0</v>
+      </c>
+      <c r="F63" s="77">
+        <v>0</v>
+      </c>
+      <c r="G63" s="77">
+        <v>0</v>
+      </c>
+      <c r="H63" s="77">
+        <v>0</v>
+      </c>
+      <c r="I63" s="83"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="75">
+        <v>180</v>
+      </c>
+      <c r="N63" s="71"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R63" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S63" s="78">
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
+      </c>
+      <c r="T63" s="71">
+        <v>4118223</v>
+      </c>
+      <c r="U63" s="23">
+        <v>0</v>
+      </c>
+      <c r="V63" s="23">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="69">
+        <v>2</v>
+      </c>
+      <c r="C64" s="69">
+        <v>41</v>
+      </c>
+      <c r="D64" s="76">
+        <v>64</v>
+      </c>
+      <c r="E64" s="70">
+        <v>0</v>
+      </c>
+      <c r="F64" s="77">
+        <v>0</v>
+      </c>
+      <c r="G64" s="77">
+        <v>0</v>
+      </c>
+      <c r="H64" s="77">
+        <v>0</v>
+      </c>
+      <c r="I64" s="83"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="75">
+        <v>180</v>
+      </c>
+      <c r="N64" s="71"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R64" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S64" s="78">
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
+      </c>
+      <c r="T64" s="71">
+        <v>4118223</v>
+      </c>
+      <c r="U64" s="23">
+        <v>0</v>
+      </c>
+      <c r="V64" s="23">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="69">
+        <v>2</v>
+      </c>
+      <c r="C65" s="69">
+        <v>42</v>
+      </c>
+      <c r="D65" s="76">
+        <v>64</v>
+      </c>
+      <c r="E65" s="70">
+        <v>0</v>
+      </c>
+      <c r="F65" s="77">
+        <v>0</v>
+      </c>
+      <c r="G65" s="77">
+        <v>0</v>
+      </c>
+      <c r="H65" s="77">
+        <v>0</v>
+      </c>
+      <c r="I65" s="83"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="75">
+        <v>180</v>
+      </c>
+      <c r="N65" s="71"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R65" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S65" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T65" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U65" s="23">
+        <v>0</v>
+      </c>
+      <c r="V65" s="23">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="69">
+        <v>2</v>
+      </c>
+      <c r="C66" s="69">
+        <v>42</v>
+      </c>
+      <c r="D66" s="76">
+        <v>64</v>
+      </c>
+      <c r="E66" s="70">
+        <v>0</v>
+      </c>
+      <c r="F66" s="77">
+        <v>0</v>
+      </c>
+      <c r="G66" s="77">
+        <v>0</v>
+      </c>
+      <c r="H66" s="77">
+        <v>0</v>
+      </c>
+      <c r="I66" s="83"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="75">
+        <v>180</v>
+      </c>
+      <c r="N66" s="71"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R66" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S66" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T66" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U66" s="23">
+        <v>0</v>
+      </c>
+      <c r="V66" s="23">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U39"/>
+  <autoFilter ref="A2:V39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70430E3D-8875-4EBA-A7D7-83A8FB5A4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8C4706-3C62-4938-B710-721BBEC93C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -295,112 +296,121 @@
     <t>ГАСИТЕЛЬ ВИБРАЦИИ (опциональное оборудование)</t>
   </si>
   <si>
+    <t>КРОНШТЕЙН В СБОРЕ</t>
+  </si>
+  <si>
+    <t>8АТ-9600-700</t>
+  </si>
+  <si>
+    <t>НАРУЖНАЯ ПОДВЕСКА (опциональное оборудование)</t>
+  </si>
+  <si>
+    <t>8МТ-1280-100</t>
+  </si>
+  <si>
+    <t>АГБ-3К-3С</t>
+  </si>
+  <si>
+    <t>АВИАГОРИЗОНТ</t>
+  </si>
+  <si>
+    <t>АГБ-96Д 6Ш2.511.018-02</t>
+  </si>
+  <si>
+    <t>АГБ-96Д-С 6Ш2.511.018-22</t>
+  </si>
+  <si>
+    <t>АГБ-96Р 6Ш2.511.018</t>
+  </si>
+  <si>
+    <t>АГБ-96Р-С 6Ш2.511.018-13</t>
+  </si>
+  <si>
+    <t>АГБ-96Р-С 6Ш2.511.018-21</t>
+  </si>
+  <si>
+    <t>АК-50Т1 СЕРИЯ 3 14-950-390-01</t>
+  </si>
+  <si>
+    <t>КОМПРЕССОР</t>
+  </si>
+  <si>
+    <t>АРМ-406П ЦДКТ.462524.406-02</t>
+  </si>
+  <si>
+    <t>АРМ-406П ЦДКТ.462524.406</t>
+  </si>
+  <si>
+    <t>АВАРИЙНЫЙ РАДИОМАЯК</t>
+  </si>
+  <si>
+    <t>НР-40ВА 3102</t>
+  </si>
+  <si>
+    <t>НАСОС-РЕГУЛЯТОР</t>
+  </si>
+  <si>
+    <t>НАСОС-РЕГУЛЯТОР (двигатель ТВ2-117)</t>
+  </si>
+  <si>
+    <t>8АМТ.9611.000.903 (АМТ)</t>
+  </si>
+  <si>
+    <t>ПОДВЕСКА С ВЕСОИЗМЕРИТЕЛЕМ</t>
+  </si>
+  <si>
+    <t>8АТ-5104-405</t>
+  </si>
+  <si>
+    <t>КРОНШТЕЙН</t>
+  </si>
+  <si>
+    <t>8АМТ-5104-200-3-Д</t>
+  </si>
+  <si>
+    <t>8АМТ-5104-200-Д</t>
+  </si>
+  <si>
+    <t>ДЕТАЛИ ЗАБУСТЕРНОЙ ЧАСТИ УПРАВЛЕНИЯ</t>
+  </si>
+  <si>
+    <t>СВ-78БА 0780859090-06</t>
+  </si>
+  <si>
+    <t>СВ-78БА 0780859090-05</t>
+  </si>
+  <si>
+    <t>СТАРТЕР ВОЗДУШНЫЙ</t>
+  </si>
+  <si>
+    <t>НР-3ВМ 3184.000</t>
+  </si>
+  <si>
+    <t>НР-3ВМ-Т 3184.000-03</t>
+  </si>
+  <si>
+    <t>8МТ-5104-200</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Два лимита</t>
+  </si>
+  <si>
+    <t>second_ll</t>
+  </si>
+  <si>
+    <t>8АТ.5104.305</t>
+  </si>
+  <si>
     <t>8АТ-5104-305</t>
   </si>
   <si>
-    <t>КРОНШТЕЙН В СБОРЕ</t>
-  </si>
-  <si>
-    <t>8АТ-9600-700</t>
-  </si>
-  <si>
-    <t>НАРУЖНАЯ ПОДВЕСКА (опциональное оборудование)</t>
-  </si>
-  <si>
-    <t>8МТ-1280-100</t>
-  </si>
-  <si>
-    <t>АГБ-3К-3С</t>
-  </si>
-  <si>
-    <t>АВИАГОРИЗОНТ</t>
-  </si>
-  <si>
-    <t>АГБ-96Д 6Ш2.511.018-02</t>
-  </si>
-  <si>
-    <t>АГБ-96Д-С 6Ш2.511.018-22</t>
-  </si>
-  <si>
-    <t>АГБ-96Р 6Ш2.511.018</t>
-  </si>
-  <si>
-    <t>АГБ-96Р-С 6Ш2.511.018-13</t>
-  </si>
-  <si>
-    <t>АГБ-96Р-С 6Ш2.511.018-21</t>
-  </si>
-  <si>
-    <t>АК-50Т1 СЕРИЯ 3 14-950-390-01</t>
-  </si>
-  <si>
-    <t>КОМПРЕССОР</t>
-  </si>
-  <si>
-    <t>АРМ-406П ЦДКТ.462524.406-02</t>
-  </si>
-  <si>
-    <t>АРМ-406П ЦДКТ.462524.406</t>
-  </si>
-  <si>
-    <t>АВАРИЙНЫЙ РАДИОМАЯК</t>
-  </si>
-  <si>
-    <t>НР-40ВА 3102</t>
-  </si>
-  <si>
-    <t>НАСОС-РЕГУЛЯТОР</t>
-  </si>
-  <si>
-    <t>НАСОС-РЕГУЛЯТОР (двигатель ТВ2-117)</t>
-  </si>
-  <si>
-    <t>8АМТ.9611.000.903 (АМТ)</t>
-  </si>
-  <si>
-    <t>ПОДВЕСКА С ВЕСОИЗМЕРИТЕЛЕМ</t>
-  </si>
-  <si>
-    <t>8АТ-5104-405</t>
-  </si>
-  <si>
-    <t>КРОНШТЕЙН</t>
-  </si>
-  <si>
-    <t>8АМТ-5104-200-3-Д</t>
-  </si>
-  <si>
-    <t>8АМТ-5104-200-Д</t>
-  </si>
-  <si>
-    <t>ДЕТАЛИ ЗАБУСТЕРНОЙ ЧАСТИ УПРАВЛЕНИЯ</t>
-  </si>
-  <si>
-    <t>СВ-78БА 0780859090-06</t>
-  </si>
-  <si>
-    <t>СВ-78БА 0780859090-05</t>
-  </si>
-  <si>
-    <t>СТАРТЕР ВОЗДУШНЫЙ</t>
-  </si>
-  <si>
-    <t>НР-3ВМ 3184.000</t>
-  </si>
-  <si>
-    <t>НР-3ВМ-Т 3184.000-03</t>
-  </si>
-  <si>
-    <t>8МТ-5104-200</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Два лимита</t>
-  </si>
-  <si>
-    <t>second_ll</t>
+    <t>8АТ-5104-305-3</t>
+  </si>
+  <si>
+    <t>8А-5104-305</t>
   </si>
 </sst>
 </file>
@@ -944,6 +954,12 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -953,15 +969,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -979,9 +989,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1019,9 +1029,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,9 +1064,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,9 +1116,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1265,40 +1309,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="59" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="59" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="67" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" customWidth="1"/>
-    <col min="26" max="31" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="59" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" customWidth="1"/>
+    <col min="26" max="31" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1314,15 +1358,15 @@
       <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="80"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>47</v>
@@ -1357,12 +1401,12 @@
       <c r="T1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="80"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="V1" s="82"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1432,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>49</v>
@@ -1430,7 +1474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
@@ -1486,7 +1530,7 @@
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -1542,7 +1586,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
@@ -1598,7 +1642,7 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
@@ -1654,7 +1698,7 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -1710,7 +1754,7 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>64</v>
       </c>
@@ -1766,7 +1810,7 @@
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
@@ -1820,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
@@ -1874,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
@@ -1928,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -1982,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -2036,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -2090,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
@@ -2144,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -2198,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
@@ -2370,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -2430,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
@@ -2488,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -2544,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -2596,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
@@ -2648,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
@@ -2704,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
@@ -2760,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -2820,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -2880,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
@@ -2936,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
@@ -2996,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -3050,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -3110,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -3135,7 +3179,7 @@
       <c r="H33" s="56">
         <v>0</v>
       </c>
-      <c r="I33" s="82"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
       <c r="L33" s="30"/>
@@ -3164,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -3278,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>70</v>
       </c>
@@ -3338,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>71</v>
       </c>
@@ -3398,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>42</v>
       </c>
@@ -3458,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
@@ -3514,7 +3558,7 @@
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="68" t="s">
         <v>77</v>
       </c>
@@ -3539,7 +3583,7 @@
       <c r="H40" s="77">
         <v>0</v>
       </c>
-      <c r="I40" s="83"/>
+      <c r="I40" s="80"/>
       <c r="J40" s="69"/>
       <c r="K40" s="69"/>
       <c r="L40" s="30">
@@ -3577,7 +3621,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="68" t="s">
         <v>78</v>
       </c>
@@ -3602,7 +3646,7 @@
       <c r="H41" s="77">
         <v>0</v>
       </c>
-      <c r="I41" s="83"/>
+      <c r="I41" s="80"/>
       <c r="J41" s="69"/>
       <c r="K41" s="69"/>
       <c r="L41" s="30">
@@ -3640,7 +3684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68" t="s">
         <v>80</v>
       </c>
@@ -3665,7 +3709,7 @@
       <c r="H42" s="77">
         <v>0</v>
       </c>
-      <c r="I42" s="83"/>
+      <c r="I42" s="80"/>
       <c r="J42" s="69"/>
       <c r="K42" s="69"/>
       <c r="L42" s="30">
@@ -3703,7 +3747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
         <v>81</v>
       </c>
@@ -3728,7 +3772,7 @@
       <c r="H43" s="77">
         <v>0</v>
       </c>
-      <c r="I43" s="83"/>
+      <c r="I43" s="80"/>
       <c r="J43" s="69"/>
       <c r="K43" s="69"/>
       <c r="L43" s="30">
@@ -3762,9 +3806,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="69">
         <v>1</v>
@@ -3787,7 +3831,7 @@
       <c r="H44" s="77">
         <v>0</v>
       </c>
-      <c r="I44" s="83"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="69"/>
       <c r="K44" s="69"/>
       <c r="L44" s="30">
@@ -3818,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="69">
         <v>1</v>
@@ -3846,7 +3890,7 @@
       <c r="H45" s="77">
         <v>0</v>
       </c>
-      <c r="I45" s="83"/>
+      <c r="I45" s="80"/>
       <c r="J45" s="69"/>
       <c r="K45" s="69"/>
       <c r="L45" s="30">
@@ -3877,12 +3921,12 @@
         <v>0</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="69">
         <v>1</v>
@@ -3905,7 +3949,7 @@
       <c r="H46" s="77">
         <v>0</v>
       </c>
-      <c r="I46" s="83"/>
+      <c r="I46" s="80"/>
       <c r="J46" s="69"/>
       <c r="K46" s="69"/>
       <c r="L46" s="30">
@@ -3936,12 +3980,12 @@
         <v>0</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="68" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B47" s="69">
         <v>1</v>
@@ -3964,7 +4008,7 @@
       <c r="H47" s="77">
         <v>0</v>
       </c>
-      <c r="I47" s="83"/>
+      <c r="I47" s="80"/>
       <c r="J47" s="69"/>
       <c r="K47" s="69"/>
       <c r="L47" s="30">
@@ -3999,12 +4043,12 @@
         <v>0</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B48" s="69">
         <v>1</v>
@@ -4027,7 +4071,7 @@
       <c r="H48" s="77">
         <v>0</v>
       </c>
-      <c r="I48" s="83"/>
+      <c r="I48" s="80"/>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
       <c r="L48" s="30">
@@ -4053,7 +4097,7 @@
         <v>36088</v>
       </c>
       <c r="T48" s="71">
-        <v>577001</v>
+        <v>353633</v>
       </c>
       <c r="U48" s="23">
         <v>0</v>
@@ -4062,24 +4106,24 @@
         <v>0</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="68" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B49" s="69">
         <v>1</v>
       </c>
       <c r="C49" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="76">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E49" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="77">
         <v>0</v>
@@ -4090,29 +4134,33 @@
       <c r="H49" s="77">
         <v>0</v>
       </c>
-      <c r="I49" s="83"/>
+      <c r="I49" s="80"/>
       <c r="J49" s="69"/>
       <c r="K49" s="69"/>
       <c r="L49" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M49" s="69">
         <v>60</v>
       </c>
       <c r="N49" s="71">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="O49" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P49" s="72"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="71"/>
+      <c r="Q49" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R49" s="71">
+        <v>2000</v>
+      </c>
       <c r="S49" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T49" s="71">
-        <v>4681529</v>
+        <v>353633</v>
       </c>
       <c r="U49" s="23">
         <v>0</v>
@@ -4121,18 +4169,18 @@
         <v>0</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="68" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B50" s="69">
         <v>1</v>
       </c>
       <c r="C50" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="76">
         <v>96</v>
@@ -4149,33 +4197,33 @@
       <c r="H50" s="77">
         <v>0</v>
       </c>
-      <c r="I50" s="83"/>
+      <c r="I50" s="80"/>
       <c r="J50" s="69"/>
       <c r="K50" s="69"/>
       <c r="L50" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M50" s="69">
         <v>60</v>
       </c>
       <c r="N50" s="71">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="O50" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P50" s="72"/>
       <c r="Q50" s="68">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="R50" s="71">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="S50" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T50" s="71">
-        <v>7013267</v>
+        <v>353633</v>
       </c>
       <c r="U50" s="23">
         <v>0</v>
@@ -4184,24 +4232,24 @@
         <v>0</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="68" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B51" s="69">
         <v>1</v>
       </c>
       <c r="C51" s="69">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" s="76">
         <v>96</v>
       </c>
       <c r="E51" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="77">
         <v>0</v>
@@ -4212,29 +4260,33 @@
       <c r="H51" s="77">
         <v>0</v>
       </c>
-      <c r="I51" s="83"/>
+      <c r="I51" s="80"/>
       <c r="J51" s="69"/>
       <c r="K51" s="69"/>
       <c r="L51" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M51" s="69">
         <v>60</v>
       </c>
       <c r="N51" s="71">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="O51" s="68">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="P51" s="72"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="71"/>
+      <c r="Q51" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R51" s="71">
+        <v>2000</v>
+      </c>
       <c r="S51" s="71">
-        <v>28389</v>
+        <v>36088</v>
       </c>
       <c r="T51" s="71">
-        <v>2491787</v>
+        <v>577001</v>
       </c>
       <c r="U51" s="23">
         <v>0</v>
@@ -4243,21 +4295,21 @@
         <v>0</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="68" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B52" s="69">
         <v>1</v>
       </c>
       <c r="C52" s="69">
-        <v>34</v>
-      </c>
-      <c r="D52" s="69">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="D52" s="76">
+        <v>32</v>
       </c>
       <c r="E52" s="70">
         <v>0</v>
@@ -4271,7 +4323,7 @@
       <c r="H52" s="77">
         <v>0</v>
       </c>
-      <c r="I52" s="83"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="69"/>
       <c r="K52" s="69"/>
       <c r="L52" s="30">
@@ -4280,18 +4332,20 @@
       <c r="M52" s="69">
         <v>60</v>
       </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="68"/>
+      <c r="N52" s="71">
+        <v>8250</v>
+      </c>
+      <c r="O52" s="68">
+        <v>3000</v>
+      </c>
       <c r="P52" s="72"/>
-      <c r="Q52" s="68">
-        <v>12000</v>
-      </c>
+      <c r="Q52" s="68"/>
       <c r="R52" s="71"/>
       <c r="S52" s="71">
-        <v>28389</v>
+        <v>332032</v>
       </c>
       <c r="T52" s="71">
-        <v>6664255</v>
+        <v>4681529</v>
       </c>
       <c r="U52" s="23">
         <v>0</v>
@@ -4300,24 +4354,24 @@
         <v>0</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="69">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D53" s="76">
         <v>96</v>
       </c>
       <c r="E53" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="77">
         <v>0</v>
@@ -4328,37 +4382,33 @@
       <c r="H53" s="77">
         <v>0</v>
       </c>
-      <c r="I53" s="72">
-        <v>15000</v>
-      </c>
+      <c r="I53" s="80"/>
       <c r="J53" s="69"/>
       <c r="K53" s="69"/>
       <c r="L53" s="30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M53" s="69">
         <v>60</v>
       </c>
       <c r="N53" s="71">
-        <v>9000</v>
+        <v>60000</v>
       </c>
       <c r="O53" s="68">
         <v>3000</v>
       </c>
-      <c r="P53" s="72">
-        <v>5000</v>
-      </c>
+      <c r="P53" s="72"/>
       <c r="Q53" s="68">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="R53" s="71">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="S53" s="71">
-        <v>175980</v>
+        <v>332032</v>
       </c>
       <c r="T53" s="71">
-        <v>2352442.63</v>
+        <v>7013267</v>
       </c>
       <c r="U53" s="23">
         <v>0</v>
@@ -4367,21 +4417,21 @@
         <v>0</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="68" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B54" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="69">
-        <v>36</v>
-      </c>
-      <c r="D54" s="69">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="D54" s="76">
+        <v>96</v>
       </c>
       <c r="E54" s="70">
         <v>0</v>
@@ -4395,33 +4445,29 @@
       <c r="H54" s="77">
         <v>0</v>
       </c>
-      <c r="I54" s="72">
-        <v>12000</v>
-      </c>
+      <c r="I54" s="80"/>
       <c r="J54" s="69"/>
       <c r="K54" s="69"/>
       <c r="L54" s="30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M54" s="69">
         <v>60</v>
       </c>
-      <c r="N54" s="71"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="72">
-        <v>3000</v>
-      </c>
-      <c r="Q54" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R54" s="71">
+      <c r="N54" s="71">
+        <v>40</v>
+      </c>
+      <c r="O54" s="68">
         <v>1500</v>
       </c>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="71"/>
       <c r="S54" s="71">
-        <v>959786</v>
+        <v>28389</v>
       </c>
       <c r="T54" s="71">
-        <v>3929496</v>
+        <v>2491787</v>
       </c>
       <c r="U54" s="23">
         <v>0</v>
@@ -4430,18 +4476,18 @@
         <v>0</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B55" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="69">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" s="69">
         <v>64</v>
@@ -4458,33 +4504,27 @@
       <c r="H55" s="77">
         <v>0</v>
       </c>
-      <c r="I55" s="72">
-        <v>12000</v>
-      </c>
+      <c r="I55" s="80"/>
       <c r="J55" s="69"/>
       <c r="K55" s="69"/>
       <c r="L55" s="30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M55" s="69">
         <v>60</v>
       </c>
       <c r="N55" s="71"/>
       <c r="O55" s="68"/>
-      <c r="P55" s="72">
-        <v>3000</v>
-      </c>
+      <c r="P55" s="72"/>
       <c r="Q55" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R55" s="71">
-        <v>1500</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="R55" s="71"/>
       <c r="S55" s="71">
-        <v>959786</v>
+        <v>28389</v>
       </c>
       <c r="T55" s="71">
-        <v>4123075</v>
+        <v>6664255</v>
       </c>
       <c r="U55" s="23">
         <v>0</v>
@@ -4493,21 +4533,21 @@
         <v>0</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B56" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="69">
-        <v>37</v>
-      </c>
-      <c r="D56" s="69">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="D56" s="76">
+        <v>96</v>
       </c>
       <c r="E56" s="70">
         <v>0</v>
@@ -4522,32 +4562,36 @@
         <v>0</v>
       </c>
       <c r="I56" s="72">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="J56" s="69"/>
       <c r="K56" s="69"/>
       <c r="L56" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M56" s="69">
         <v>60</v>
       </c>
-      <c r="N56" s="71"/>
-      <c r="O56" s="68"/>
+      <c r="N56" s="71">
+        <v>9000</v>
+      </c>
+      <c r="O56" s="68">
+        <v>3000</v>
+      </c>
       <c r="P56" s="72">
+        <v>5000</v>
+      </c>
+      <c r="Q56" s="68">
+        <v>9000</v>
+      </c>
+      <c r="R56" s="71">
         <v>3000</v>
       </c>
-      <c r="Q56" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R56" s="71">
-        <v>1500</v>
-      </c>
       <c r="S56" s="71">
-        <v>959786</v>
+        <v>175980</v>
       </c>
       <c r="T56" s="71">
-        <v>3665106</v>
+        <v>2352442.63</v>
       </c>
       <c r="U56" s="23">
         <v>0</v>
@@ -4556,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="W56" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="68" t="s">
-        <v>96</v>
-      </c>
       <c r="B57" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="69">
         <v>64</v>
@@ -4603,14 +4647,14 @@
       <c r="Q57" s="68">
         <v>6000</v>
       </c>
-      <c r="R57" s="68">
-        <v>6000</v>
+      <c r="R57" s="71">
+        <v>1500</v>
       </c>
       <c r="S57" s="71">
         <v>959786</v>
       </c>
       <c r="T57" s="71">
-        <v>3845796</v>
+        <v>3929496</v>
       </c>
       <c r="U57" s="23">
         <v>0</v>
@@ -4619,18 +4663,18 @@
         <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B58" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="69">
         <v>64</v>
@@ -4666,14 +4710,14 @@
       <c r="Q58" s="68">
         <v>6000</v>
       </c>
-      <c r="R58" s="68">
-        <v>6000</v>
+      <c r="R58" s="71">
+        <v>1500</v>
       </c>
       <c r="S58" s="71">
         <v>959786</v>
       </c>
       <c r="T58" s="71">
-        <v>3845796</v>
+        <v>4123075</v>
       </c>
       <c r="U58" s="23">
         <v>0</v>
@@ -4682,21 +4726,21 @@
         <v>0</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B59" s="69">
         <v>1</v>
       </c>
       <c r="C59" s="69">
-        <v>38</v>
-      </c>
-      <c r="D59" s="76">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D59" s="69">
+        <v>64</v>
       </c>
       <c r="E59" s="70">
         <v>0</v>
@@ -4710,33 +4754,33 @@
       <c r="H59" s="77">
         <v>0</v>
       </c>
-      <c r="I59" s="83"/>
+      <c r="I59" s="72">
+        <v>12000</v>
+      </c>
       <c r="J59" s="69"/>
-      <c r="K59" s="74"/>
+      <c r="K59" s="69"/>
       <c r="L59" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M59" s="69">
         <v>60</v>
       </c>
-      <c r="N59" s="71">
-        <v>2250</v>
-      </c>
-      <c r="O59" s="68">
-        <v>750</v>
-      </c>
-      <c r="P59" s="72"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="72">
+        <v>3000</v>
+      </c>
       <c r="Q59" s="68">
-        <v>2250</v>
+        <v>6000</v>
       </c>
       <c r="R59" s="71">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="S59" s="71">
-        <v>148802</v>
+        <v>959786</v>
       </c>
       <c r="T59" s="71">
-        <v>404980</v>
+        <v>3665106</v>
       </c>
       <c r="U59" s="23">
         <v>0</v>
@@ -4745,132 +4789,148 @@
         <v>0</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B60" s="69">
         <v>1</v>
       </c>
       <c r="C60" s="69">
-        <v>39</v>
-      </c>
-      <c r="D60" s="76">
+        <v>37</v>
+      </c>
+      <c r="D60" s="69">
+        <v>64</v>
+      </c>
+      <c r="E60" s="70">
+        <v>0</v>
+      </c>
+      <c r="F60" s="77">
+        <v>0</v>
+      </c>
+      <c r="G60" s="77">
+        <v>0</v>
+      </c>
+      <c r="H60" s="77">
+        <v>0</v>
+      </c>
+      <c r="I60" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="30">
+        <v>14</v>
+      </c>
+      <c r="M60" s="69">
+        <v>60</v>
+      </c>
+      <c r="N60" s="71"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q60" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R60" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S60" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T60" s="71">
+        <v>3845796</v>
+      </c>
+      <c r="U60" s="23">
+        <v>0</v>
+      </c>
+      <c r="V60" s="23">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="70">
-        <v>0</v>
-      </c>
-      <c r="F60" s="77">
-        <v>0</v>
-      </c>
-      <c r="G60" s="77">
-        <v>0</v>
-      </c>
-      <c r="H60" s="77">
-        <v>0</v>
-      </c>
-      <c r="I60" s="83"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="71">
-        <v>7124</v>
-      </c>
-      <c r="O60" s="68"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="T60" s="71">
-        <v>1278575</v>
-      </c>
-      <c r="U60" s="23">
-        <v>0</v>
-      </c>
-      <c r="V60" s="23">
-        <v>0</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="68" t="s">
-        <v>101</v>
-      </c>
       <c r="B61" s="69">
         <v>1</v>
       </c>
       <c r="C61" s="69">
-        <v>39</v>
-      </c>
-      <c r="D61" s="76">
+        <v>37</v>
+      </c>
+      <c r="D61" s="69">
+        <v>64</v>
+      </c>
+      <c r="E61" s="70">
+        <v>0</v>
+      </c>
+      <c r="F61" s="77">
+        <v>0</v>
+      </c>
+      <c r="G61" s="77">
+        <v>0</v>
+      </c>
+      <c r="H61" s="77">
+        <v>0</v>
+      </c>
+      <c r="I61" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="30">
+        <v>14</v>
+      </c>
+      <c r="M61" s="69">
+        <v>60</v>
+      </c>
+      <c r="N61" s="71"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q61" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R61" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S61" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T61" s="71">
+        <v>3845796</v>
+      </c>
+      <c r="U61" s="23">
+        <v>0</v>
+      </c>
+      <c r="V61" s="23">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="69">
+        <v>1</v>
+      </c>
+      <c r="C62" s="69">
+        <v>38</v>
+      </c>
+      <c r="D62" s="76">
         <v>96</v>
       </c>
-      <c r="E61" s="70">
-        <v>0</v>
-      </c>
-      <c r="F61" s="77">
-        <v>0</v>
-      </c>
-      <c r="G61" s="77">
-        <v>0</v>
-      </c>
-      <c r="H61" s="77">
-        <v>0</v>
-      </c>
-      <c r="I61" s="83"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="71">
-        <v>7124</v>
-      </c>
-      <c r="O61" s="68"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="T61" s="71">
-        <v>1091750</v>
-      </c>
-      <c r="U61" s="23">
-        <v>0</v>
-      </c>
-      <c r="V61" s="23">
-        <v>0</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="69">
-        <v>2</v>
-      </c>
-      <c r="C62" s="69">
-        <v>40</v>
-      </c>
-      <c r="D62" s="69">
-        <v>32</v>
-      </c>
       <c r="E62" s="70">
         <v>0</v>
       </c>
@@ -4883,51 +4943,56 @@
       <c r="H62" s="77">
         <v>0</v>
       </c>
-      <c r="I62" s="83"/>
+      <c r="I62" s="80"/>
       <c r="J62" s="69"/>
       <c r="K62" s="74"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="75">
-        <v>180</v>
+      <c r="L62" s="30">
+        <v>12</v>
+      </c>
+      <c r="M62" s="69">
+        <v>60</v>
       </c>
       <c r="N62" s="71">
-        <v>12000</v>
+        <v>2250</v>
       </c>
       <c r="O62" s="68">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="P62" s="72"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="78">
-        <f>1400000/1.22</f>
-        <v>1147540.9836065574</v>
+      <c r="Q62" s="68">
+        <v>2250</v>
+      </c>
+      <c r="R62" s="71">
+        <v>750</v>
+      </c>
+      <c r="S62" s="71">
+        <v>148802</v>
       </c>
       <c r="T62" s="71">
-        <v>1000000</v>
-      </c>
-      <c r="U62" s="71">
-        <v>2000</v>
-      </c>
-      <c r="V62" s="71">
+        <v>404980</v>
+      </c>
+      <c r="U62" s="23">
+        <v>0</v>
+      </c>
+      <c r="V62" s="23">
         <v>0</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B63" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="69">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D63" s="76">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E63" s="70">
         <v>0</v>
@@ -4941,28 +5006,25 @@
       <c r="H63" s="77">
         <v>0</v>
       </c>
-      <c r="I63" s="83"/>
+      <c r="I63" s="80"/>
       <c r="J63" s="69"/>
       <c r="K63" s="74"/>
       <c r="L63" s="30"/>
-      <c r="M63" s="75">
-        <v>180</v>
-      </c>
-      <c r="N63" s="71"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="71">
+        <v>7124</v>
+      </c>
       <c r="O63" s="68"/>
       <c r="P63" s="72"/>
       <c r="Q63" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R63" s="71">
-        <v>1500</v>
-      </c>
-      <c r="S63" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <v>7124</v>
+      </c>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T63" s="71">
-        <v>4118223</v>
+        <v>1278575</v>
       </c>
       <c r="U63" s="23">
         <v>0</v>
@@ -4971,21 +5033,21 @@
         <v>0</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="68" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B64" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="69">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="76">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E64" s="70">
         <v>0</v>
@@ -4999,28 +5061,25 @@
       <c r="H64" s="77">
         <v>0</v>
       </c>
-      <c r="I64" s="83"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="69"/>
       <c r="K64" s="74"/>
       <c r="L64" s="30"/>
-      <c r="M64" s="75">
-        <v>180</v>
-      </c>
-      <c r="N64" s="71"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="71">
+        <v>7124</v>
+      </c>
       <c r="O64" s="68"/>
       <c r="P64" s="72"/>
       <c r="Q64" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R64" s="71">
-        <v>1500</v>
-      </c>
-      <c r="S64" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <v>7124</v>
+      </c>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T64" s="71">
-        <v>4118223</v>
+        <v>1091750</v>
       </c>
       <c r="U64" s="23">
         <v>0</v>
@@ -5029,21 +5088,21 @@
         <v>0</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B65" s="69">
         <v>2</v>
       </c>
       <c r="C65" s="69">
-        <v>42</v>
-      </c>
-      <c r="D65" s="76">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="D65" s="69">
+        <v>32</v>
       </c>
       <c r="E65" s="70">
         <v>0</v>
@@ -5057,48 +5116,48 @@
       <c r="H65" s="77">
         <v>0</v>
       </c>
-      <c r="I65" s="83"/>
+      <c r="I65" s="80"/>
       <c r="J65" s="69"/>
       <c r="K65" s="74"/>
       <c r="L65" s="30"/>
       <c r="M65" s="75">
         <v>180</v>
       </c>
-      <c r="N65" s="71"/>
-      <c r="O65" s="68"/>
+      <c r="N65" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O65" s="68">
+        <v>1500</v>
+      </c>
       <c r="P65" s="72"/>
-      <c r="Q65" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R65" s="71">
+      <c r="Q65" s="68"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="78">
+        <f>1400000/1.22</f>
+        <v>1147540.9836065574</v>
+      </c>
+      <c r="T65" s="71">
+        <v>1000000</v>
+      </c>
+      <c r="U65" s="71">
         <v>2000</v>
       </c>
-      <c r="S65" s="78">
-        <f>5500000/1.2</f>
-        <v>4583333.333333334</v>
-      </c>
-      <c r="T65" s="71">
-        <v>8544000</v>
-      </c>
-      <c r="U65" s="23">
-        <v>0</v>
-      </c>
-      <c r="V65" s="23">
+      <c r="V65" s="71">
         <v>0</v>
       </c>
       <c r="W65" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B66" s="69">
         <v>2</v>
       </c>
       <c r="C66" s="69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66" s="76">
         <v>64</v>
@@ -5115,7 +5174,7 @@
       <c r="H66" s="77">
         <v>0</v>
       </c>
-      <c r="I66" s="83"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="69"/>
       <c r="K66" s="74"/>
       <c r="L66" s="30"/>
@@ -5129,23 +5188,197 @@
         <v>7500</v>
       </c>
       <c r="R66" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S66" s="78">
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
+      </c>
+      <c r="T66" s="71">
+        <v>4118223</v>
+      </c>
+      <c r="U66" s="23">
+        <v>0</v>
+      </c>
+      <c r="V66" s="23">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="69">
+        <v>2</v>
+      </c>
+      <c r="C67" s="69">
+        <v>41</v>
+      </c>
+      <c r="D67" s="76">
+        <v>64</v>
+      </c>
+      <c r="E67" s="70">
+        <v>0</v>
+      </c>
+      <c r="F67" s="77">
+        <v>0</v>
+      </c>
+      <c r="G67" s="77">
+        <v>0</v>
+      </c>
+      <c r="H67" s="77">
+        <v>0</v>
+      </c>
+      <c r="I67" s="80"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="75">
+        <v>180</v>
+      </c>
+      <c r="N67" s="71"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R67" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S67" s="78">
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
+      </c>
+      <c r="T67" s="71">
+        <v>4118223</v>
+      </c>
+      <c r="U67" s="23">
+        <v>0</v>
+      </c>
+      <c r="V67" s="23">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="69">
+        <v>2</v>
+      </c>
+      <c r="C68" s="69">
+        <v>42</v>
+      </c>
+      <c r="D68" s="76">
+        <v>64</v>
+      </c>
+      <c r="E68" s="70">
+        <v>0</v>
+      </c>
+      <c r="F68" s="77">
+        <v>0</v>
+      </c>
+      <c r="G68" s="77">
+        <v>0</v>
+      </c>
+      <c r="H68" s="77">
+        <v>0</v>
+      </c>
+      <c r="I68" s="80"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="75">
+        <v>180</v>
+      </c>
+      <c r="N68" s="71"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R68" s="71">
         <v>2000</v>
       </c>
-      <c r="S66" s="78">
+      <c r="S68" s="78">
         <f>5500000/1.2</f>
         <v>4583333.333333334</v>
       </c>
-      <c r="T66" s="71">
+      <c r="T68" s="71">
         <v>8544000</v>
       </c>
-      <c r="U66" s="23">
-        <v>0</v>
-      </c>
-      <c r="V66" s="23">
-        <v>0</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>104</v>
+      <c r="U68" s="23">
+        <v>0</v>
+      </c>
+      <c r="V68" s="23">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="69">
+        <v>42</v>
+      </c>
+      <c r="D69" s="76">
+        <v>64</v>
+      </c>
+      <c r="E69" s="70">
+        <v>0</v>
+      </c>
+      <c r="F69" s="77">
+        <v>0</v>
+      </c>
+      <c r="G69" s="77">
+        <v>0</v>
+      </c>
+      <c r="H69" s="77">
+        <v>0</v>
+      </c>
+      <c r="I69" s="80"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="75">
+        <v>180</v>
+      </c>
+      <c r="N69" s="71"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R69" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S69" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T69" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U69" s="23">
+        <v>0</v>
+      </c>
+      <c r="V69" s="23">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8C4706-3C62-4938-B710-721BBEC93C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFBC1B-8F75-470F-B361-54C2D2099DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -411,6 +411,27 @@
   </si>
   <si>
     <t>8А-5104-305</t>
+  </si>
+  <si>
+    <t>8А-5104-200-Д</t>
+  </si>
+  <si>
+    <t>НР-3ВМА-Т</t>
+  </si>
+  <si>
+    <t>НР-3ВМА</t>
+  </si>
+  <si>
+    <t>НР-3ВМ-Т</t>
+  </si>
+  <si>
+    <t>8АТ-6314-00</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>АРМ-406Н1</t>
   </si>
 </sst>
 </file>
@@ -726,7 +747,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -959,6 +980,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1309,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,10 +1382,10 @@
       <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
@@ -1401,10 +1425,10 @@
       <c r="T1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="U1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="82"/>
+      <c r="V1" s="83"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -3558,78 +3582,78 @@
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="55">
+        <v>1</v>
+      </c>
+      <c r="C40" s="64">
+        <v>11</v>
+      </c>
+      <c r="D40" s="52">
+        <v>96</v>
+      </c>
+      <c r="E40" s="55">
+        <v>0</v>
+      </c>
+      <c r="F40" s="55">
+        <v>0</v>
+      </c>
+      <c r="G40" s="55">
+        <v>0</v>
+      </c>
+      <c r="H40" s="55">
+        <v>0</v>
+      </c>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="49">
+        <v>10</v>
+      </c>
+      <c r="M40" s="55">
+        <v>60</v>
+      </c>
+      <c r="N40" s="64">
+        <v>12000</v>
+      </c>
+      <c r="O40" s="64">
+        <v>1500</v>
+      </c>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64">
+        <v>12000</v>
+      </c>
+      <c r="R40" s="64">
+        <v>1500</v>
+      </c>
+      <c r="S40" s="55">
+        <v>263072.79652163608</v>
+      </c>
+      <c r="T40" s="64">
+        <v>273606.30000000005</v>
+      </c>
+      <c r="U40" s="64">
+        <v>0</v>
+      </c>
+      <c r="V40" s="64">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="69">
-        <v>1</v>
-      </c>
-      <c r="C40" s="69">
+      <c r="B41" s="69">
+        <v>1</v>
+      </c>
+      <c r="C41" s="69">
         <v>25</v>
-      </c>
-      <c r="D40" s="76">
-        <v>96</v>
-      </c>
-      <c r="E40" s="70">
-        <v>0</v>
-      </c>
-      <c r="F40" s="77">
-        <v>0</v>
-      </c>
-      <c r="G40" s="77">
-        <v>0</v>
-      </c>
-      <c r="H40" s="77">
-        <v>0</v>
-      </c>
-      <c r="I40" s="80"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="30">
-        <v>16</v>
-      </c>
-      <c r="M40" s="69">
-        <v>60</v>
-      </c>
-      <c r="N40" s="71">
-        <v>26000</v>
-      </c>
-      <c r="O40" s="68">
-        <v>6000</v>
-      </c>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="71">
-        <v>26000</v>
-      </c>
-      <c r="R40" s="68">
-        <v>6000</v>
-      </c>
-      <c r="S40" s="71">
-        <v>77419</v>
-      </c>
-      <c r="T40" s="71">
-        <v>7493325</v>
-      </c>
-      <c r="U40" s="23">
-        <v>0</v>
-      </c>
-      <c r="V40" s="23">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="69">
-        <v>1</v>
-      </c>
-      <c r="C41" s="69">
-        <v>26</v>
       </c>
       <c r="D41" s="76">
         <v>96</v>
@@ -3661,17 +3685,17 @@
       <c r="O41" s="68">
         <v>6000</v>
       </c>
-      <c r="P41" s="73"/>
+      <c r="P41" s="72"/>
       <c r="Q41" s="71">
         <v>26000</v>
       </c>
       <c r="R41" s="68">
         <v>6000</v>
       </c>
-      <c r="S41" s="73">
+      <c r="S41" s="71">
         <v>77419</v>
       </c>
-      <c r="T41" s="73">
+      <c r="T41" s="71">
         <v>7493325</v>
       </c>
       <c r="U41" s="23">
@@ -3686,13 +3710,13 @@
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="69">
         <v>1</v>
       </c>
       <c r="C42" s="69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="76">
         <v>96</v>
@@ -3724,18 +3748,18 @@
       <c r="O42" s="68">
         <v>6000</v>
       </c>
-      <c r="P42" s="72"/>
+      <c r="P42" s="73"/>
       <c r="Q42" s="71">
         <v>26000</v>
       </c>
       <c r="R42" s="68">
         <v>6000</v>
       </c>
-      <c r="S42" s="71">
-        <v>89355</v>
-      </c>
-      <c r="T42" s="71">
-        <v>9613885</v>
+      <c r="S42" s="73">
+        <v>77419</v>
+      </c>
+      <c r="T42" s="73">
+        <v>7493325</v>
       </c>
       <c r="U42" s="23">
         <v>0</v>
@@ -3744,21 +3768,21 @@
         <v>0</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="69">
         <v>1</v>
       </c>
       <c r="C43" s="69">
-        <v>28</v>
-      </c>
-      <c r="D43" s="69">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D43" s="76">
+        <v>96</v>
       </c>
       <c r="E43" s="70">
         <v>0</v>
@@ -3776,25 +3800,29 @@
       <c r="J43" s="69"/>
       <c r="K43" s="69"/>
       <c r="L43" s="30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M43" s="69">
         <v>60</v>
       </c>
       <c r="N43" s="71">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="O43" s="68">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P43" s="72"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="71"/>
+      <c r="Q43" s="71">
+        <v>26000</v>
+      </c>
+      <c r="R43" s="68">
+        <v>6000</v>
+      </c>
       <c r="S43" s="71">
-        <v>44250</v>
+        <v>89355</v>
       </c>
       <c r="T43" s="71">
-        <v>1456980</v>
+        <v>9613885</v>
       </c>
       <c r="U43" s="23">
         <v>0</v>
@@ -3803,20 +3831,20 @@
         <v>0</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="68" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B44" s="69">
         <v>1</v>
       </c>
       <c r="C44" s="69">
-        <v>29</v>
-      </c>
-      <c r="D44" s="69">
+        <v>28</v>
+      </c>
+      <c r="D44" s="70">
         <v>64</v>
       </c>
       <c r="E44" s="70">
@@ -3840,20 +3868,20 @@
       <c r="M44" s="69">
         <v>60</v>
       </c>
-      <c r="N44" s="71"/>
-      <c r="O44" s="68"/>
+      <c r="N44" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O44" s="68">
+        <v>2000</v>
+      </c>
       <c r="P44" s="72"/>
-      <c r="Q44" s="68">
-        <v>5500</v>
-      </c>
-      <c r="R44" s="71">
-        <v>2000</v>
-      </c>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="71"/>
       <c r="S44" s="71">
         <v>44250</v>
       </c>
       <c r="T44" s="71">
-        <v>2207605</v>
+        <v>1456980</v>
       </c>
       <c r="U44" s="23">
         <v>0</v>
@@ -3862,20 +3890,20 @@
         <v>0</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="68" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B45" s="69">
         <v>1</v>
       </c>
       <c r="C45" s="69">
-        <v>30</v>
-      </c>
-      <c r="D45" s="69">
+        <v>28</v>
+      </c>
+      <c r="D45" s="70">
         <v>64</v>
       </c>
       <c r="E45" s="70">
@@ -3899,20 +3927,20 @@
       <c r="M45" s="69">
         <v>60</v>
       </c>
-      <c r="N45" s="71"/>
-      <c r="O45" s="68"/>
+      <c r="N45" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O45" s="68">
+        <v>2000</v>
+      </c>
       <c r="P45" s="72"/>
-      <c r="Q45" s="68">
-        <v>5500</v>
-      </c>
-      <c r="R45" s="71">
-        <v>2000</v>
-      </c>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="71"/>
       <c r="S45" s="71">
         <v>44250</v>
       </c>
       <c r="T45" s="71">
-        <v>613492</v>
+        <v>1456980</v>
       </c>
       <c r="U45" s="23">
         <v>0</v>
@@ -3920,19 +3948,17 @@
       <c r="V45" s="23">
         <v>0</v>
       </c>
-      <c r="W45" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="68" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B46" s="69">
         <v>1</v>
       </c>
       <c r="C46" s="69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="69">
         <v>64</v>
@@ -3971,7 +3997,7 @@
         <v>44250</v>
       </c>
       <c r="T46" s="71">
-        <v>613492</v>
+        <v>2207605</v>
       </c>
       <c r="U46" s="23">
         <v>0</v>
@@ -3985,19 +4011,19 @@
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="68" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B47" s="69">
         <v>1</v>
       </c>
       <c r="C47" s="69">
-        <v>31</v>
-      </c>
-      <c r="D47" s="76">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="D47" s="69">
+        <v>64</v>
       </c>
       <c r="E47" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="77">
         <v>0</v>
@@ -4012,17 +4038,13 @@
       <c r="J47" s="69"/>
       <c r="K47" s="69"/>
       <c r="L47" s="30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M47" s="69">
         <v>60</v>
       </c>
-      <c r="N47" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O47" s="68">
-        <v>2000</v>
-      </c>
+      <c r="N47" s="71"/>
+      <c r="O47" s="68"/>
       <c r="P47" s="72"/>
       <c r="Q47" s="68">
         <v>5500</v>
@@ -4031,10 +4053,10 @@
         <v>2000</v>
       </c>
       <c r="S47" s="71">
-        <v>36088</v>
+        <v>44250</v>
       </c>
       <c r="T47" s="71">
-        <v>353633</v>
+        <v>613492</v>
       </c>
       <c r="U47" s="23">
         <v>0</v>
@@ -4043,24 +4065,24 @@
         <v>0</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68" t="s">
-        <v>122</v>
+      <c r="A48" s="72" t="s">
+        <v>110</v>
       </c>
       <c r="B48" s="69">
         <v>1</v>
       </c>
       <c r="C48" s="69">
-        <v>31</v>
-      </c>
-      <c r="D48" s="76">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="D48" s="69">
+        <v>64</v>
       </c>
       <c r="E48" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="77">
         <v>0</v>
@@ -4075,17 +4097,13 @@
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
       <c r="L48" s="30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M48" s="69">
         <v>60</v>
       </c>
-      <c r="N48" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O48" s="68">
-        <v>2000</v>
-      </c>
+      <c r="N48" s="71"/>
+      <c r="O48" s="68"/>
       <c r="P48" s="72"/>
       <c r="Q48" s="68">
         <v>5500</v>
@@ -4094,10 +4112,10 @@
         <v>2000</v>
       </c>
       <c r="S48" s="71">
-        <v>36088</v>
+        <v>44250</v>
       </c>
       <c r="T48" s="71">
-        <v>353633</v>
+        <v>613492</v>
       </c>
       <c r="U48" s="23">
         <v>0</v>
@@ -4106,12 +4124,12 @@
         <v>0</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" s="69">
         <v>1</v>
@@ -4168,13 +4186,11 @@
       <c r="V49" s="23">
         <v>0</v>
       </c>
-      <c r="W49" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B50" s="69">
         <v>1</v>
@@ -4237,7 +4253,7 @@
     </row>
     <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="68" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B51" s="69">
         <v>1</v>
@@ -4286,7 +4302,7 @@
         <v>36088</v>
       </c>
       <c r="T51" s="71">
-        <v>577001</v>
+        <v>353633</v>
       </c>
       <c r="U51" s="23">
         <v>0</v>
@@ -4294,25 +4310,23 @@
       <c r="V51" s="23">
         <v>0</v>
       </c>
-      <c r="W51" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="68" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B52" s="69">
         <v>1</v>
       </c>
       <c r="C52" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="76">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E52" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="77">
         <v>0</v>
@@ -4327,25 +4341,29 @@
       <c r="J52" s="69"/>
       <c r="K52" s="69"/>
       <c r="L52" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M52" s="69">
         <v>60</v>
       </c>
       <c r="N52" s="71">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="O52" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P52" s="72"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="71"/>
+      <c r="Q52" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R52" s="71">
+        <v>2000</v>
+      </c>
       <c r="S52" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T52" s="71">
-        <v>4681529</v>
+        <v>353633</v>
       </c>
       <c r="U52" s="23">
         <v>0</v>
@@ -4353,19 +4371,17 @@
       <c r="V52" s="23">
         <v>0</v>
       </c>
-      <c r="W52" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="68" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B53" s="69">
         <v>1</v>
       </c>
       <c r="C53" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="76">
         <v>96</v>
@@ -4386,29 +4402,29 @@
       <c r="J53" s="69"/>
       <c r="K53" s="69"/>
       <c r="L53" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M53" s="69">
         <v>60</v>
       </c>
       <c r="N53" s="71">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="O53" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P53" s="72"/>
       <c r="Q53" s="68">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="R53" s="71">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="S53" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T53" s="71">
-        <v>7013267</v>
+        <v>577001</v>
       </c>
       <c r="U53" s="23">
         <v>0</v>
@@ -4417,21 +4433,21 @@
         <v>0</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B54" s="69">
         <v>1</v>
       </c>
       <c r="C54" s="69">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="76">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E54" s="70">
         <v>0</v>
@@ -4455,19 +4471,19 @@
         <v>60</v>
       </c>
       <c r="N54" s="71">
-        <v>40</v>
+        <v>8250</v>
       </c>
       <c r="O54" s="68">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="P54" s="72"/>
       <c r="Q54" s="68"/>
       <c r="R54" s="71"/>
       <c r="S54" s="71">
-        <v>28389</v>
+        <v>332032</v>
       </c>
       <c r="T54" s="71">
-        <v>2491787</v>
+        <v>4681529</v>
       </c>
       <c r="U54" s="23">
         <v>0</v>
@@ -4476,24 +4492,24 @@
         <v>0</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B55" s="69">
         <v>1</v>
       </c>
       <c r="C55" s="69">
-        <v>34</v>
-      </c>
-      <c r="D55" s="69">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="D55" s="76">
+        <v>96</v>
       </c>
       <c r="E55" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="77">
         <v>0</v>
@@ -4513,18 +4529,24 @@
       <c r="M55" s="69">
         <v>60</v>
       </c>
-      <c r="N55" s="71"/>
-      <c r="O55" s="68"/>
+      <c r="N55" s="71">
+        <v>60000</v>
+      </c>
+      <c r="O55" s="68">
+        <v>3000</v>
+      </c>
       <c r="P55" s="72"/>
       <c r="Q55" s="68">
-        <v>12000</v>
-      </c>
-      <c r="R55" s="71"/>
+        <v>4000</v>
+      </c>
+      <c r="R55" s="71">
+        <v>1500</v>
+      </c>
       <c r="S55" s="71">
-        <v>28389</v>
+        <v>332032</v>
       </c>
       <c r="T55" s="71">
-        <v>6664255</v>
+        <v>7013267</v>
       </c>
       <c r="U55" s="23">
         <v>0</v>
@@ -4533,18 +4555,18 @@
         <v>0</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="69">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D56" s="76">
         <v>96</v>
@@ -4561,37 +4583,29 @@
       <c r="H56" s="77">
         <v>0</v>
       </c>
-      <c r="I56" s="72">
-        <v>15000</v>
-      </c>
+      <c r="I56" s="80"/>
       <c r="J56" s="69"/>
       <c r="K56" s="69"/>
       <c r="L56" s="30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M56" s="69">
         <v>60</v>
       </c>
       <c r="N56" s="71">
-        <v>9000</v>
+        <v>40</v>
       </c>
       <c r="O56" s="68">
-        <v>3000</v>
-      </c>
-      <c r="P56" s="72">
-        <v>5000</v>
-      </c>
-      <c r="Q56" s="68">
-        <v>9000</v>
-      </c>
-      <c r="R56" s="71">
-        <v>3000</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="71"/>
       <c r="S56" s="71">
-        <v>175980</v>
+        <v>28389</v>
       </c>
       <c r="T56" s="71">
-        <v>2352442.63</v>
+        <v>2491787</v>
       </c>
       <c r="U56" s="23">
         <v>0</v>
@@ -4600,18 +4614,18 @@
         <v>0</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="68" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B57" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="69">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" s="69">
         <v>64</v>
@@ -4628,33 +4642,27 @@
       <c r="H57" s="77">
         <v>0</v>
       </c>
-      <c r="I57" s="72">
-        <v>12000</v>
-      </c>
+      <c r="I57" s="80"/>
       <c r="J57" s="69"/>
       <c r="K57" s="69"/>
       <c r="L57" s="30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M57" s="69">
         <v>60</v>
       </c>
       <c r="N57" s="71"/>
       <c r="O57" s="68"/>
-      <c r="P57" s="72">
-        <v>3000</v>
-      </c>
+      <c r="P57" s="72"/>
       <c r="Q57" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R57" s="71">
-        <v>1500</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="R57" s="71"/>
       <c r="S57" s="71">
-        <v>959786</v>
+        <v>28389</v>
       </c>
       <c r="T57" s="71">
-        <v>3929496</v>
+        <v>6664255</v>
       </c>
       <c r="U57" s="23">
         <v>0</v>
@@ -4663,21 +4671,21 @@
         <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B58" s="69">
         <v>2</v>
       </c>
       <c r="C58" s="69">
-        <v>36</v>
-      </c>
-      <c r="D58" s="69">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="D58" s="76">
+        <v>96</v>
       </c>
       <c r="E58" s="70">
         <v>0</v>
@@ -4692,32 +4700,36 @@
         <v>0</v>
       </c>
       <c r="I58" s="72">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="J58" s="69"/>
       <c r="K58" s="69"/>
       <c r="L58" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M58" s="69">
         <v>60</v>
       </c>
-      <c r="N58" s="71"/>
-      <c r="O58" s="68"/>
+      <c r="N58" s="71">
+        <v>9000</v>
+      </c>
+      <c r="O58" s="68">
+        <v>3000</v>
+      </c>
       <c r="P58" s="72">
+        <v>5000</v>
+      </c>
+      <c r="Q58" s="68">
+        <v>9000</v>
+      </c>
+      <c r="R58" s="71">
         <v>3000</v>
       </c>
-      <c r="Q58" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R58" s="71">
-        <v>1500</v>
-      </c>
       <c r="S58" s="71">
-        <v>959786</v>
+        <v>175980</v>
       </c>
       <c r="T58" s="71">
-        <v>4123075</v>
+        <v>2352442.63</v>
       </c>
       <c r="U58" s="23">
         <v>0</v>
@@ -4731,13 +4743,13 @@
     </row>
     <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="69">
         <v>64</v>
@@ -4780,7 +4792,7 @@
         <v>959786</v>
       </c>
       <c r="T59" s="71">
-        <v>3665106</v>
+        <v>3929496</v>
       </c>
       <c r="U59" s="23">
         <v>0</v>
@@ -4794,13 +4806,13 @@
     </row>
     <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="69">
         <v>64</v>
@@ -4836,14 +4848,14 @@
       <c r="Q60" s="68">
         <v>6000</v>
       </c>
-      <c r="R60" s="68">
-        <v>6000</v>
+      <c r="R60" s="71">
+        <v>1500</v>
       </c>
       <c r="S60" s="71">
         <v>959786</v>
       </c>
       <c r="T60" s="71">
-        <v>3845796</v>
+        <v>4123075</v>
       </c>
       <c r="U60" s="23">
         <v>0</v>
@@ -4857,10 +4869,10 @@
     </row>
     <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="69">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B61" s="70">
+        <v>2</v>
       </c>
       <c r="C61" s="69">
         <v>37</v>
@@ -4899,14 +4911,14 @@
       <c r="Q61" s="68">
         <v>6000</v>
       </c>
-      <c r="R61" s="68">
-        <v>6000</v>
+      <c r="R61" s="71">
+        <v>1500</v>
       </c>
       <c r="S61" s="71">
         <v>959786</v>
       </c>
       <c r="T61" s="71">
-        <v>3845796</v>
+        <v>3665106</v>
       </c>
       <c r="U61" s="23">
         <v>0</v>
@@ -4920,16 +4932,16 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="69">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B62" s="70">
+        <v>2</v>
       </c>
       <c r="C62" s="69">
-        <v>38</v>
-      </c>
-      <c r="D62" s="76">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D62" s="69">
+        <v>64</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -4943,33 +4955,33 @@
       <c r="H62" s="77">
         <v>0</v>
       </c>
-      <c r="I62" s="80"/>
+      <c r="I62" s="72">
+        <v>12000</v>
+      </c>
       <c r="J62" s="69"/>
-      <c r="K62" s="74"/>
+      <c r="K62" s="69"/>
       <c r="L62" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M62" s="69">
         <v>60</v>
       </c>
-      <c r="N62" s="71">
-        <v>2250</v>
-      </c>
-      <c r="O62" s="68">
-        <v>750</v>
-      </c>
-      <c r="P62" s="72"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="72">
+        <v>3000</v>
+      </c>
       <c r="Q62" s="68">
-        <v>2250</v>
-      </c>
-      <c r="R62" s="71">
-        <v>750</v>
+        <v>6000</v>
+      </c>
+      <c r="R62" s="68">
+        <v>6000</v>
       </c>
       <c r="S62" s="71">
-        <v>148802</v>
+        <v>959786</v>
       </c>
       <c r="T62" s="71">
-        <v>404980</v>
+        <v>3845796</v>
       </c>
       <c r="U62" s="23">
         <v>0</v>
@@ -4978,21 +4990,21 @@
         <v>0</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="69">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="B63" s="70">
+        <v>2</v>
       </c>
       <c r="C63" s="69">
-        <v>39</v>
-      </c>
-      <c r="D63" s="76">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D63" s="69">
+        <v>64</v>
       </c>
       <c r="E63" s="70">
         <v>0</v>
@@ -5006,25 +5018,33 @@
       <c r="H63" s="77">
         <v>0</v>
       </c>
-      <c r="I63" s="80"/>
+      <c r="I63" s="72">
+        <v>12000</v>
+      </c>
       <c r="J63" s="69"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="71">
-        <v>7124</v>
-      </c>
+      <c r="K63" s="69"/>
+      <c r="L63" s="30">
+        <v>14</v>
+      </c>
+      <c r="M63" s="69">
+        <v>60</v>
+      </c>
+      <c r="N63" s="71"/>
       <c r="O63" s="68"/>
-      <c r="P63" s="72"/>
+      <c r="P63" s="72">
+        <v>3000</v>
+      </c>
       <c r="Q63" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71" t="s">
-        <v>118</v>
+        <v>6000</v>
+      </c>
+      <c r="R63" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S63" s="71">
+        <v>959786</v>
       </c>
       <c r="T63" s="71">
-        <v>1278575</v>
+        <v>3845796</v>
       </c>
       <c r="U63" s="23">
         <v>0</v>
@@ -5033,18 +5053,18 @@
         <v>0</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" s="69">
         <v>1</v>
       </c>
       <c r="C64" s="69">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" s="76">
         <v>96</v>
@@ -5064,22 +5084,30 @@
       <c r="I64" s="80"/>
       <c r="J64" s="69"/>
       <c r="K64" s="74"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="75"/>
+      <c r="L64" s="30">
+        <v>12</v>
+      </c>
+      <c r="M64" s="69">
+        <v>60</v>
+      </c>
       <c r="N64" s="71">
-        <v>7124</v>
-      </c>
-      <c r="O64" s="68"/>
+        <v>2250</v>
+      </c>
+      <c r="O64" s="68">
+        <v>750</v>
+      </c>
       <c r="P64" s="72"/>
       <c r="Q64" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71" t="s">
-        <v>118</v>
+        <v>2250</v>
+      </c>
+      <c r="R64" s="71">
+        <v>750</v>
+      </c>
+      <c r="S64" s="71">
+        <v>148802</v>
       </c>
       <c r="T64" s="71">
-        <v>1091750</v>
+        <v>404980</v>
       </c>
       <c r="U64" s="23">
         <v>0</v>
@@ -5088,21 +5116,21 @@
         <v>0</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B65" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="69">
-        <v>40</v>
-      </c>
-      <c r="D65" s="69">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D65" s="76">
+        <v>96</v>
       </c>
       <c r="E65" s="70">
         <v>0</v>
@@ -5120,47 +5148,44 @@
       <c r="J65" s="69"/>
       <c r="K65" s="74"/>
       <c r="L65" s="30"/>
-      <c r="M65" s="75">
-        <v>180</v>
-      </c>
+      <c r="M65" s="75"/>
       <c r="N65" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O65" s="68">
-        <v>1500</v>
-      </c>
+        <v>7124</v>
+      </c>
+      <c r="O65" s="68"/>
       <c r="P65" s="72"/>
-      <c r="Q65" s="68"/>
+      <c r="Q65" s="68">
+        <v>7124</v>
+      </c>
       <c r="R65" s="71"/>
-      <c r="S65" s="78">
-        <f>1400000/1.22</f>
-        <v>1147540.9836065574</v>
+      <c r="S65" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T65" s="71">
-        <v>1000000</v>
-      </c>
-      <c r="U65" s="71">
-        <v>2000</v>
-      </c>
-      <c r="V65" s="71">
+        <v>1278575</v>
+      </c>
+      <c r="U65" s="23">
+        <v>0</v>
+      </c>
+      <c r="V65" s="23">
         <v>0</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B66" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="69">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" s="76">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E66" s="70">
         <v>0</v>
@@ -5178,24 +5203,21 @@
       <c r="J66" s="69"/>
       <c r="K66" s="74"/>
       <c r="L66" s="30"/>
-      <c r="M66" s="75">
-        <v>180</v>
-      </c>
-      <c r="N66" s="71"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="71">
+        <v>7124</v>
+      </c>
       <c r="O66" s="68"/>
       <c r="P66" s="72"/>
       <c r="Q66" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R66" s="71">
-        <v>1500</v>
-      </c>
-      <c r="S66" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <v>7124</v>
+      </c>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T66" s="71">
-        <v>4118223</v>
+        <v>1091750</v>
       </c>
       <c r="U66" s="23">
         <v>0</v>
@@ -5204,21 +5226,21 @@
         <v>0</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="68" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B67" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="69">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67" s="76">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E67" s="70">
         <v>0</v>
@@ -5236,24 +5258,21 @@
       <c r="J67" s="69"/>
       <c r="K67" s="74"/>
       <c r="L67" s="30"/>
-      <c r="M67" s="75">
-        <v>180</v>
-      </c>
-      <c r="N67" s="71"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="71">
+        <v>7124</v>
+      </c>
       <c r="O67" s="68"/>
       <c r="P67" s="72"/>
       <c r="Q67" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R67" s="71">
-        <v>1500</v>
-      </c>
-      <c r="S67" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <v>7124</v>
+      </c>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T67" s="71">
-        <v>4118223</v>
+        <v>1091750</v>
       </c>
       <c r="U67" s="23">
         <v>0</v>
@@ -5261,22 +5280,20 @@
       <c r="V67" s="23">
         <v>0</v>
       </c>
-      <c r="W67" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="68" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B68" s="69">
         <v>2</v>
       </c>
       <c r="C68" s="69">
-        <v>42</v>
-      </c>
-      <c r="D68" s="76">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="D68" s="69">
+        <v>32</v>
       </c>
       <c r="E68" s="70">
         <v>0</v>
@@ -5297,41 +5314,41 @@
       <c r="M68" s="75">
         <v>180</v>
       </c>
-      <c r="N68" s="71"/>
-      <c r="O68" s="68"/>
+      <c r="N68" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O68" s="68">
+        <v>1500</v>
+      </c>
       <c r="P68" s="72"/>
-      <c r="Q68" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R68" s="71">
+      <c r="Q68" s="68"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="78">
+        <f>1400000/1.22</f>
+        <v>1147540.9836065574</v>
+      </c>
+      <c r="T68" s="71">
+        <v>1000000</v>
+      </c>
+      <c r="U68" s="71">
         <v>2000</v>
       </c>
-      <c r="S68" s="78">
-        <f>5500000/1.2</f>
-        <v>4583333.333333334</v>
-      </c>
-      <c r="T68" s="71">
-        <v>8544000</v>
-      </c>
-      <c r="U68" s="23">
-        <v>0</v>
-      </c>
-      <c r="V68" s="23">
+      <c r="V68" s="71">
         <v>0</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B69" s="69">
         <v>2</v>
       </c>
       <c r="C69" s="69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="76">
         <v>64</v>
@@ -5362,23 +5379,362 @@
         <v>7500</v>
       </c>
       <c r="R69" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S69" s="78">
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
+      </c>
+      <c r="T69" s="71">
+        <v>4118223</v>
+      </c>
+      <c r="U69" s="23">
+        <v>0</v>
+      </c>
+      <c r="V69" s="23">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="69">
+        <v>2</v>
+      </c>
+      <c r="C70" s="69">
+        <v>41</v>
+      </c>
+      <c r="D70" s="76">
+        <v>64</v>
+      </c>
+      <c r="E70" s="70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="77">
+        <v>0</v>
+      </c>
+      <c r="G70" s="77">
+        <v>0</v>
+      </c>
+      <c r="H70" s="77">
+        <v>0</v>
+      </c>
+      <c r="I70" s="80"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="75">
+        <v>180</v>
+      </c>
+      <c r="N70" s="71"/>
+      <c r="O70" s="68"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R70" s="71">
+        <v>1500</v>
+      </c>
+      <c r="S70" s="78">
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
+      </c>
+      <c r="T70" s="71">
+        <v>4118223</v>
+      </c>
+      <c r="U70" s="23">
+        <v>0</v>
+      </c>
+      <c r="V70" s="23">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="69">
+        <v>2</v>
+      </c>
+      <c r="C71" s="69">
+        <v>42</v>
+      </c>
+      <c r="D71" s="76">
+        <v>64</v>
+      </c>
+      <c r="E71" s="70">
+        <v>0</v>
+      </c>
+      <c r="F71" s="77">
+        <v>0</v>
+      </c>
+      <c r="G71" s="77">
+        <v>0</v>
+      </c>
+      <c r="H71" s="77">
+        <v>0</v>
+      </c>
+      <c r="I71" s="80"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="75">
+        <v>180</v>
+      </c>
+      <c r="N71" s="71"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R71" s="71">
         <v>2000</v>
       </c>
-      <c r="S69" s="78">
+      <c r="S71" s="78">
         <f>5500000/1.2</f>
         <v>4583333.333333334</v>
       </c>
-      <c r="T69" s="71">
+      <c r="T71" s="71">
         <v>8544000</v>
       </c>
-      <c r="U69" s="23">
-        <v>0</v>
-      </c>
-      <c r="V69" s="23">
-        <v>0</v>
-      </c>
-      <c r="W69" s="1" t="s">
+      <c r="U71" s="23">
+        <v>0</v>
+      </c>
+      <c r="V71" s="23">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="69">
+        <v>2</v>
+      </c>
+      <c r="C72" s="69">
+        <v>42</v>
+      </c>
+      <c r="D72" s="76">
+        <v>64</v>
+      </c>
+      <c r="E72" s="70">
+        <v>0</v>
+      </c>
+      <c r="F72" s="77">
+        <v>0</v>
+      </c>
+      <c r="G72" s="77">
+        <v>0</v>
+      </c>
+      <c r="H72" s="77">
+        <v>0</v>
+      </c>
+      <c r="I72" s="80"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="75">
+        <v>180</v>
+      </c>
+      <c r="N72" s="71"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R72" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S72" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T72" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U72" s="23">
+        <v>0</v>
+      </c>
+      <c r="V72" s="23">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="69">
+        <v>2</v>
+      </c>
+      <c r="C73" s="69">
+        <v>42</v>
+      </c>
+      <c r="D73" s="76">
+        <v>64</v>
+      </c>
+      <c r="E73" s="70">
+        <v>0</v>
+      </c>
+      <c r="F73" s="77">
+        <v>0</v>
+      </c>
+      <c r="G73" s="77">
+        <v>0</v>
+      </c>
+      <c r="H73" s="77">
+        <v>0</v>
+      </c>
+      <c r="I73" s="80"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="75">
+        <v>180</v>
+      </c>
+      <c r="N73" s="71"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R73" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S73" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T73" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U73" s="23">
+        <v>0</v>
+      </c>
+      <c r="V73" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="69">
+        <v>2</v>
+      </c>
+      <c r="C74" s="69">
+        <v>42</v>
+      </c>
+      <c r="D74" s="76">
+        <v>64</v>
+      </c>
+      <c r="E74" s="70">
+        <v>0</v>
+      </c>
+      <c r="F74" s="77">
+        <v>0</v>
+      </c>
+      <c r="G74" s="77">
+        <v>0</v>
+      </c>
+      <c r="H74" s="77">
+        <v>0</v>
+      </c>
+      <c r="I74" s="80"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="75">
+        <v>180</v>
+      </c>
+      <c r="N74" s="71"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R74" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S74" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T74" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U74" s="23">
+        <v>0</v>
+      </c>
+      <c r="V74" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="69">
+        <v>2</v>
+      </c>
+      <c r="C75" s="69">
+        <v>42</v>
+      </c>
+      <c r="D75" s="76">
+        <v>64</v>
+      </c>
+      <c r="E75" s="70">
+        <v>0</v>
+      </c>
+      <c r="F75" s="77">
+        <v>0</v>
+      </c>
+      <c r="G75" s="77">
+        <v>0</v>
+      </c>
+      <c r="H75" s="77">
+        <v>0</v>
+      </c>
+      <c r="I75" s="80"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="75">
+        <v>180</v>
+      </c>
+      <c r="N75" s="71"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R75" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S75" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T75" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U75" s="23">
+        <v>0</v>
+      </c>
+      <c r="V75" s="23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFBC1B-8F75-470F-B361-54C2D2099DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$V$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -432,12 +431,24 @@
   </si>
   <si>
     <t>АРМ-406Н1</t>
+  </si>
+  <si>
+    <t>8МТ.5104.200</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>8АТ-5104-200</t>
+  </si>
+  <si>
+    <t>172.5104.000-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,8 +1007,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1088,23 +1099,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1140,23 +1134,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1332,41 +1309,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:V67"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="59" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" customWidth="1"/>
-    <col min="26" max="31" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="59" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="67" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" customWidth="1"/>
+    <col min="26" max="31" width="5.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1407,7 @@
       </c>
       <c r="V1" s="83"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
@@ -1554,7 +1531,7 @@
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -1610,7 +1587,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
@@ -1666,7 +1643,7 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
@@ -1722,7 +1699,7 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -1778,7 +1755,7 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>64</v>
       </c>
@@ -1834,7 +1811,7 @@
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
@@ -1888,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
@@ -1942,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
@@ -1996,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -2050,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -2158,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
@@ -2212,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -2266,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2320,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -2380,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
@@ -2438,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -2498,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -2612,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -2664,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
@@ -2716,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
@@ -2828,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -2888,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -2948,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
@@ -3004,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
@@ -3064,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -3118,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -3178,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -3232,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>40</v>
       </c>
@@ -3292,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -3346,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>70</v>
       </c>
@@ -3406,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>71</v>
       </c>
@@ -3466,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>42</v>
       </c>
@@ -3526,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
@@ -3582,7 +3559,7 @@
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
     </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="81" t="s">
         <v>129</v>
       </c>
@@ -3645,7 +3622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="68" t="s">
         <v>77</v>
       </c>
@@ -3708,7 +3685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="68" t="s">
         <v>78</v>
       </c>
@@ -3771,7 +3748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="68" t="s">
         <v>80</v>
       </c>
@@ -3834,7 +3811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="68" t="s">
         <v>81</v>
       </c>
@@ -3893,9 +3870,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="68" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B45" s="69">
         <v>1</v>
@@ -3948,19 +3925,21 @@
       <c r="V45" s="23">
         <v>0</v>
       </c>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="68" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B46" s="69">
         <v>1</v>
       </c>
       <c r="C46" s="69">
-        <v>29</v>
-      </c>
-      <c r="D46" s="69">
+        <v>28</v>
+      </c>
+      <c r="D46" s="70">
         <v>64</v>
       </c>
       <c r="E46" s="70">
@@ -3984,20 +3963,20 @@
       <c r="M46" s="69">
         <v>60</v>
       </c>
-      <c r="N46" s="71"/>
-      <c r="O46" s="68"/>
+      <c r="N46" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O46" s="68">
+        <v>2000</v>
+      </c>
       <c r="P46" s="72"/>
-      <c r="Q46" s="68">
-        <v>5500</v>
-      </c>
-      <c r="R46" s="71">
-        <v>2000</v>
-      </c>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="71"/>
       <c r="S46" s="71">
         <v>44250</v>
       </c>
       <c r="T46" s="71">
-        <v>2207605</v>
+        <v>1456980</v>
       </c>
       <c r="U46" s="23">
         <v>0</v>
@@ -4005,19 +3984,17 @@
       <c r="V46" s="23">
         <v>0</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="68" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B47" s="69">
         <v>1</v>
       </c>
       <c r="C47" s="69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="69">
         <v>64</v>
@@ -4056,7 +4033,7 @@
         <v>44250</v>
       </c>
       <c r="T47" s="71">
-        <v>613492</v>
+        <v>2207605</v>
       </c>
       <c r="U47" s="23">
         <v>0</v>
@@ -4068,9 +4045,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72" t="s">
-        <v>110</v>
+    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="B48" s="69">
         <v>1</v>
@@ -4127,21 +4104,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68" t="s">
-        <v>121</v>
+    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="72" t="s">
+        <v>110</v>
       </c>
       <c r="B49" s="69">
         <v>1</v>
       </c>
       <c r="C49" s="69">
-        <v>31</v>
-      </c>
-      <c r="D49" s="76">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="D49" s="69">
+        <v>64</v>
       </c>
       <c r="E49" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="77">
         <v>0</v>
@@ -4156,17 +4133,13 @@
       <c r="J49" s="69"/>
       <c r="K49" s="69"/>
       <c r="L49" s="30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M49" s="69">
         <v>60</v>
       </c>
-      <c r="N49" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O49" s="68">
-        <v>2000</v>
-      </c>
+      <c r="N49" s="71"/>
+      <c r="O49" s="68"/>
       <c r="P49" s="72"/>
       <c r="Q49" s="68">
         <v>5500</v>
@@ -4175,10 +4148,10 @@
         <v>2000</v>
       </c>
       <c r="S49" s="71">
-        <v>36088</v>
+        <v>44250</v>
       </c>
       <c r="T49" s="71">
-        <v>353633</v>
+        <v>613492</v>
       </c>
       <c r="U49" s="23">
         <v>0</v>
@@ -4186,23 +4159,25 @@
       <c r="V49" s="23">
         <v>0</v>
       </c>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="68" t="s">
-        <v>122</v>
+      <c r="W49" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="B50" s="69">
         <v>1</v>
       </c>
       <c r="C50" s="69">
-        <v>31</v>
-      </c>
-      <c r="D50" s="76">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="D50" s="69">
+        <v>64</v>
       </c>
       <c r="E50" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="77">
         <v>0</v>
@@ -4217,17 +4192,13 @@
       <c r="J50" s="69"/>
       <c r="K50" s="69"/>
       <c r="L50" s="30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M50" s="69">
         <v>60</v>
       </c>
-      <c r="N50" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O50" s="68">
-        <v>2000</v>
-      </c>
+      <c r="N50" s="71"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="72"/>
       <c r="Q50" s="68">
         <v>5500</v>
@@ -4236,10 +4207,10 @@
         <v>2000</v>
       </c>
       <c r="S50" s="71">
-        <v>36088</v>
+        <v>44250</v>
       </c>
       <c r="T50" s="71">
-        <v>353633</v>
+        <v>613492</v>
       </c>
       <c r="U50" s="23">
         <v>0</v>
@@ -4248,24 +4219,24 @@
         <v>0</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="B51" s="69">
         <v>1</v>
       </c>
       <c r="C51" s="69">
-        <v>31</v>
-      </c>
-      <c r="D51" s="76">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="D51" s="69">
+        <v>64</v>
       </c>
       <c r="E51" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="77">
         <v>0</v>
@@ -4280,17 +4251,13 @@
       <c r="J51" s="69"/>
       <c r="K51" s="69"/>
       <c r="L51" s="30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M51" s="69">
         <v>60</v>
       </c>
-      <c r="N51" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O51" s="68">
-        <v>2000</v>
-      </c>
+      <c r="N51" s="71"/>
+      <c r="O51" s="68"/>
       <c r="P51" s="72"/>
       <c r="Q51" s="68">
         <v>5500</v>
@@ -4299,10 +4266,10 @@
         <v>2000</v>
       </c>
       <c r="S51" s="71">
-        <v>36088</v>
+        <v>44250</v>
       </c>
       <c r="T51" s="71">
-        <v>353633</v>
+        <v>613492</v>
       </c>
       <c r="U51" s="23">
         <v>0</v>
@@ -4310,11 +4277,13 @@
       <c r="V51" s="23">
         <v>0</v>
       </c>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W51" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B52" s="69">
         <v>1</v>
@@ -4373,9 +4342,9 @@
       </c>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="68" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B53" s="69">
         <v>1</v>
@@ -4424,7 +4393,7 @@
         <v>36088</v>
       </c>
       <c r="T53" s="71">
-        <v>577001</v>
+        <v>353633</v>
       </c>
       <c r="U53" s="23">
         <v>0</v>
@@ -4433,24 +4402,24 @@
         <v>0</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="68" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B54" s="69">
         <v>1</v>
       </c>
       <c r="C54" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="76">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E54" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="77">
         <v>0</v>
@@ -4465,25 +4434,29 @@
       <c r="J54" s="69"/>
       <c r="K54" s="69"/>
       <c r="L54" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M54" s="69">
         <v>60</v>
       </c>
       <c r="N54" s="71">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="O54" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P54" s="72"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="71"/>
+      <c r="Q54" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R54" s="71">
+        <v>2000</v>
+      </c>
       <c r="S54" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T54" s="71">
-        <v>4681529</v>
+        <v>353633</v>
       </c>
       <c r="U54" s="23">
         <v>0</v>
@@ -4491,19 +4464,17 @@
       <c r="V54" s="23">
         <v>0</v>
       </c>
-      <c r="W54" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="68" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B55" s="69">
         <v>1</v>
       </c>
       <c r="C55" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="76">
         <v>96</v>
@@ -4524,29 +4495,29 @@
       <c r="J55" s="69"/>
       <c r="K55" s="69"/>
       <c r="L55" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M55" s="69">
         <v>60</v>
       </c>
       <c r="N55" s="71">
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="O55" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P55" s="72"/>
       <c r="Q55" s="68">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="R55" s="71">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="S55" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T55" s="71">
-        <v>7013267</v>
+        <v>353633</v>
       </c>
       <c r="U55" s="23">
         <v>0</v>
@@ -4554,25 +4525,23 @@
       <c r="V55" s="23">
         <v>0</v>
       </c>
-      <c r="W55" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="68" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B56" s="69">
         <v>1</v>
       </c>
       <c r="C56" s="69">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D56" s="76">
         <v>96</v>
       </c>
       <c r="E56" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="77">
         <v>0</v>
@@ -4587,25 +4556,29 @@
       <c r="J56" s="69"/>
       <c r="K56" s="69"/>
       <c r="L56" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M56" s="69">
         <v>60</v>
       </c>
       <c r="N56" s="71">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="O56" s="68">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="P56" s="72"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="71"/>
+      <c r="Q56" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R56" s="71">
+        <v>2000</v>
+      </c>
       <c r="S56" s="71">
-        <v>28389</v>
+        <v>36088</v>
       </c>
       <c r="T56" s="71">
-        <v>2491787</v>
+        <v>577001</v>
       </c>
       <c r="U56" s="23">
         <v>0</v>
@@ -4614,21 +4587,21 @@
         <v>0</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="68" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B57" s="69">
         <v>1</v>
       </c>
       <c r="C57" s="69">
-        <v>34</v>
-      </c>
-      <c r="D57" s="69">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="D57" s="76">
+        <v>32</v>
       </c>
       <c r="E57" s="70">
         <v>0</v>
@@ -4651,18 +4624,20 @@
       <c r="M57" s="69">
         <v>60</v>
       </c>
-      <c r="N57" s="71"/>
-      <c r="O57" s="68"/>
+      <c r="N57" s="71">
+        <v>8250</v>
+      </c>
+      <c r="O57" s="68">
+        <v>3000</v>
+      </c>
       <c r="P57" s="72"/>
-      <c r="Q57" s="68">
-        <v>12000</v>
-      </c>
+      <c r="Q57" s="68"/>
       <c r="R57" s="71"/>
       <c r="S57" s="71">
-        <v>28389</v>
+        <v>332032</v>
       </c>
       <c r="T57" s="71">
-        <v>6664255</v>
+        <v>4681529</v>
       </c>
       <c r="U57" s="23">
         <v>0</v>
@@ -4671,24 +4646,24 @@
         <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="69">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D58" s="76">
         <v>96</v>
       </c>
       <c r="E58" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="77">
         <v>0</v>
@@ -4699,37 +4674,33 @@
       <c r="H58" s="77">
         <v>0</v>
       </c>
-      <c r="I58" s="72">
-        <v>15000</v>
-      </c>
+      <c r="I58" s="80"/>
       <c r="J58" s="69"/>
       <c r="K58" s="69"/>
       <c r="L58" s="30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M58" s="69">
         <v>60</v>
       </c>
       <c r="N58" s="71">
-        <v>9000</v>
+        <v>60000</v>
       </c>
       <c r="O58" s="68">
         <v>3000</v>
       </c>
-      <c r="P58" s="72">
-        <v>5000</v>
-      </c>
+      <c r="P58" s="72"/>
       <c r="Q58" s="68">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="R58" s="71">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="S58" s="71">
-        <v>175980</v>
+        <v>332032</v>
       </c>
       <c r="T58" s="71">
-        <v>2352442.63</v>
+        <v>7013267</v>
       </c>
       <c r="U58" s="23">
         <v>0</v>
@@ -4738,21 +4709,21 @@
         <v>0</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B59" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="69">
-        <v>36</v>
-      </c>
-      <c r="D59" s="69">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="D59" s="76">
+        <v>96</v>
       </c>
       <c r="E59" s="70">
         <v>0</v>
@@ -4766,33 +4737,29 @@
       <c r="H59" s="77">
         <v>0</v>
       </c>
-      <c r="I59" s="72">
-        <v>12000</v>
-      </c>
+      <c r="I59" s="80"/>
       <c r="J59" s="69"/>
       <c r="K59" s="69"/>
       <c r="L59" s="30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M59" s="69">
         <v>60</v>
       </c>
-      <c r="N59" s="71"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="72">
-        <v>3000</v>
-      </c>
-      <c r="Q59" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R59" s="71">
+      <c r="N59" s="71">
+        <v>40</v>
+      </c>
+      <c r="O59" s="68">
         <v>1500</v>
       </c>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="71"/>
       <c r="S59" s="71">
-        <v>959786</v>
+        <v>28389</v>
       </c>
       <c r="T59" s="71">
-        <v>3929496</v>
+        <v>2491787</v>
       </c>
       <c r="U59" s="23">
         <v>0</v>
@@ -4801,18 +4768,18 @@
         <v>0</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="68" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B60" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="69">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60" s="69">
         <v>64</v>
@@ -4829,33 +4796,27 @@
       <c r="H60" s="77">
         <v>0</v>
       </c>
-      <c r="I60" s="72">
-        <v>12000</v>
-      </c>
+      <c r="I60" s="80"/>
       <c r="J60" s="69"/>
       <c r="K60" s="69"/>
       <c r="L60" s="30">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M60" s="69">
         <v>60</v>
       </c>
       <c r="N60" s="71"/>
       <c r="O60" s="68"/>
-      <c r="P60" s="72">
-        <v>3000</v>
-      </c>
+      <c r="P60" s="72"/>
       <c r="Q60" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R60" s="71">
-        <v>1500</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="R60" s="71"/>
       <c r="S60" s="71">
-        <v>959786</v>
+        <v>28389</v>
       </c>
       <c r="T60" s="71">
-        <v>4123075</v>
+        <v>6664255</v>
       </c>
       <c r="U60" s="23">
         <v>0</v>
@@ -4864,21 +4825,21 @@
         <v>0</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="70">
+        <v>90</v>
+      </c>
+      <c r="B61" s="69">
         <v>2</v>
       </c>
       <c r="C61" s="69">
-        <v>37</v>
-      </c>
-      <c r="D61" s="69">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="D61" s="76">
+        <v>96</v>
       </c>
       <c r="E61" s="70">
         <v>0</v>
@@ -4893,32 +4854,36 @@
         <v>0</v>
       </c>
       <c r="I61" s="72">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="J61" s="69"/>
       <c r="K61" s="69"/>
       <c r="L61" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M61" s="69">
         <v>60</v>
       </c>
-      <c r="N61" s="71"/>
-      <c r="O61" s="68"/>
+      <c r="N61" s="71">
+        <v>9000</v>
+      </c>
+      <c r="O61" s="68">
+        <v>3000</v>
+      </c>
       <c r="P61" s="72">
+        <v>5000</v>
+      </c>
+      <c r="Q61" s="68">
+        <v>9000</v>
+      </c>
+      <c r="R61" s="71">
         <v>3000</v>
       </c>
-      <c r="Q61" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R61" s="71">
-        <v>1500</v>
-      </c>
       <c r="S61" s="71">
-        <v>959786</v>
+        <v>175980</v>
       </c>
       <c r="T61" s="71">
-        <v>3665106</v>
+        <v>2352442.63</v>
       </c>
       <c r="U61" s="23">
         <v>0</v>
@@ -4930,15 +4895,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="70">
+        <v>92</v>
+      </c>
+      <c r="B62" s="69">
         <v>2</v>
       </c>
       <c r="C62" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="69">
         <v>64</v>
@@ -4974,14 +4939,14 @@
       <c r="Q62" s="68">
         <v>6000</v>
       </c>
-      <c r="R62" s="68">
-        <v>6000</v>
+      <c r="R62" s="71">
+        <v>1500</v>
       </c>
       <c r="S62" s="71">
         <v>959786</v>
       </c>
       <c r="T62" s="71">
-        <v>3845796</v>
+        <v>3929496</v>
       </c>
       <c r="U62" s="23">
         <v>0</v>
@@ -4993,15 +4958,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="70">
+        <v>93</v>
+      </c>
+      <c r="B63" s="69">
         <v>2</v>
       </c>
       <c r="C63" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" s="69">
         <v>64</v>
@@ -5037,14 +5002,14 @@
       <c r="Q63" s="68">
         <v>6000</v>
       </c>
-      <c r="R63" s="68">
-        <v>6000</v>
+      <c r="R63" s="71">
+        <v>1500</v>
       </c>
       <c r="S63" s="71">
         <v>959786</v>
       </c>
       <c r="T63" s="71">
-        <v>3845796</v>
+        <v>4123075</v>
       </c>
       <c r="U63" s="23">
         <v>0</v>
@@ -5056,18 +5021,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="69">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B64" s="70">
+        <v>2</v>
       </c>
       <c r="C64" s="69">
-        <v>38</v>
-      </c>
-      <c r="D64" s="76">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D64" s="69">
+        <v>64</v>
       </c>
       <c r="E64" s="70">
         <v>0</v>
@@ -5081,33 +5046,33 @@
       <c r="H64" s="77">
         <v>0</v>
       </c>
-      <c r="I64" s="80"/>
+      <c r="I64" s="72">
+        <v>12000</v>
+      </c>
       <c r="J64" s="69"/>
-      <c r="K64" s="74"/>
+      <c r="K64" s="69"/>
       <c r="L64" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M64" s="69">
         <v>60</v>
       </c>
-      <c r="N64" s="71">
-        <v>2250</v>
-      </c>
-      <c r="O64" s="68">
-        <v>750</v>
-      </c>
-      <c r="P64" s="72"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="72">
+        <v>3000</v>
+      </c>
       <c r="Q64" s="68">
-        <v>2250</v>
+        <v>6000</v>
       </c>
       <c r="R64" s="71">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="S64" s="71">
-        <v>148802</v>
+        <v>959786</v>
       </c>
       <c r="T64" s="71">
-        <v>404980</v>
+        <v>3665106</v>
       </c>
       <c r="U64" s="23">
         <v>0</v>
@@ -5116,76 +5081,84 @@
         <v>0</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="69">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B65" s="70">
+        <v>2</v>
       </c>
       <c r="C65" s="69">
-        <v>39</v>
-      </c>
-      <c r="D65" s="76">
+        <v>37</v>
+      </c>
+      <c r="D65" s="69">
+        <v>64</v>
+      </c>
+      <c r="E65" s="70">
+        <v>0</v>
+      </c>
+      <c r="F65" s="77">
+        <v>0</v>
+      </c>
+      <c r="G65" s="77">
+        <v>0</v>
+      </c>
+      <c r="H65" s="77">
+        <v>0</v>
+      </c>
+      <c r="I65" s="72">
+        <v>12000</v>
+      </c>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="30">
+        <v>14</v>
+      </c>
+      <c r="M65" s="69">
+        <v>60</v>
+      </c>
+      <c r="N65" s="71"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="72">
+        <v>3000</v>
+      </c>
+      <c r="Q65" s="68">
+        <v>6000</v>
+      </c>
+      <c r="R65" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S65" s="71">
+        <v>959786</v>
+      </c>
+      <c r="T65" s="71">
+        <v>3845796</v>
+      </c>
+      <c r="U65" s="23">
+        <v>0</v>
+      </c>
+      <c r="V65" s="23">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="70">
-        <v>0</v>
-      </c>
-      <c r="F65" s="77">
-        <v>0</v>
-      </c>
-      <c r="G65" s="77">
-        <v>0</v>
-      </c>
-      <c r="H65" s="77">
-        <v>0</v>
-      </c>
-      <c r="I65" s="80"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="71">
-        <v>7124</v>
-      </c>
-      <c r="O65" s="68"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="T65" s="71">
-        <v>1278575</v>
-      </c>
-      <c r="U65" s="23">
-        <v>0</v>
-      </c>
-      <c r="V65" s="23">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="69">
-        <v>1</v>
+      <c r="B66" s="70">
+        <v>2</v>
       </c>
       <c r="C66" s="69">
-        <v>39</v>
-      </c>
-      <c r="D66" s="76">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D66" s="69">
+        <v>64</v>
       </c>
       <c r="E66" s="70">
         <v>0</v>
@@ -5199,25 +5172,33 @@
       <c r="H66" s="77">
         <v>0</v>
       </c>
-      <c r="I66" s="80"/>
+      <c r="I66" s="72">
+        <v>12000</v>
+      </c>
       <c r="J66" s="69"/>
-      <c r="K66" s="74"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="71">
-        <v>7124</v>
-      </c>
+      <c r="K66" s="69"/>
+      <c r="L66" s="30">
+        <v>14</v>
+      </c>
+      <c r="M66" s="69">
+        <v>60</v>
+      </c>
+      <c r="N66" s="71"/>
       <c r="O66" s="68"/>
-      <c r="P66" s="72"/>
+      <c r="P66" s="72">
+        <v>3000</v>
+      </c>
       <c r="Q66" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71" t="s">
-        <v>118</v>
+        <v>6000</v>
+      </c>
+      <c r="R66" s="68">
+        <v>6000</v>
+      </c>
+      <c r="S66" s="71">
+        <v>959786</v>
       </c>
       <c r="T66" s="71">
-        <v>1091750</v>
+        <v>3845796</v>
       </c>
       <c r="U66" s="23">
         <v>0</v>
@@ -5226,18 +5207,18 @@
         <v>0</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="68" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B67" s="69">
         <v>1</v>
       </c>
       <c r="C67" s="69">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" s="76">
         <v>96</v>
@@ -5257,22 +5238,30 @@
       <c r="I67" s="80"/>
       <c r="J67" s="69"/>
       <c r="K67" s="74"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="75"/>
+      <c r="L67" s="30">
+        <v>12</v>
+      </c>
+      <c r="M67" s="69">
+        <v>60</v>
+      </c>
       <c r="N67" s="71">
-        <v>7124</v>
-      </c>
-      <c r="O67" s="68"/>
+        <v>2250</v>
+      </c>
+      <c r="O67" s="68">
+        <v>750</v>
+      </c>
       <c r="P67" s="72"/>
       <c r="Q67" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71" t="s">
-        <v>118</v>
+        <v>2250</v>
+      </c>
+      <c r="R67" s="71">
+        <v>750</v>
+      </c>
+      <c r="S67" s="71">
+        <v>148802</v>
       </c>
       <c r="T67" s="71">
-        <v>1091750</v>
+        <v>404980</v>
       </c>
       <c r="U67" s="23">
         <v>0</v>
@@ -5280,20 +5269,22 @@
       <c r="V67" s="23">
         <v>0</v>
       </c>
-      <c r="W67" s="1"/>
-    </row>
-    <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W67" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="69">
-        <v>40</v>
-      </c>
-      <c r="D68" s="69">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D68" s="76">
+        <v>96</v>
       </c>
       <c r="E68" s="70">
         <v>0</v>
@@ -5311,47 +5302,44 @@
       <c r="J68" s="69"/>
       <c r="K68" s="74"/>
       <c r="L68" s="30"/>
-      <c r="M68" s="75">
-        <v>180</v>
-      </c>
+      <c r="M68" s="75"/>
       <c r="N68" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O68" s="68">
-        <v>1500</v>
-      </c>
+        <v>7124</v>
+      </c>
+      <c r="O68" s="68"/>
       <c r="P68" s="72"/>
-      <c r="Q68" s="68"/>
+      <c r="Q68" s="68">
+        <v>7124</v>
+      </c>
       <c r="R68" s="71"/>
-      <c r="S68" s="78">
-        <f>1400000/1.22</f>
-        <v>1147540.9836065574</v>
+      <c r="S68" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T68" s="71">
-        <v>1000000</v>
-      </c>
-      <c r="U68" s="71">
-        <v>2000</v>
-      </c>
-      <c r="V68" s="71">
+        <v>1278575</v>
+      </c>
+      <c r="U68" s="23">
+        <v>0</v>
+      </c>
+      <c r="V68" s="23">
         <v>0</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="68" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B69" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="69">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69" s="76">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E69" s="70">
         <v>0</v>
@@ -5369,24 +5357,21 @@
       <c r="J69" s="69"/>
       <c r="K69" s="74"/>
       <c r="L69" s="30"/>
-      <c r="M69" s="75">
-        <v>180</v>
-      </c>
-      <c r="N69" s="71"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="71">
+        <v>7124</v>
+      </c>
       <c r="O69" s="68"/>
       <c r="P69" s="72"/>
       <c r="Q69" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R69" s="71">
-        <v>1500</v>
-      </c>
-      <c r="S69" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <v>7124</v>
+      </c>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T69" s="71">
-        <v>4118223</v>
+        <v>1091750</v>
       </c>
       <c r="U69" s="23">
         <v>0</v>
@@ -5395,21 +5380,21 @@
         <v>0</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="68" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B70" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="69">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" s="76">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E70" s="70">
         <v>0</v>
@@ -5427,24 +5412,21 @@
       <c r="J70" s="69"/>
       <c r="K70" s="74"/>
       <c r="L70" s="30"/>
-      <c r="M70" s="75">
-        <v>180</v>
-      </c>
-      <c r="N70" s="71"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="71">
+        <v>7124</v>
+      </c>
       <c r="O70" s="68"/>
       <c r="P70" s="72"/>
       <c r="Q70" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R70" s="71">
-        <v>1500</v>
-      </c>
-      <c r="S70" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <v>7124</v>
+      </c>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T70" s="71">
-        <v>4118223</v>
+        <v>1091750</v>
       </c>
       <c r="U70" s="23">
         <v>0</v>
@@ -5452,22 +5434,20 @@
       <c r="V70" s="23">
         <v>0</v>
       </c>
-      <c r="W70" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="68" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B71" s="69">
         <v>2</v>
       </c>
       <c r="C71" s="69">
-        <v>42</v>
-      </c>
-      <c r="D71" s="76">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="D71" s="69">
+        <v>32</v>
       </c>
       <c r="E71" s="70">
         <v>0</v>
@@ -5488,41 +5468,41 @@
       <c r="M71" s="75">
         <v>180</v>
       </c>
-      <c r="N71" s="71"/>
-      <c r="O71" s="68"/>
+      <c r="N71" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O71" s="68">
+        <v>1500</v>
+      </c>
       <c r="P71" s="72"/>
-      <c r="Q71" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R71" s="71">
+      <c r="Q71" s="68"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="78">
+        <f>1400000/1.22</f>
+        <v>1147540.9836065574</v>
+      </c>
+      <c r="T71" s="71">
+        <v>1000000</v>
+      </c>
+      <c r="U71" s="71">
         <v>2000</v>
       </c>
-      <c r="S71" s="78">
-        <f>5500000/1.2</f>
-        <v>4583333.333333334</v>
-      </c>
-      <c r="T71" s="71">
-        <v>8544000</v>
-      </c>
-      <c r="U71" s="23">
-        <v>0</v>
-      </c>
-      <c r="V71" s="23">
+      <c r="V71" s="71">
         <v>0</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B72" s="69">
         <v>2</v>
       </c>
       <c r="C72" s="69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D72" s="76">
         <v>64</v>
@@ -5553,14 +5533,14 @@
         <v>7500</v>
       </c>
       <c r="R72" s="71">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="S72" s="78">
-        <f>5500000/1.2</f>
-        <v>4583333.333333334</v>
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
       </c>
       <c r="T72" s="71">
-        <v>8544000</v>
+        <v>4118223</v>
       </c>
       <c r="U72" s="23">
         <v>0</v>
@@ -5569,18 +5549,18 @@
         <v>0</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="68" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B73" s="69">
         <v>2</v>
       </c>
       <c r="C73" s="69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" s="76">
         <v>64</v>
@@ -5611,14 +5591,14 @@
         <v>7500</v>
       </c>
       <c r="R73" s="71">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="S73" s="78">
-        <f>5500000/1.2</f>
-        <v>4583333.333333334</v>
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
       </c>
       <c r="T73" s="71">
-        <v>8544000</v>
+        <v>4118223</v>
       </c>
       <c r="U73" s="23">
         <v>0</v>
@@ -5626,10 +5606,13 @@
       <c r="V73" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W73" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="68" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B74" s="69">
         <v>2</v>
@@ -5681,10 +5664,13 @@
       <c r="V74" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W74" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="68" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B75" s="69">
         <v>2</v>
@@ -5736,9 +5722,177 @@
       <c r="V75" s="23">
         <v>0</v>
       </c>
+      <c r="W75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="69">
+        <v>2</v>
+      </c>
+      <c r="C76" s="69">
+        <v>42</v>
+      </c>
+      <c r="D76" s="76">
+        <v>64</v>
+      </c>
+      <c r="E76" s="70">
+        <v>0</v>
+      </c>
+      <c r="F76" s="77">
+        <v>0</v>
+      </c>
+      <c r="G76" s="77">
+        <v>0</v>
+      </c>
+      <c r="H76" s="77">
+        <v>0</v>
+      </c>
+      <c r="I76" s="80"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="75">
+        <v>180</v>
+      </c>
+      <c r="N76" s="71"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R76" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S76" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T76" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U76" s="23">
+        <v>0</v>
+      </c>
+      <c r="V76" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="69">
+        <v>2</v>
+      </c>
+      <c r="C77" s="69">
+        <v>42</v>
+      </c>
+      <c r="D77" s="76">
+        <v>64</v>
+      </c>
+      <c r="E77" s="70">
+        <v>0</v>
+      </c>
+      <c r="F77" s="77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="77">
+        <v>0</v>
+      </c>
+      <c r="H77" s="77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="80"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="75">
+        <v>180</v>
+      </c>
+      <c r="N77" s="71"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R77" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S77" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T77" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U77" s="23">
+        <v>0</v>
+      </c>
+      <c r="V77" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="69">
+        <v>2</v>
+      </c>
+      <c r="C78" s="69">
+        <v>42</v>
+      </c>
+      <c r="D78" s="76">
+        <v>64</v>
+      </c>
+      <c r="E78" s="70">
+        <v>0</v>
+      </c>
+      <c r="F78" s="77">
+        <v>0</v>
+      </c>
+      <c r="G78" s="77">
+        <v>0</v>
+      </c>
+      <c r="H78" s="77">
+        <v>0</v>
+      </c>
+      <c r="I78" s="80"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="75">
+        <v>180</v>
+      </c>
+      <c r="N78" s="71"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R78" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S78" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T78" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U78" s="23">
+        <v>0</v>
+      </c>
+      <c r="V78" s="23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:V39"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="U1:V1"/>

--- a/data_input/master_data/MD_Сomponents.xlsx
+++ b/data_input/master_data/MD_Сomponents.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Агрегаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$V$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Агрегаты!$A$2:$V$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>172.5104.000-05</t>
+  </si>
+  <si>
+    <t>РШ-1600-00</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1003,6 +1006,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1310,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3323,69 +3329,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="39">
+        <v>1</v>
+      </c>
+      <c r="C36" s="27">
+        <v>9</v>
+      </c>
+      <c r="D36" s="30">
+        <v>64</v>
+      </c>
+      <c r="E36" s="56">
+        <v>0</v>
+      </c>
+      <c r="F36" s="56">
+        <v>0</v>
+      </c>
+      <c r="G36" s="56">
+        <v>0</v>
+      </c>
+      <c r="H36" s="56">
+        <v>0</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="39">
+        <v>120</v>
+      </c>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="24">
+        <v>12000</v>
+      </c>
+      <c r="R36" s="24">
+        <v>3000</v>
+      </c>
+      <c r="S36" s="24">
+        <v>1379980.37</v>
+      </c>
+      <c r="T36" s="24">
+        <v>3114824.35</v>
+      </c>
+      <c r="U36" s="24">
+        <v>0</v>
+      </c>
+      <c r="V36" s="24">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="34">
-        <v>1</v>
-      </c>
-      <c r="C36" s="29">
-        <v>10</v>
-      </c>
-      <c r="D36" s="35">
-        <v>96</v>
-      </c>
-      <c r="E36" s="58">
-        <v>0</v>
-      </c>
-      <c r="F36" s="58">
-        <v>0</v>
-      </c>
-      <c r="G36" s="58">
-        <v>0</v>
-      </c>
-      <c r="H36" s="58">
-        <v>0</v>
-      </c>
-      <c r="I36" s="58"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="30">
-        <v>9</v>
-      </c>
-      <c r="M36" s="34">
-        <v>90</v>
-      </c>
-      <c r="N36" s="29">
-        <v>9500</v>
-      </c>
-      <c r="O36" s="29">
-        <v>2000</v>
-      </c>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="29">
-        <v>9500</v>
-      </c>
-      <c r="R36" s="29">
-        <v>2000</v>
-      </c>
-      <c r="S36" s="34">
-        <v>135788.59716344613</v>
-      </c>
-      <c r="T36" s="29">
-        <v>2800000</v>
-      </c>
-      <c r="U36" s="29">
-        <v>0</v>
-      </c>
-      <c r="V36" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="B37" s="34">
         <v>1</v>
@@ -3443,257 +3446,254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="34">
+        <v>1</v>
+      </c>
+      <c r="C38" s="29">
+        <v>10</v>
+      </c>
+      <c r="D38" s="35">
+        <v>96</v>
+      </c>
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
+      <c r="F38" s="58">
+        <v>0</v>
+      </c>
+      <c r="G38" s="58">
+        <v>0</v>
+      </c>
+      <c r="H38" s="58">
+        <v>0</v>
+      </c>
+      <c r="I38" s="58"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="30">
+        <v>9</v>
+      </c>
+      <c r="M38" s="34">
+        <v>90</v>
+      </c>
+      <c r="N38" s="29">
+        <v>9500</v>
+      </c>
+      <c r="O38" s="29">
+        <v>2000</v>
+      </c>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="29">
+        <v>9500</v>
+      </c>
+      <c r="R38" s="29">
+        <v>2000</v>
+      </c>
+      <c r="S38" s="34">
+        <v>135788.59716344613</v>
+      </c>
+      <c r="T38" s="29">
+        <v>2800000</v>
+      </c>
+      <c r="U38" s="29">
+        <v>0</v>
+      </c>
+      <c r="V38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="37">
-        <v>1</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="B39" s="37">
+        <v>1</v>
+      </c>
+      <c r="C39" s="23">
         <v>11</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D39" s="38">
         <v>96</v>
       </c>
-      <c r="E38" s="55">
-        <v>0</v>
-      </c>
-      <c r="F38" s="55">
-        <v>0</v>
-      </c>
-      <c r="G38" s="55">
-        <v>0</v>
-      </c>
-      <c r="H38" s="55">
-        <v>0</v>
-      </c>
-      <c r="I38" s="55"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="30">
-        <v>10</v>
-      </c>
-      <c r="M38" s="37">
-        <v>60</v>
-      </c>
-      <c r="N38" s="23">
-        <v>12000</v>
-      </c>
-      <c r="O38" s="23">
-        <v>1500</v>
-      </c>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="23">
-        <v>12000</v>
-      </c>
-      <c r="R38" s="23">
-        <v>1500</v>
-      </c>
-      <c r="S38" s="37">
-        <v>263072.79652163608</v>
-      </c>
-      <c r="T38" s="23">
-        <v>273606.30000000005</v>
-      </c>
-      <c r="U38" s="23">
-        <v>0</v>
-      </c>
-      <c r="V38" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="36">
-        <v>1</v>
-      </c>
-      <c r="C39" s="22">
-        <v>11</v>
-      </c>
-      <c r="D39" s="35">
-        <v>96</v>
-      </c>
-      <c r="E39" s="54">
-        <v>0</v>
-      </c>
-      <c r="F39" s="54">
-        <v>0</v>
-      </c>
-      <c r="G39" s="54">
-        <v>0</v>
-      </c>
-      <c r="H39" s="54">
-        <v>0</v>
-      </c>
-      <c r="I39" s="54"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
+      <c r="E39" s="55">
+        <v>0</v>
+      </c>
+      <c r="F39" s="55">
+        <v>0</v>
+      </c>
+      <c r="G39" s="55">
+        <v>0</v>
+      </c>
+      <c r="H39" s="55">
+        <v>0</v>
+      </c>
+      <c r="I39" s="55"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
       <c r="L39" s="30">
         <v>10</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="37">
         <v>60</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="23">
+        <v>12000</v>
+      </c>
+      <c r="O39" s="23">
+        <v>1500</v>
+      </c>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="23">
+        <v>12000</v>
+      </c>
+      <c r="R39" s="23">
+        <v>1500</v>
+      </c>
+      <c r="S39" s="37">
+        <v>263072.79652163608</v>
+      </c>
+      <c r="T39" s="23">
+        <v>273606.30000000005</v>
+      </c>
+      <c r="U39" s="23">
+        <v>0</v>
+      </c>
+      <c r="V39" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="36">
+        <v>1</v>
+      </c>
+      <c r="C40" s="22">
+        <v>11</v>
+      </c>
+      <c r="D40" s="35">
+        <v>96</v>
+      </c>
+      <c r="E40" s="54">
+        <v>0</v>
+      </c>
+      <c r="F40" s="54">
+        <v>0</v>
+      </c>
+      <c r="G40" s="54">
+        <v>0</v>
+      </c>
+      <c r="H40" s="54">
+        <v>0</v>
+      </c>
+      <c r="I40" s="54"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="30">
+        <v>10</v>
+      </c>
+      <c r="M40" s="36">
+        <v>60</v>
+      </c>
+      <c r="N40" s="22">
         <v>3000</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O40" s="22">
         <v>1500</v>
       </c>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="22">
+      <c r="P40" s="63"/>
+      <c r="Q40" s="22">
         <v>3000</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R40" s="22">
         <v>1500</v>
       </c>
-      <c r="S39" s="36">
+      <c r="S40" s="36">
         <v>263072.79652163608</v>
       </c>
-      <c r="T39" s="29">
+      <c r="T40" s="29">
         <v>273606.30000000005</v>
       </c>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="81" t="s">
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+    </row>
+    <row r="41" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="55">
-        <v>1</v>
-      </c>
-      <c r="C40" s="64">
+      <c r="B41" s="55">
+        <v>1</v>
+      </c>
+      <c r="C41" s="64">
         <v>11</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D41" s="52">
         <v>96</v>
       </c>
-      <c r="E40" s="55">
-        <v>0</v>
-      </c>
-      <c r="F40" s="55">
-        <v>0</v>
-      </c>
-      <c r="G40" s="55">
-        <v>0</v>
-      </c>
-      <c r="H40" s="55">
-        <v>0</v>
-      </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="49">
+      <c r="E41" s="55">
+        <v>0</v>
+      </c>
+      <c r="F41" s="55">
+        <v>0</v>
+      </c>
+      <c r="G41" s="55">
+        <v>0</v>
+      </c>
+      <c r="H41" s="55">
+        <v>0</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="49">
         <v>10</v>
       </c>
-      <c r="M40" s="55">
+      <c r="M41" s="55">
         <v>60</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N41" s="64">
         <v>12000</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O41" s="64">
         <v>1500</v>
       </c>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64">
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64">
         <v>12000</v>
       </c>
-      <c r="R40" s="64">
+      <c r="R41" s="64">
         <v>1500</v>
       </c>
-      <c r="S40" s="55">
+      <c r="S41" s="55">
         <v>263072.79652163608</v>
       </c>
-      <c r="T40" s="64">
+      <c r="T41" s="64">
         <v>273606.30000000005</v>
       </c>
-      <c r="U40" s="64">
-        <v>0</v>
-      </c>
-      <c r="V40" s="64">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1" t="s">
+      <c r="U41" s="64">
+        <v>0</v>
+      </c>
+      <c r="V41" s="64">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="68" t="s">
+    <row r="42" spans="1:23" s="1" customFormat="1" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="69">
-        <v>1</v>
-      </c>
-      <c r="C41" s="69">
+      <c r="B42" s="69">
+        <v>1</v>
+      </c>
+      <c r="C42" s="69">
         <v>25</v>
-      </c>
-      <c r="D41" s="76">
-        <v>96</v>
-      </c>
-      <c r="E41" s="70">
-        <v>0</v>
-      </c>
-      <c r="F41" s="77">
-        <v>0</v>
-      </c>
-      <c r="G41" s="77">
-        <v>0</v>
-      </c>
-      <c r="H41" s="77">
-        <v>0</v>
-      </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="30">
-        <v>16</v>
-      </c>
-      <c r="M41" s="69">
-        <v>60</v>
-      </c>
-      <c r="N41" s="71">
-        <v>26000</v>
-      </c>
-      <c r="O41" s="68">
-        <v>6000</v>
-      </c>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="71">
-        <v>26000</v>
-      </c>
-      <c r="R41" s="68">
-        <v>6000</v>
-      </c>
-      <c r="S41" s="71">
-        <v>77419</v>
-      </c>
-      <c r="T41" s="71">
-        <v>7493325</v>
-      </c>
-      <c r="U41" s="23">
-        <v>0</v>
-      </c>
-      <c r="V41" s="23">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="69">
-        <v>1</v>
-      </c>
-      <c r="C42" s="69">
-        <v>26</v>
       </c>
       <c r="D42" s="76">
         <v>96</v>
@@ -3725,17 +3725,17 @@
       <c r="O42" s="68">
         <v>6000</v>
       </c>
-      <c r="P42" s="73"/>
+      <c r="P42" s="72"/>
       <c r="Q42" s="71">
         <v>26000</v>
       </c>
       <c r="R42" s="68">
         <v>6000</v>
       </c>
-      <c r="S42" s="73">
+      <c r="S42" s="71">
         <v>77419</v>
       </c>
-      <c r="T42" s="73">
+      <c r="T42" s="71">
         <v>7493325</v>
       </c>
       <c r="U42" s="23">
@@ -3750,13 +3750,13 @@
     </row>
     <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="69">
         <v>1</v>
       </c>
       <c r="C43" s="69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="76">
         <v>96</v>
@@ -3788,18 +3788,18 @@
       <c r="O43" s="68">
         <v>6000</v>
       </c>
-      <c r="P43" s="72"/>
+      <c r="P43" s="73"/>
       <c r="Q43" s="71">
         <v>26000</v>
       </c>
       <c r="R43" s="68">
         <v>6000</v>
       </c>
-      <c r="S43" s="71">
-        <v>89355</v>
-      </c>
-      <c r="T43" s="71">
-        <v>9613885</v>
+      <c r="S43" s="73">
+        <v>77419</v>
+      </c>
+      <c r="T43" s="73">
+        <v>7493325</v>
       </c>
       <c r="U43" s="23">
         <v>0</v>
@@ -3808,21 +3808,21 @@
         <v>0</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="69">
         <v>1</v>
       </c>
       <c r="C44" s="69">
-        <v>28</v>
-      </c>
-      <c r="D44" s="70">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="D44" s="76">
+        <v>96</v>
       </c>
       <c r="E44" s="70">
         <v>0</v>
@@ -3840,25 +3840,29 @@
       <c r="J44" s="69"/>
       <c r="K44" s="69"/>
       <c r="L44" s="30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M44" s="69">
         <v>60</v>
       </c>
       <c r="N44" s="71">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="O44" s="68">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P44" s="72"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="71"/>
+      <c r="Q44" s="71">
+        <v>26000</v>
+      </c>
+      <c r="R44" s="68">
+        <v>6000</v>
+      </c>
       <c r="S44" s="71">
-        <v>44250</v>
+        <v>89355</v>
       </c>
       <c r="T44" s="71">
-        <v>1456980</v>
+        <v>9613885</v>
       </c>
       <c r="U44" s="23">
         <v>0</v>
@@ -3867,12 +3871,12 @@
         <v>0</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="68" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B45" s="69">
         <v>1</v>
@@ -3926,12 +3930,12 @@
         <v>0</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="68" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B46" s="69">
         <v>1</v>
@@ -3984,19 +3988,21 @@
       <c r="V46" s="23">
         <v>0</v>
       </c>
-      <c r="W46" s="1"/>
+      <c r="W46" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="68" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B47" s="69">
         <v>1</v>
       </c>
       <c r="C47" s="69">
-        <v>29</v>
-      </c>
-      <c r="D47" s="69">
+        <v>28</v>
+      </c>
+      <c r="D47" s="70">
         <v>64</v>
       </c>
       <c r="E47" s="70">
@@ -4020,20 +4026,20 @@
       <c r="M47" s="69">
         <v>60</v>
       </c>
-      <c r="N47" s="71"/>
-      <c r="O47" s="68"/>
+      <c r="N47" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O47" s="68">
+        <v>2000</v>
+      </c>
       <c r="P47" s="72"/>
-      <c r="Q47" s="68">
-        <v>5500</v>
-      </c>
-      <c r="R47" s="71">
-        <v>2000</v>
-      </c>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="71"/>
       <c r="S47" s="71">
         <v>44250</v>
       </c>
       <c r="T47" s="71">
-        <v>2207605</v>
+        <v>1456980</v>
       </c>
       <c r="U47" s="23">
         <v>0</v>
@@ -4041,19 +4047,17 @@
       <c r="V47" s="23">
         <v>0</v>
       </c>
-      <c r="W47" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="68" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B48" s="69">
         <v>1</v>
       </c>
       <c r="C48" s="69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="69">
         <v>64</v>
@@ -4092,7 +4096,7 @@
         <v>44250</v>
       </c>
       <c r="T48" s="71">
-        <v>613492</v>
+        <v>2207605</v>
       </c>
       <c r="U48" s="23">
         <v>0</v>
@@ -4105,8 +4109,8 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="72" t="s">
-        <v>110</v>
+      <c r="A49" s="68" t="s">
+        <v>109</v>
       </c>
       <c r="B49" s="69">
         <v>1</v>
@@ -4165,7 +4169,7 @@
     </row>
     <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="72" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B50" s="69">
         <v>1</v>
@@ -4219,12 +4223,12 @@
         <v>0</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B51" s="69">
         <v>1</v>
@@ -4282,20 +4286,20 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="68" t="s">
-        <v>121</v>
+      <c r="A52" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="B52" s="69">
         <v>1</v>
       </c>
       <c r="C52" s="69">
-        <v>31</v>
-      </c>
-      <c r="D52" s="76">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="D52" s="69">
+        <v>64</v>
       </c>
       <c r="E52" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="77">
         <v>0</v>
@@ -4310,17 +4314,13 @@
       <c r="J52" s="69"/>
       <c r="K52" s="69"/>
       <c r="L52" s="30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M52" s="69">
         <v>60</v>
       </c>
-      <c r="N52" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O52" s="68">
-        <v>2000</v>
-      </c>
+      <c r="N52" s="71"/>
+      <c r="O52" s="68"/>
       <c r="P52" s="72"/>
       <c r="Q52" s="68">
         <v>5500</v>
@@ -4329,10 +4329,10 @@
         <v>2000</v>
       </c>
       <c r="S52" s="71">
-        <v>36088</v>
+        <v>44250</v>
       </c>
       <c r="T52" s="71">
-        <v>353633</v>
+        <v>613492</v>
       </c>
       <c r="U52" s="23">
         <v>0</v>
@@ -4340,11 +4340,13 @@
       <c r="V52" s="23">
         <v>0</v>
       </c>
-      <c r="W52" s="1"/>
+      <c r="W52" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="69">
         <v>1</v>
@@ -4401,13 +4403,11 @@
       <c r="V53" s="23">
         <v>0</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="69">
         <v>1</v>
@@ -4464,11 +4464,13 @@
       <c r="V54" s="23">
         <v>0</v>
       </c>
-      <c r="W54" s="1"/>
+      <c r="W54" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" s="69">
         <v>1</v>
@@ -4529,7 +4531,7 @@
     </row>
     <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="68" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B56" s="69">
         <v>1</v>
@@ -4578,7 +4580,7 @@
         <v>36088</v>
       </c>
       <c r="T56" s="71">
-        <v>577001</v>
+        <v>353633</v>
       </c>
       <c r="U56" s="23">
         <v>0</v>
@@ -4586,25 +4588,23 @@
       <c r="V56" s="23">
         <v>0</v>
       </c>
-      <c r="W56" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="68" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B57" s="69">
         <v>1</v>
       </c>
       <c r="C57" s="69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="76">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E57" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="77">
         <v>0</v>
@@ -4619,25 +4619,29 @@
       <c r="J57" s="69"/>
       <c r="K57" s="69"/>
       <c r="L57" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M57" s="69">
         <v>60</v>
       </c>
       <c r="N57" s="71">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="O57" s="68">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P57" s="72"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="71"/>
+      <c r="Q57" s="68">
+        <v>5500</v>
+      </c>
+      <c r="R57" s="71">
+        <v>2000</v>
+      </c>
       <c r="S57" s="71">
-        <v>332032</v>
+        <v>36088</v>
       </c>
       <c r="T57" s="71">
-        <v>4681529</v>
+        <v>577001</v>
       </c>
       <c r="U57" s="23">
         <v>0</v>
@@ -4646,12 +4650,12 @@
         <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B58" s="69">
         <v>1</v>
@@ -4660,10 +4664,10 @@
         <v>32</v>
       </c>
       <c r="D58" s="76">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E58" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="77">
         <v>0</v>
@@ -4684,23 +4688,19 @@
         <v>60</v>
       </c>
       <c r="N58" s="71">
-        <v>60000</v>
+        <v>8250</v>
       </c>
       <c r="O58" s="68">
         <v>3000</v>
       </c>
       <c r="P58" s="72"/>
-      <c r="Q58" s="68">
-        <v>4000</v>
-      </c>
-      <c r="R58" s="71">
-        <v>1500</v>
-      </c>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="71"/>
       <c r="S58" s="71">
         <v>332032</v>
       </c>
       <c r="T58" s="71">
-        <v>7013267</v>
+        <v>4681529</v>
       </c>
       <c r="U58" s="23">
         <v>0</v>
@@ -4714,19 +4714,19 @@
     </row>
     <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="69">
         <v>1</v>
       </c>
       <c r="C59" s="69">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="76">
         <v>96</v>
       </c>
       <c r="E59" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="77">
         <v>0</v>
@@ -4747,19 +4747,23 @@
         <v>60</v>
       </c>
       <c r="N59" s="71">
-        <v>40</v>
+        <v>60000</v>
       </c>
       <c r="O59" s="68">
+        <v>3000</v>
+      </c>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="68">
+        <v>4000</v>
+      </c>
+      <c r="R59" s="71">
         <v>1500</v>
       </c>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="71"/>
       <c r="S59" s="71">
-        <v>28389</v>
+        <v>332032</v>
       </c>
       <c r="T59" s="71">
-        <v>2491787</v>
+        <v>7013267</v>
       </c>
       <c r="U59" s="23">
         <v>0</v>
@@ -4768,21 +4772,21 @@
         <v>0</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="68" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B60" s="69">
         <v>1</v>
       </c>
       <c r="C60" s="69">
-        <v>34</v>
-      </c>
-      <c r="D60" s="69">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="D60" s="76">
+        <v>96</v>
       </c>
       <c r="E60" s="70">
         <v>0</v>
@@ -4805,18 +4809,20 @@
       <c r="M60" s="69">
         <v>60</v>
       </c>
-      <c r="N60" s="71"/>
-      <c r="O60" s="68"/>
+      <c r="N60" s="71">
+        <v>40</v>
+      </c>
+      <c r="O60" s="68">
+        <v>1500</v>
+      </c>
       <c r="P60" s="72"/>
-      <c r="Q60" s="68">
-        <v>12000</v>
-      </c>
+      <c r="Q60" s="68"/>
       <c r="R60" s="71"/>
       <c r="S60" s="71">
         <v>28389</v>
       </c>
       <c r="T60" s="71">
-        <v>6664255</v>
+        <v>2491787</v>
       </c>
       <c r="U60" s="23">
         <v>0</v>
@@ -4825,21 +4831,21 @@
         <v>0</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="68" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B61" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="69">
-        <v>35</v>
-      </c>
-      <c r="D61" s="76">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="D61" s="69">
+        <v>64</v>
       </c>
       <c r="E61" s="70">
         <v>0</v>
@@ -4853,37 +4859,27 @@
       <c r="H61" s="77">
         <v>0</v>
       </c>
-      <c r="I61" s="72">
-        <v>15000</v>
-      </c>
+      <c r="I61" s="80"/>
       <c r="J61" s="69"/>
       <c r="K61" s="69"/>
       <c r="L61" s="30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M61" s="69">
         <v>60</v>
       </c>
-      <c r="N61" s="71">
-        <v>9000</v>
-      </c>
-      <c r="O61" s="68">
-        <v>3000</v>
-      </c>
-      <c r="P61" s="72">
-        <v>5000</v>
-      </c>
+      <c r="N61" s="71"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="72"/>
       <c r="Q61" s="68">
-        <v>9000</v>
-      </c>
-      <c r="R61" s="71">
-        <v>3000</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="R61" s="71"/>
       <c r="S61" s="71">
-        <v>175980</v>
+        <v>28389</v>
       </c>
       <c r="T61" s="71">
-        <v>2352442.63</v>
+        <v>6664255</v>
       </c>
       <c r="U61" s="23">
         <v>0</v>
@@ -4892,21 +4888,21 @@
         <v>0</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="69">
         <v>2</v>
       </c>
       <c r="C62" s="69">
-        <v>36</v>
-      </c>
-      <c r="D62" s="69">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="D62" s="76">
+        <v>96</v>
       </c>
       <c r="E62" s="70">
         <v>0</v>
@@ -4921,32 +4917,36 @@
         <v>0</v>
       </c>
       <c r="I62" s="72">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="J62" s="69"/>
       <c r="K62" s="69"/>
       <c r="L62" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M62" s="69">
         <v>60</v>
       </c>
-      <c r="N62" s="71"/>
-      <c r="O62" s="68"/>
+      <c r="N62" s="71">
+        <v>9000</v>
+      </c>
+      <c r="O62" s="68">
+        <v>3000</v>
+      </c>
       <c r="P62" s="72">
+        <v>5000</v>
+      </c>
+      <c r="Q62" s="68">
+        <v>9000</v>
+      </c>
+      <c r="R62" s="71">
         <v>3000</v>
       </c>
-      <c r="Q62" s="68">
-        <v>6000</v>
-      </c>
-      <c r="R62" s="71">
-        <v>1500</v>
-      </c>
       <c r="S62" s="71">
-        <v>959786</v>
+        <v>175980</v>
       </c>
       <c r="T62" s="71">
-        <v>3929496</v>
+        <v>2352442.63</v>
       </c>
       <c r="U62" s="23">
         <v>0</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="69">
         <v>2</v>
@@ -5009,7 +5009,7 @@
         <v>959786</v>
       </c>
       <c r="T63" s="71">
-        <v>4123075</v>
+        <v>3929496</v>
       </c>
       <c r="U63" s="23">
         <v>0</v>
@@ -5023,13 +5023,13 @@
     </row>
     <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="70">
+        <v>93</v>
+      </c>
+      <c r="B64" s="69">
         <v>2</v>
       </c>
       <c r="C64" s="69">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" s="69">
         <v>64</v>
@@ -5072,7 +5072,7 @@
         <v>959786</v>
       </c>
       <c r="T64" s="71">
-        <v>3665106</v>
+        <v>4123075</v>
       </c>
       <c r="U64" s="23">
         <v>0</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="70">
         <v>2</v>
@@ -5128,14 +5128,14 @@
       <c r="Q65" s="68">
         <v>6000</v>
       </c>
-      <c r="R65" s="68">
-        <v>6000</v>
+      <c r="R65" s="71">
+        <v>1500</v>
       </c>
       <c r="S65" s="71">
         <v>959786</v>
       </c>
       <c r="T65" s="71">
-        <v>3845796</v>
+        <v>3665106</v>
       </c>
       <c r="U65" s="23">
         <v>0</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="66" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="70">
         <v>2</v>
@@ -5212,16 +5212,16 @@
     </row>
     <row r="67" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="69">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="B67" s="70">
+        <v>2</v>
       </c>
       <c r="C67" s="69">
-        <v>38</v>
-      </c>
-      <c r="D67" s="76">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="D67" s="69">
+        <v>64</v>
       </c>
       <c r="E67" s="70">
         <v>0</v>
@@ -5235,33 +5235,33 @@
       <c r="H67" s="77">
         <v>0</v>
       </c>
-      <c r="I67" s="80"/>
+      <c r="I67" s="72">
+        <v>12000</v>
+      </c>
       <c r="J67" s="69"/>
-      <c r="K67" s="74"/>
+      <c r="K67" s="69"/>
       <c r="L67" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M67" s="69">
         <v>60</v>
       </c>
-      <c r="N67" s="71">
-        <v>2250</v>
-      </c>
-      <c r="O67" s="68">
-        <v>750</v>
-      </c>
-      <c r="P67" s="72"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="72">
+        <v>3000</v>
+      </c>
       <c r="Q67" s="68">
-        <v>2250</v>
-      </c>
-      <c r="R67" s="71">
-        <v>750</v>
+        <v>6000</v>
+      </c>
+      <c r="R67" s="68">
+        <v>6000</v>
       </c>
       <c r="S67" s="71">
-        <v>148802</v>
+        <v>959786</v>
       </c>
       <c r="T67" s="71">
-        <v>404980</v>
+        <v>3845796</v>
       </c>
       <c r="U67" s="23">
         <v>0</v>
@@ -5270,18 +5270,18 @@
         <v>0</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="69">
         <v>1</v>
       </c>
       <c r="C68" s="69">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="76">
         <v>96</v>
@@ -5301,22 +5301,30 @@
       <c r="I68" s="80"/>
       <c r="J68" s="69"/>
       <c r="K68" s="74"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="75"/>
+      <c r="L68" s="30">
+        <v>12</v>
+      </c>
+      <c r="M68" s="69">
+        <v>60</v>
+      </c>
       <c r="N68" s="71">
-        <v>7124</v>
-      </c>
-      <c r="O68" s="68"/>
+        <v>2250</v>
+      </c>
+      <c r="O68" s="68">
+        <v>750</v>
+      </c>
       <c r="P68" s="72"/>
       <c r="Q68" s="68">
-        <v>7124</v>
-      </c>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71" t="s">
-        <v>118</v>
+        <v>2250</v>
+      </c>
+      <c r="R68" s="71">
+        <v>750</v>
+      </c>
+      <c r="S68" s="71">
+        <v>148802</v>
       </c>
       <c r="T68" s="71">
-        <v>1278575</v>
+        <v>404980</v>
       </c>
       <c r="U68" s="23">
         <v>0</v>
@@ -5325,12 +5333,12 @@
         <v>0</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" s="69">
         <v>1</v>
@@ -5371,7 +5379,7 @@
         <v>118</v>
       </c>
       <c r="T69" s="71">
-        <v>1091750</v>
+        <v>1278575</v>
       </c>
       <c r="U69" s="23">
         <v>0</v>
@@ -5383,9 +5391,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="68" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B70" s="69">
         <v>1</v>
@@ -5434,20 +5442,22 @@
       <c r="V70" s="23">
         <v>0</v>
       </c>
-      <c r="W70" s="1"/>
-    </row>
-    <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W70" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="68" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B71" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="69">
-        <v>40</v>
-      </c>
-      <c r="D71" s="69">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D71" s="76">
+        <v>96</v>
       </c>
       <c r="E71" s="70">
         <v>0</v>
@@ -5465,47 +5475,42 @@
       <c r="J71" s="69"/>
       <c r="K71" s="74"/>
       <c r="L71" s="30"/>
-      <c r="M71" s="75">
-        <v>180</v>
-      </c>
+      <c r="M71" s="75"/>
       <c r="N71" s="71">
-        <v>12000</v>
-      </c>
-      <c r="O71" s="68">
-        <v>1500</v>
-      </c>
+        <v>7124</v>
+      </c>
+      <c r="O71" s="68"/>
       <c r="P71" s="72"/>
-      <c r="Q71" s="68"/>
+      <c r="Q71" s="68">
+        <v>7124</v>
+      </c>
       <c r="R71" s="71"/>
-      <c r="S71" s="78">
-        <f>1400000/1.22</f>
-        <v>1147540.9836065574</v>
+      <c r="S71" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="T71" s="71">
-        <v>1000000</v>
-      </c>
-      <c r="U71" s="71">
-        <v>2000</v>
-      </c>
-      <c r="V71" s="71">
-        <v>0</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>1091750</v>
+      </c>
+      <c r="U71" s="23">
+        <v>0</v>
+      </c>
+      <c r="V71" s="23">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="68" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B72" s="69">
         <v>2</v>
       </c>
       <c r="C72" s="69">
-        <v>41</v>
-      </c>
-      <c r="D72" s="76">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="D72" s="69">
+        <v>32</v>
       </c>
       <c r="E72" s="70">
         <v>0</v>
@@ -5526,35 +5531,35 @@
       <c r="M72" s="75">
         <v>180</v>
       </c>
-      <c r="N72" s="71"/>
-      <c r="O72" s="68"/>
+      <c r="N72" s="71">
+        <v>12000</v>
+      </c>
+      <c r="O72" s="68">
+        <v>1500</v>
+      </c>
       <c r="P72" s="72"/>
-      <c r="Q72" s="68">
-        <v>7500</v>
-      </c>
-      <c r="R72" s="71">
-        <v>1500</v>
-      </c>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="71"/>
       <c r="S72" s="78">
-        <f>2120000/1.22</f>
-        <v>1737704.9180327868</v>
+        <f>1400000/1.22</f>
+        <v>1147540.9836065574</v>
       </c>
       <c r="T72" s="71">
-        <v>4118223</v>
-      </c>
-      <c r="U72" s="23">
-        <v>0</v>
-      </c>
-      <c r="V72" s="23">
+        <v>1000000</v>
+      </c>
+      <c r="U72" s="71">
+        <v>2000</v>
+      </c>
+      <c r="V72" s="71">
         <v>0</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="69">
         <v>2</v>
@@ -5612,13 +5617,13 @@
     </row>
     <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B74" s="69">
         <v>2</v>
       </c>
       <c r="C74" s="69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D74" s="76">
         <v>64</v>
@@ -5649,14 +5654,14 @@
         <v>7500</v>
       </c>
       <c r="R74" s="71">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="S74" s="78">
-        <f>5500000/1.2</f>
-        <v>4583333.333333334</v>
+        <f>2120000/1.22</f>
+        <v>1737704.9180327868</v>
       </c>
       <c r="T74" s="71">
-        <v>8544000</v>
+        <v>4118223</v>
       </c>
       <c r="U74" s="23">
         <v>0</v>
@@ -5665,12 +5670,12 @@
         <v>0</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="69">
         <v>2</v>
@@ -5728,7 +5733,7 @@
     </row>
     <row r="76" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="68" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B76" s="69">
         <v>2</v>
@@ -5780,10 +5785,13 @@
       <c r="V76" s="23">
         <v>0</v>
       </c>
+      <c r="W76" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" s="69">
         <v>2</v>
@@ -5836,9 +5844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" s="69">
         <v>2</v>
@@ -5891,8 +5899,63 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="69">
+        <v>2</v>
+      </c>
+      <c r="C79" s="69">
+        <v>42</v>
+      </c>
+      <c r="D79" s="76">
+        <v>64</v>
+      </c>
+      <c r="E79" s="70">
+        <v>0</v>
+      </c>
+      <c r="F79" s="77">
+        <v>0</v>
+      </c>
+      <c r="G79" s="77">
+        <v>0</v>
+      </c>
+      <c r="H79" s="77">
+        <v>0</v>
+      </c>
+      <c r="I79" s="80"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="75">
+        <v>180</v>
+      </c>
+      <c r="N79" s="71"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="68">
+        <v>7500</v>
+      </c>
+      <c r="R79" s="71">
+        <v>2000</v>
+      </c>
+      <c r="S79" s="78">
+        <f>5500000/1.2</f>
+        <v>4583333.333333334</v>
+      </c>
+      <c r="T79" s="71">
+        <v>8544000</v>
+      </c>
+      <c r="U79" s="23">
+        <v>0</v>
+      </c>
+      <c r="V79" s="23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:V39"/>
+  <autoFilter ref="A2:V40"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="U1:V1"/>
